--- a/13 Reasons Why novo.xlsx
+++ b/13 Reasons Why novo.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiakerber/Documents/GitHub/PROJETO-2-CD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A826C76-79F8-7E4E-8D52-950865B2B0D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="27180" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1004">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3513,12 +3519,24 @@
 6. b99 
 7… https://t.co/mvdoavyi9a</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3542,12 +3560,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3581,12 +3605,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3594,6 +3625,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3640,7 +3679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3672,9 +3711,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3706,6 +3763,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3881,5032 +3956,5944 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A601"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="118.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B299" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>600</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A259" r:id="rId1"/>
+    <hyperlink ref="A259" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A399"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B399"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="116.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A269" r:id="rId1"/>
+    <hyperlink ref="A269" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/13 Reasons Why novo.xlsx
+++ b/13 Reasons Why novo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiakerber/Documents/GitHub/PROJETO-2-CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Ciência de dados\PROJETO-2-CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A826C76-79F8-7E4E-8D52-950865B2B0D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E02A87-8877-45F6-AAE6-E181CA28F26D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="27180" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1005">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3530,6 +3530,9 @@
   </si>
   <si>
     <t>Categoria</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3620,7 +3623,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3637,7 +3640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3959,16 +3962,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="118.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4216,7 +4219,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4384,7 +4387,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4424,7 +4427,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4488,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4648,7 +4651,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4824,7 +4827,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4936,7 +4939,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4952,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5144,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5224,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5344,7 +5347,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5528,7 +5531,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5664,7 +5667,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -6040,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -6064,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -6104,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
@@ -6368,1509 +6371,2412 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B303" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B333" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B334" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B335" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B336" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B337" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B338" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B339" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B340" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B341" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B342" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B343" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B344" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B345" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B346" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B347" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B348" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B349" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B350" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B351" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B352" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B353" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B354" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B355" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B356" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B357" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B358" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B359" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B360" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B361" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B362" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B363" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B364" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B365" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B366" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B367" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B368" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B369" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B370" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B371" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B372" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B373" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B374" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B375" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B376" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B377" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B378" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B379" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B380" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B381" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B382" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B383" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B389" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B390" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B391" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B392" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B393" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B394" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B395" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B396" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B397" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B398" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B399" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B400" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B401" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B402" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B403" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B404" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B405" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B406" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B407" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B408" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B409" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B410" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B411" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B412" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B413" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B414" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B415" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B440" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B441" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B442" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B443" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B444" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B445" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B446" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B447" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B448" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B449" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B450" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B451" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B452" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B453" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B454" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B455" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B456" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B457" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B458" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B459" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B460" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B461" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B462" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B463" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B464" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B465" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B466" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B467" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B468" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B469" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B470" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B471" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B472" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B473" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B474" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B475" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B476" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B477" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B478" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B479" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B480" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B481" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B482" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B483" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B484" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B485" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B486" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B487" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B488" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B489" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B490" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B491" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B492" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B493" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B494" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B495" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B496" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B497" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B498" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B499" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B500" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B501" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B502" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B503" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B504" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B505" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B506" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B507" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B508" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B509" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B510" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B511" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B512" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B513" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B514" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B515" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B516" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B517" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B518" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B519" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B520" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B521" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B522" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B523" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B524" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B525" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B526" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B527" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B528" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B529" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B530" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B531" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B532" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B533" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B534" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B535" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B536" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B537" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B538" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B539" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B540" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B541" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B542" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B543" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B544" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B545" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B556" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B571" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B572" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B573" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B574" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B575" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B576" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B577" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B578" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B579" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B580" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B581" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B582" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B583" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B584" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B585" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B586" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B587" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B588" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B589" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B590" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B591" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B597" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B598" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B599" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B600" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>600</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -7889,2004 +8795,2004 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="116.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="116.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>900</v>
       </c>
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>999</v>
       </c>

--- a/13 Reasons Why novo.xlsx
+++ b/13 Reasons Why novo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Ciência de dados\PROJETO-2-CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiakerber/Documents/GitHub/PROJETO-2-CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E02A87-8877-45F6-AAE6-E181CA28F26D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FC26F-2B21-EF4D-BD1C-7F5D994B5393}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="820" windowWidth="27180" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1004">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3530,9 +3530,6 @@
   </si>
   <si>
     <t>Categoria</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
 </sst>
 </file>
@@ -3608,7 +3605,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3621,9 +3618,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3640,7 +3644,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3962,24 +3966,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="118.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4291,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4827,7 +4831,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5147,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5451,7 +5455,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5787,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5843,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5979,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -6011,7 +6015,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -6035,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -6251,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6331,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
@@ -6371,2412 +6375,1509 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-      <c r="B315" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-      <c r="B321" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-      <c r="B327" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-      <c r="B329" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-      <c r="B330" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-      <c r="B331" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-      <c r="B332" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-      <c r="B333" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-      <c r="B334" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-      <c r="B335" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-      <c r="B336" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-      <c r="B337" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-      <c r="B338" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-      <c r="B339" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-      <c r="B340" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-      <c r="B341" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-      <c r="B342" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-      <c r="B343" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-      <c r="B344" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-      <c r="B345" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-      <c r="B348" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-      <c r="B352" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-      <c r="B353" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-      <c r="B354" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-      <c r="B355" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-      <c r="B356" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-      <c r="B357" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-      <c r="B358" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-      <c r="B359" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-      <c r="B360" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-      <c r="B361" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-      <c r="B362" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-      <c r="B364" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-      <c r="B365" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-      <c r="B366" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-      <c r="B367" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-      <c r="B368" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-      <c r="B370" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-      <c r="B371" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-      <c r="B372" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-      <c r="B373" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-      <c r="B374" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-      <c r="B375" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-      <c r="B376" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-      <c r="B377" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-      <c r="B378" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-      <c r="B379" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-      <c r="B380" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-      <c r="B381" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-      <c r="B382" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-      <c r="B383" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-      <c r="B384" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-      <c r="B385" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-      <c r="B386" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-      <c r="B387" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="B388" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-      <c r="B389" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-      <c r="B390" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-      <c r="B391" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-      <c r="B392" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-      <c r="B393" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-      <c r="B394" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-      <c r="B396" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-      <c r="B397" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-      <c r="B398" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-      <c r="B399" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-      <c r="B400" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-      <c r="B401" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-      <c r="B402" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-      <c r="B403" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-      <c r="B408" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-      <c r="B409" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-      <c r="B410" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-      <c r="B411" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-      <c r="B412" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-      <c r="B413" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-      <c r="B414" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-      <c r="B415" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-      <c r="B416" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-      <c r="B417" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-      <c r="B418" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-      <c r="B419" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-      <c r="B420" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-      <c r="B421" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-      <c r="B422" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-      <c r="B423" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-      <c r="B424" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-      <c r="B425" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-      <c r="B427" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-      <c r="B428" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-      <c r="B430" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-      <c r="B431" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-      <c r="B432" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-      <c r="B433" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-      <c r="B434" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-      <c r="B435" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-      <c r="B436" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-      <c r="B437" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-      <c r="B438" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-      <c r="B439" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-      <c r="B440" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-      <c r="B441" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-      <c r="B442" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-      <c r="B443" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-      <c r="B444" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-      <c r="B445" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-      <c r="B446" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-      <c r="B447" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-      <c r="B448" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-      <c r="B449" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-      <c r="B450" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-      <c r="B451" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-      <c r="B452" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-      <c r="B453" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-      <c r="B454" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-      <c r="B455" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-      <c r="B456" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-      <c r="B457" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-      <c r="B458" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-      <c r="B459" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-      <c r="B460" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-      <c r="B461" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-      <c r="B462" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-      <c r="B463" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-      <c r="B464" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-      <c r="B466" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-      <c r="B467" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-      <c r="B468" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-      <c r="B469" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-      <c r="B470" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-      <c r="B471" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-      <c r="B472" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-      <c r="B473" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-      <c r="B474" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-      <c r="B475" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-      <c r="B476" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-      <c r="B477" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-      <c r="B479" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-      <c r="B480" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-      <c r="B482" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-      <c r="B483" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-      <c r="B484" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-      <c r="B485" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-      <c r="B486" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-      <c r="B487" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-      <c r="B488" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-      <c r="B489" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-      <c r="B490" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-      <c r="B491" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-      <c r="B493" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-      <c r="B495" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-      <c r="B496" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-      <c r="B497" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-      <c r="B498" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-      <c r="B499" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-      <c r="B500" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>500</v>
       </c>
-      <c r="B501" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>501</v>
       </c>
-      <c r="B502" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>502</v>
       </c>
-      <c r="B503" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>503</v>
       </c>
-      <c r="B504" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>504</v>
       </c>
-      <c r="B505" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>505</v>
       </c>
-      <c r="B506" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>506</v>
       </c>
-      <c r="B507" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>507</v>
       </c>
-      <c r="B508" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>508</v>
       </c>
-      <c r="B509" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>509</v>
       </c>
-      <c r="B510" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>510</v>
       </c>
-      <c r="B511" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>511</v>
       </c>
-      <c r="B512" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>512</v>
       </c>
-      <c r="B513" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>513</v>
       </c>
-      <c r="B514" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>514</v>
       </c>
-      <c r="B515" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>515</v>
       </c>
-      <c r="B516" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>516</v>
       </c>
-      <c r="B517" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>517</v>
       </c>
-      <c r="B518" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>518</v>
       </c>
-      <c r="B519" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>519</v>
       </c>
-      <c r="B520" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>520</v>
       </c>
-      <c r="B521" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>521</v>
       </c>
-      <c r="B522" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>522</v>
       </c>
-      <c r="B523" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>523</v>
       </c>
-      <c r="B524" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>524</v>
       </c>
-      <c r="B525" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>525</v>
       </c>
-      <c r="B526" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>526</v>
       </c>
-      <c r="B527" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>527</v>
       </c>
-      <c r="B528" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>528</v>
       </c>
-      <c r="B529" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>529</v>
       </c>
-      <c r="B530" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>530</v>
       </c>
-      <c r="B531" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>531</v>
       </c>
-      <c r="B532" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>532</v>
       </c>
-      <c r="B533" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>533</v>
       </c>
-      <c r="B534" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>534</v>
       </c>
-      <c r="B535" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>535</v>
       </c>
-      <c r="B536" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>536</v>
       </c>
-      <c r="B537" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>537</v>
       </c>
-      <c r="B538" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>538</v>
       </c>
-      <c r="B539" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>539</v>
       </c>
-      <c r="B540" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>540</v>
       </c>
-      <c r="B541" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>541</v>
       </c>
-      <c r="B542" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>542</v>
       </c>
-      <c r="B543" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>543</v>
       </c>
-      <c r="B544" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>544</v>
       </c>
-      <c r="B545" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>545</v>
       </c>
-      <c r="B546" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>546</v>
       </c>
-      <c r="B547" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>547</v>
       </c>
-      <c r="B548" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>548</v>
       </c>
-      <c r="B549" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>549</v>
       </c>
-      <c r="B550" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>550</v>
       </c>
-      <c r="B551" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>551</v>
       </c>
-      <c r="B552" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>552</v>
       </c>
-      <c r="B553" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>553</v>
       </c>
-      <c r="B554" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>554</v>
       </c>
-      <c r="B555" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>555</v>
       </c>
-      <c r="B556" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>556</v>
       </c>
-      <c r="B557" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>557</v>
       </c>
-      <c r="B558" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>558</v>
       </c>
-      <c r="B559" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>559</v>
       </c>
-      <c r="B560" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>560</v>
       </c>
-      <c r="B561" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>561</v>
       </c>
-      <c r="B562" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>562</v>
       </c>
-      <c r="B563" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>563</v>
       </c>
-      <c r="B564" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>564</v>
       </c>
-      <c r="B565" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>565</v>
       </c>
-      <c r="B566" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>566</v>
       </c>
-      <c r="B567" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>567</v>
       </c>
-      <c r="B568" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>568</v>
       </c>
-      <c r="B569" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>569</v>
       </c>
-      <c r="B570" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>570</v>
       </c>
-      <c r="B571" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>571</v>
       </c>
-      <c r="B572" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>572</v>
       </c>
-      <c r="B573" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>573</v>
       </c>
-      <c r="B574" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>574</v>
       </c>
-      <c r="B575" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>575</v>
       </c>
-      <c r="B576" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>576</v>
       </c>
-      <c r="B577" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>577</v>
       </c>
-      <c r="B578" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>578</v>
       </c>
-      <c r="B579" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>579</v>
       </c>
-      <c r="B580" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>580</v>
       </c>
-      <c r="B581" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>581</v>
       </c>
-      <c r="B582" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>582</v>
       </c>
-      <c r="B583" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>583</v>
       </c>
-      <c r="B584" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>584</v>
       </c>
-      <c r="B585" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>585</v>
       </c>
-      <c r="B586" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>586</v>
       </c>
-      <c r="B587" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>587</v>
       </c>
-      <c r="B588" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>588</v>
       </c>
-      <c r="B589" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>589</v>
       </c>
-      <c r="B590" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>590</v>
       </c>
-      <c r="B591" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>591</v>
       </c>
-      <c r="B592" s="4" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>592</v>
       </c>
-      <c r="B593" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>593</v>
       </c>
-      <c r="B594" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>594</v>
       </c>
-      <c r="B595" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>595</v>
       </c>
-      <c r="B596" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>596</v>
       </c>
-      <c r="B597" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>597</v>
       </c>
-      <c r="B598" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>598</v>
       </c>
-      <c r="B599" s="4" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>599</v>
       </c>
-      <c r="B600" s="4" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>600</v>
-      </c>
-      <c r="B601" s="4" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -8792,2007 +7893,2007 @@
   <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="4"/>
+    <col min="1" max="1" width="116.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
+    <row r="300" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="B300" s="5"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B300" s="8"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>999</v>
       </c>

--- a/13 Reasons Why novo.xlsx
+++ b/13 Reasons Why novo.xlsx
@@ -15,524 +15,375 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="971">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>é muito errado gostar do bryce de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>@seriestwbz 13 reasons why é de voce mesmo que to falando</t>
-  </si>
-  <si>
-    <t>termino hj 13 reasons why
-que aflição meu deus</t>
-  </si>
-  <si>
-    <t>só essa maratona da série 13 reasons why</t>
+    <t>fui assistir a terceira temp de 13 reasons why e fiquei perdidinha, não lembro de nada que aconteceu gente socorro</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy #tvtime https://t.co/szs6zjap8q</t>
+  </si>
+  <si>
+    <t>13 reasons why já lançou 3 temporada e eu tava viajando na vida wtf</t>
+  </si>
+  <si>
+    <t>eu assisti 10 eps seguidos de 13 reasons why que eu não tinha conseguido sair do primeiro quando lançou. 
+a tpm, a… https://t.co/u77bm2ea5k</t>
+  </si>
+  <si>
+    <t>sabia que eu tinha visto a cara dele antes de 13 reasons why https://t.co/4swifybptv</t>
+  </si>
+  <si>
+    <t>todo mundo é legal ,até que levem a cometer suicídio.
+  13 reasons why dando um toque de realidade.</t>
+  </si>
+  <si>
+    <t>acabei de ver a temporada 1 de 13 reasons why e cara todo dia alguém mata a gente um pouco mesmo...</t>
   </si>
   <si>
     <t>to acabando vis a vis, e não sei se vejo elite, grey’s ou 13 reasons why</t>
   </si>
   <si>
-    <t>elite e 13 reasons why na msm semana, dlç</t>
-  </si>
-  <si>
-    <t>rt @bchartsnet: smash sem precedentes, "elite" debuta em #1 no top10 das séries mais vistas da semana e derruba merda seca "13 reasons why"…</t>
-  </si>
-  <si>
-    <t>já que estou falante, deixa eu honrar esse compromisso aqui:
-a 3ª temporada de 13 reasons why é absolutamente horr… https://t.co/e7lxngebyd</t>
-  </si>
-  <si>
-    <t>acabei de adicionar 13 reasons why: ... à minha biblioteca! #tvtime https://t.co/w0vs38fhzw https://t.co/5qiu62trwz</t>
+    <t>coringa é um símbolo psicopata. dependendo de como o filme tiver sido trabalhado, fazer poesia em cima desse person… https://t.co/thirmjd8oq</t>
+  </si>
+  <si>
+    <t>ok estou completamente destruida com a 1° temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @yalloves: boa noite riverdale, 13 reasons why e insatiable piores séries do século https://t.co/czti6wnzzd</t>
+  </si>
+  <si>
+    <t>eu não seeei se eu coloco 13 reasons why pra assistir</t>
+  </si>
+  <si>
+    <t>hoje terminaria 13 reasons why e a 14 temporada de supernatural. um sentimento de dever cumprido</t>
+  </si>
+  <si>
+    <t>rt @worldfinnie: 13, reasons e why sabendo q não devia ter passado da primeira temporada e msm assim fizeram mais duas
+ https://t.co/rkd21e…</t>
+  </si>
+  <si>
+    <t>nunca demorei tanto pra terminar uma serie pequena, como to demorando pra terminar os 13 reasons why</t>
+  </si>
+  <si>
+    <t>mano e que tô assistindo 13 reasons why com meu pai na sala ai do nada começa cena de sexo
+a vergonha meu paiiii</t>
+  </si>
+  <si>
+    <t>nunca fui apegada em assistir séries. únicas que assisti até o final foram la casa de papel, sex education, 13 reas… https://t.co/t6yzujw2au</t>
+  </si>
+  <si>
+    <t>vamos começar pela selena gomez: a cantora anunciou em seu twitter que parte dos lucros das vendas da trilha sonora… https://t.co/wvlhtcxyxx</t>
+  </si>
+  <si>
+    <t>acho que eu vou ter que rever a primeira temporada de 13 reasons why, pq eu não tô entendendo nada da segunda.</t>
+  </si>
+  <si>
+    <t>meu deus eu tenho um problema muito sério chamado “se começar qualquer série terei que assisti-la até o final” mesm… https://t.co/ex7pegepfv</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''a gente acerta e a gente erra, dai a gente aprende e melhora.''
+— 13 reasons why</t>
   </si>
   <si>
     <t>rt @seacele_: eu tô me sentindo no 13 reasons why</t>
   </si>
   <si>
-    <t>rt @jefferson_a_m: me arrastei e exigi muito de mim pra chegar ao episódio final de 13 reasons why, pra série acabar desse jeito???? mano,…</t>
-  </si>
-  <si>
-    <t>terminei de maratonar 13 reasons why e comecei elite mesmo sabendo que deveria estar trabalhando no meu tcc mas est… https://t.co/q0x4qcgcho</t>
-  </si>
-  <si>
-    <t>rt @manudss17: eu ontem assistindo o último episódio de 13 reasons why e descobrindo quem matou o bryce walker https://t.co/kdzjr6yoql</t>
-  </si>
-  <si>
-    <t>elite é muito melhor que 13 reasons why aceitem!</t>
-  </si>
-  <si>
-    <t>vou começar a ver 13 reasons why dnv</t>
-  </si>
-  <si>
-    <t>3 temporada de 13 reasons why is shit, q desilusão</t>
-  </si>
-  <si>
-    <t>atribuí nota 7 ao episódio 3x1 - yeah. i'm the new girl de 13 reasons why https://t.co/y3irvrknxp #bancodeseries</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e to sem chão</t>
-  </si>
-  <si>
-    <t>5 ep da t1 de 13 reasons why e não da pra continuar vendo. extremamente cansativo e repetitivo.</t>
-  </si>
-  <si>
-    <t>preguicinha de terminar 13 reasons why, mas vou conseguir nem q seja na força do ódio</t>
-  </si>
-  <si>
-    <t>acabei de ver elite, o final foi bem decepcionante. inclusive a cena foi igualzinha o final da segunda temporada de… https://t.co/vffbwlimhg</t>
-  </si>
-  <si>
-    <t>13 reasons why e realmente ruim como o povo diz? to querendo assistir https://t.co/fng0nihgvt</t>
-  </si>
-  <si>
-    <t>achei a série 13 reasons why muuuuito boa , mas as maldades daquela série me incomoda tanto 😪</t>
-  </si>
-  <si>
-    <t>esse mês não sai de casa pra nada.. já maratonei:
--orange is the new black
--13 reasons why 
--elite
--greys anatomy
--la casa de papel</t>
-  </si>
-  <si>
-    <t>to achando essa 3a temp de 13 reasons why tão blé comparada as outras 😕</t>
-  </si>
-  <si>
-    <t>me sentindo incrivel por ter impedido alguem de assistir 13 reasons why</t>
-  </si>
-  <si>
-    <t>se vc gosta de e/ou respeita o gosto dos outros da fav  e me segue, eu sdv
-elite
-you
-good girls
-jane the virgin
-yo… https://t.co/traqpbg6yu</t>
-  </si>
-  <si>
-    <t>se a gente fingir que a primeira e a segunda temporada de 13 reasons why nunca existiram a terceira até se torna decente</t>
-  </si>
-  <si>
-    <t>derramei várias lágrimas com esse final da 2° temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @nitrox7: amiga vc faz psicologia e fica postando foto de 13 reasons why como se fosse superação????
-essa série é a maior desinformação…</t>
-  </si>
-  <si>
-    <t>ator de #13reasonswhy é rejeitado durante teste para ser príncipe da disney. entenda!
-https://t.co/rm3ago77ky https://t.co/9mgdnwtywq</t>
-  </si>
-  <si>
-    <t>rt @mi__nina: só que me faltava eu ver 13 ep de 13 reasons why e não saber quem matou o bryce</t>
-  </si>
-  <si>
-    <t>acho que sou a única pessoa que achou uma bosta greys anatomy,achou mais ou menos friends ,odiou elite e achou 13 reasons why forçado</t>
-  </si>
-  <si>
-    <t>@carolmoreira3 comenta sobre a última temporada de 13 reasons why, achei pesada e muito reflexiva.</t>
-  </si>
-  <si>
-    <t>rt @stitchesns: eu e mais duas pessoas que nunca assistiram 13 reasons why e não tem um pingo de vontade de assistir 
-https://t.co/kbgao4te…</t>
-  </si>
-  <si>
-    <t>caralho essa ani parece aquelas zé povinho — assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>se eu pudesse dar algum conselho, seria: não assistam 13 reasons why!</t>
-  </si>
-  <si>
-    <t>eu acabei de ver o 1° episódio da 3t de 13 reasons why. até o último capítulo da 2t eu tinha certeza que eu conheci… https://t.co/zu4cnzzcj3</t>
-  </si>
-  <si>
-    <t>@mauri1947475061 e 13 reasons why, pra piorar: dinastia, esse mundo tá perdido</t>
-  </si>
-  <si>
-    <t>to acordada a essas horas assistindo 13 reasons why dnv (porém só baixei dois episódios) e tenho aula amanhã de man… https://t.co/m1keujcjco</t>
-  </si>
-  <si>
-    <t>assistir 13 reasons why e chorar até a cara ficar dormente...</t>
-  </si>
-  <si>
-    <t>eu nao aguentei, tive que ver a nova temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>"você não precisa que o mundo te ame, mas merece que as pessoas te respeitem, respeitem seus limites e suas decisões."
-(13 reasons why)</t>
-  </si>
-  <si>
-    <t>chegou gente aqui em casa vmos assistir 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why é muito forte cara, ta loco, a gente acha que isso só acontece na série mas é algo real velho, muito… https://t.co/g76mxjdd92</t>
-  </si>
-  <si>
-    <t>assistindo a terceira temp. de 13 reasons why e sem entender como as mulheres preferem caras como o bryce ao invés… https://t.co/uffp5qg0mh</t>
-  </si>
-  <si>
-    <t>agora que fui ver que lançou já a terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>acabei de ver a temporada 1 de 13 reasons why e cara todo dia alguém mata a gente um pouco mesmo...</t>
-  </si>
-  <si>
-    <t>[tw / gatilho]
-eu estava vendo 13 reasons why.
-quando explico pro meu pai o que é, ele diz: "ela é louca! se matar… https://t.co/sdu10okfkz</t>
-  </si>
-  <si>
-    <t>terminei todas as séries que eu gosto 
-elite 
-euphoria 
-15º temporada de greys 
-13 reasons why</t>
-  </si>
-  <si>
-    <t>sexta feira '13";
-vamo se beijar = "13" letras
-assistir "13" reasons why na netflix comendo mc
-vocês podem chamar… https://t.co/xkq5lybt5e</t>
-  </si>
-  <si>
-    <t>estou assistindo a segunda temporada de 13 reasons or why, o garoto que na primeira temporada até estuprava garotas… https://t.co/zufnjadx3r</t>
-  </si>
-  <si>
-    <t>assistindo alguma série?? — 13 reasons why só kk https://t.co/yykrze1snm</t>
-  </si>
-  <si>
-    <t>essa 3 temporada de 13 reasons why ta uma merda, pqp</t>
-  </si>
-  <si>
-    <t>eu tô me sentindo no 13 reasons why</t>
-  </si>
-  <si>
-    <t>ou (o inacreditável cinismo de 13 reasons why) https://t.co/s5po9qzufm via @youtube</t>
-  </si>
-  <si>
-    <t>terminei a terceira temporada de 13 reasons why e estou no chão</t>
-  </si>
-  <si>
-    <t>me sinto o maior masoquista do mundo assistindo 13 reasons why, só vejo ainda pq quero saber o final pq meu deus, e… https://t.co/wzksm75nrv</t>
-  </si>
-  <si>
-    <t>literalmente apaixonado pela terceira temporada de 13 reasons why😍</t>
-  </si>
-  <si>
-    <t>@anthunesarth assim como a selena que também não tem emmy, apesar de ter a estatueta ela não está creditada no prêm… https://t.co/6x1bsqfftb</t>
+    <t>eu tenho bipolaridade, passo por varias crises de depressão e tal e eu real acho que 13 reasons why aborda uns assu… https://t.co/1ifcda0aoh</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e09 de 13 reasons why! #tvtime https://t.co/mg54je4cwr https://t.co/lptwzscerv</t>
+  </si>
+  <si>
+    <t>acabei elite, oitnb e agora tá a dúvida entre assistir a 2°temp de dark ou a 3°temp de 13 reasons why</t>
+  </si>
+  <si>
+    <t>"ter amigos é maravilhoso". 
+que série ♥️ — assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''alguns de nós somos violentos com nós mesmos.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>quais séries ta vendo ultimamente? — grey's anatomy (esperando a 16 temp)
+terminei 13 reasons why sábado
+terminei s… https://t.co/81uoidq0rn</t>
+  </si>
+  <si>
+    <t>terminei agora de assistir o episódio s03e04 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/4kzsvdkepn https://t.co/5a8f2p2pbg</t>
+  </si>
+  <si>
+    <t>@blogiseries 13 reasons why ta mto batida, devia ter acabado na primeira
+mas as outras são boas e nos fazem querer mais</t>
+  </si>
+  <si>
+    <t>hoje eu lembro e lembrarei sempre que eu ouvir 15 de setembro, e sempre que eu ver 13 reasons why, sempre que eu ve… https://t.co/0zzckcidar</t>
+  </si>
+  <si>
+    <t>eu não sei se eu termino orange is the new black ou 13 reasons why ;-;</t>
+  </si>
+  <si>
+    <t>mano eu não acredito que 13 reasons why tem 3 temporadas!!!! kkkkkkkkkk a pa porra</t>
+  </si>
+  <si>
+    <t>nao quero acabar 13 reasons why pq n gostei vei mas a coitada da minha host mom ta me esperando acabar tem 2 semanas????</t>
+  </si>
+  <si>
+    <t>eu to no ultimo ep de 13 reasons why ~~~~e~vou~surtar~~~~~~</t>
+  </si>
+  <si>
+    <t>nem vi q tinha lançado a 3 temp de 13 reasons why na netflix</t>
+  </si>
+  <si>
+    <t>e se aquela série lá os "13 reasons why" tiver 13 temporadas falando sobre os 13 porquês lá. sei lá mano to muito s… https://t.co/nqwrrsgcpm</t>
+  </si>
+  <si>
+    <t>só que me faltava eu ver 13 ep de 13 reasons why e não saber quem matou o bryce</t>
+  </si>
+  <si>
+    <t>essa série 13 reasons why ficou pesada demais. mostrou uma cena que eu só havia lido antes num procedimento de execução criminal.</t>
+  </si>
+  <si>
+    <t>bebés no avião sao piores que 13 reasons why</t>
+  </si>
+  <si>
+    <t>onde posso ver a segunda temporada do 13 reasons why?</t>
+  </si>
+  <si>
+    <t>13 reasons why é fatal demais 😥 
+me fez ver que não enxergamos a ferida das pessoas e muitas vezes só pioramos elas</t>
+  </si>
+  <si>
+    <t>estou surtado vou assistir 13 reasons why pra ficar pior porque esse é o meu jitinho</t>
+  </si>
+  <si>
+    <t>vc percebe q a série se distância completamente de si qnd inicialmente se trata do suicídio de uma garota (inclusiv… https://t.co/xitzj19g9z</t>
+  </si>
+  <si>
+    <t>sem pé e sem cabeça o final de 13 reasons why</t>
+  </si>
+  <si>
+    <t>assisti greys anatomy, assisti elite, to órfã de série. pensando seriamente em assistir a 2 temp de 13 reasons why… https://t.co/tkri56dyhi</t>
+  </si>
+  <si>
+    <t>ja tava noiada e ainda mais agora dps dos ep de 13 reasons why tô loca</t>
+  </si>
+  <si>
+    <t>13 reasons why está... oh uma merda</t>
+  </si>
+  <si>
+    <t>agora vc foi longe demais 13 reasons why fã
+https://t.co/wy33nagpwz https://t.co/jsrinheywz</t>
+  </si>
+  <si>
+    <t>desisto dessa 13 reasons why, a terceira temporada consegue ser pior que a segunda, série patética, a segunda vi me… https://t.co/kqhjpuxgdx</t>
+  </si>
+  <si>
+    <t>a 3° temporada de 13 reasons why tá um cocozinho</t>
+  </si>
+  <si>
+    <t>toda hora um spoiler diferente dos 13 reasons why que raiva</t>
+  </si>
+  <si>
+    <t>13 reasons why.. pqp lixo https://t.co/xsvizlktig</t>
   </si>
   <si>
     <t>rt @alxiaoliveiraw: eu acho que  as pessoas deveriam assitir 13 reasons why,não é só uma série,ela aborda assuntos atuais como:
 a depressão…</t>
   </si>
   <si>
-    <t>eu assisti 10 eps seguidos de 13 reasons why que eu não tinha conseguido sair do primeiro quando lançou. 
-a tpm, a… https://t.co/u77bm2ea5k</t>
-  </si>
-  <si>
-    <t>todo mundo é legal ,até que levem a cometer suicídio.
-  13 reasons why dando um toque de realidade.</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why, e acho que não sou uma pessoa muito triste, vi várias pessoas falando mal... eu gostei bicho</t>
-  </si>
-  <si>
-    <t>uma vez perguntaram se essa camisa era de 13 reasons why kkk eu falei “me respeita” https://t.co/40qazee0ck</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''alguns sofrem em silêncio, desesperados para escapar de sua dor.''
+    <t>atribuí nota 9 ao episódio 3x1 - yeah. i'm the new girl de 13 reasons why https://t.co/azvvwesj33 #bancodeseries</t>
+  </si>
+  <si>
+    <t>essa 3° temporada de 13 reasons why está tão chata 😪</t>
+  </si>
+  <si>
+    <t>quero dizer que adorei a nova temporada de 13 reasons why. e que a história do tayler é boa demais, embora muito triste.</t>
+  </si>
+  <si>
+    <t>vou começar a assistir 13 reasons why dnv, já to vendo eu chorando mares</t>
+  </si>
+  <si>
+    <t>gostei pra crc do final da segunda temporadade 13 reasons why</t>
+  </si>
+  <si>
+    <t>como assim há pessoas que detestaram esta temporada de 13 reasons why? eu acho que foi só brutal e completamente in… https://t.co/r7mb3lanhx</t>
+  </si>
+  <si>
+    <t>rt @ianleite13: tanta série de merda sem conteúdo relevante ou impactante por aí mas o povo insistiu em reclamar de 13 reasons why ah pelam…</t>
+  </si>
+  <si>
+    <t>sério, eu acho 13 reasons why muito pesada. eu assisto e saio traumatizada e com medo de todos. sério, não dá nem p… https://t.co/2ru88gyssk</t>
+  </si>
+  <si>
+    <t>tô tentando terminar essa temporada de 13 reasons why, mas essa ani é insuportável! ranço</t>
+  </si>
+  <si>
+    <t>tomei decisões ruins na minha vida.
 — 13 reasons why</t>
   </si>
   <si>
-    <t>eu li o spoiler de 13 reasons why pq ia parar de assistir, mas aí deu vontade de continuar assistindo pra saber pq a pessoa fez o que fez</t>
-  </si>
-  <si>
-    <t>rt @jpaulo645: e saiu minha crítica sobre a terceira temporada de #13reasonswhy, vem ler e saber o que achei sobre a trama desta temporada.…</t>
-  </si>
-  <si>
-    <t>nao aguento mais 13 reasons why pqp</t>
-  </si>
-  <si>
-    <t>sacrificando uma hora de sono pra acabar 13 reasons why e ver se fico ou não com pena do bryce</t>
-  </si>
-  <si>
-    <t>terminei de olhar 13 reasons why e vai toma no cu mano</t>
-  </si>
-  <si>
-    <t>alguem que me explique esta temporada de 13 reasons why 😅</t>
-  </si>
-  <si>
-    <t>3 temporada de 13 reasons why tá me irritando um pouco</t>
-  </si>
-  <si>
-    <t>as pessoas desconhecem o problema de se colocar em debate de qualquer maneira assuntos de saúde mental.  
-sabe o qu… https://t.co/wqg2kqgz5v</t>
-  </si>
-  <si>
-    <t>maluco, essa terceira temporada de "13 reasons why" tá maneira...
-espero que nenhum fdp dê spoilers!</t>
-  </si>
-  <si>
-    <t>quando 13 reasons why acerta um ponto, erra em outros três. e ainda é renovada pra quarta temporada. a pergunta que fica é: por que?</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''a gente acerta e a gente erra, dai a gente aprende e melhora.''
+    <t>chegou gente aqui em casa vmos assistir 13 reasons why</t>
+  </si>
+  <si>
+    <t>quero terminar a 3t de 13 reasons why e depois a 2t se elite pra depois começar a assistir the i land 🙆🏽‍♀️</t>
+  </si>
+  <si>
+    <t>sinceramente, é até chocante que 13 reasons why tenha passado da primeira temporada</t>
+  </si>
+  <si>
+    <t>achei o enredo dessa temporada de elite mt parecido c 13 reasons why</t>
+  </si>
+  <si>
+    <t>atribuí nota 7 ao episódio 3x1 - yeah. i'm the new girl de 13 reasons why https://t.co/y3irvrknxp #bancodeseries</t>
+  </si>
+  <si>
+    <t>vou terminar de ver 13 reasons why, dps vou outra série</t>
+  </si>
+  <si>
+    <t>vou começar agr assistir 13 reasons why, vms ver em quanto tempo termino</t>
+  </si>
+  <si>
+    <t>13 reasons why é o exemplo de como uma série muito boa pode se tornar um amontoado de temporadas ruins atrás de temporada ruim.</t>
+  </si>
+  <si>
+    <t>depois de três anos que 13 reasons why estreiou, finalmente vou começar a assistir</t>
+  </si>
+  <si>
+    <t>rt @byersperalta: agora vc foi longe demais 13 reasons why fã
+https://t.co/wy33nagpwz https://t.co/jsrinheywz</t>
+  </si>
+  <si>
+    <t>cara, que loucura esse final da 3ª temporada de 13 reasons why, continuo não sentindo pena do bryce.
+morreu tarde.</t>
+  </si>
+  <si>
+    <t>pra quê que eu fui começar assistir 13 reasons why? 
+tem alguns episódios que dá vontade de sentar e chorar</t>
+  </si>
+  <si>
+    <t>13 reasons why com novos eps e zero rebuliços de gente comentando 🤔</t>
+  </si>
+  <si>
+    <t>hoje passei a minha tarde maratonando 13 reasons why por dois motivos: 1. não tinha nada mais interessante para faz… https://t.co/jxjdp1rpnc</t>
+  </si>
+  <si>
+    <t>chegou a 3ª temp de 13 reasons why e eu tive q assistir a 1ª e 2ª inteiras pq eu tinha esquecido td e agr vou ter q… https://t.co/o4isxqac8b</t>
+  </si>
+  <si>
+    <t>sofrir por 13 reasons why (s03e06)
+episódio: você conhece um homem pelo seu jeito de sofrer
+nota: 9.26/10… https://t.co/ec9vinvdfp</t>
+  </si>
+  <si>
+    <t>13 reasons why terminou de uma forma muito triste, o mont nao poderia ter morrido daquele jeito, porra segunda seri… https://t.co/rs9ruvuszm</t>
+  </si>
+  <si>
+    <t>começei a ver a 3 temporada de 13 reasons why, aguardem meu psicológico começar a bugar</t>
+  </si>
+  <si>
+    <t>toda vez que assisto um eps de 13 reasons why eu fico p baixo, mds</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why e acabo hoje ou não me chamo marina então</t>
+  </si>
+  <si>
+    <t>@lordesupreme @bodakswift @felipestar23 @remoiupin @bchartsnet fic o quê sua anta? july moon é a empresa da selena… https://t.co/jwpitgkhmw</t>
+  </si>
+  <si>
+    <t>19. é sempre a q eu to assistindo no momento, então scandal e 13 reasons why</t>
+  </si>
+  <si>
+    <t>caralho q pesado o final dessa temporada de 13 reasons why pqpppp</t>
+  </si>
+  <si>
+    <t>que ódio, ainda tem 13 reasons why pra atualizar https://t.co/mjgdzlit6k</t>
+  </si>
+  <si>
+    <t>finamente terminei a 3° temp de 13 reasons why, mas já estou c sdds 😫</t>
+  </si>
+  <si>
+    <t>acho q prefiro ver 13 reasons why desde a 1ª tempdo q começar a escola segunda</t>
+  </si>
+  <si>
+    <t>rt @iiarsoty: vamos começar pela selena gomez: a cantora anunciou em seu twitter que parte dos lucros das vendas da trilha sonora da segund…</t>
+  </si>
+  <si>
+    <t>assistir 13 reasons why é tudo pra estragar meu psicológico porém amo</t>
+  </si>
+  <si>
+    <t>@irvanmaccarthey irvan maccartney a única audiência de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>eu amo chamar wallows de "a banda daquele menino de 13 reasons why"</t>
+  </si>
+  <si>
+    <t>por que a série “13 reasons why” ainda merece atenção dos pais, https://t.co/yvfzaxzimi</t>
+  </si>
+  <si>
+    <t>wtf qual eh a dessa nova temp de 13 reasons why??? perdeu total o sentido e motivo da série, sei lá vei, nao captei a ideia</t>
+  </si>
+  <si>
+    <t>tô no último episódio do 2t de 13 reasons why ufa 😍😍</t>
+  </si>
+  <si>
+    <t>agora ninguém mais fala (nem bem nem mal) vou assistir 13 reasons why</t>
+  </si>
+  <si>
+    <t>eu odeio essa ani de 13 reasons why odeio</t>
+  </si>
+  <si>
+    <t>• sobre séries • (botei anime mas fodase kk)
+1. the vampire diaries
+2. got, até a 5 temporada
+3. avatar a lenda de… https://t.co/q4xo9vgknt</t>
+  </si>
+  <si>
+    <t>porraaaaa @netflixbrasil vai se fuder cara vc cancela the oa mas deixa 13 reasons why ????? caralho https://t.co/nsjveykhqd</t>
+  </si>
+  <si>
+    <t>mano essa última temporada de 13 reasons why acabou cmg</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “para ser sincero, não gosto de mudanças.” 
 — 13 reasons why</t>
   </si>
   <si>
-    <t>bem que a sabrina falou que 13 reasons why foi um gatilho pra ela e me alertou para nao assistir, os dois dias que… https://t.co/7sqzuotjph</t>
-  </si>
-  <si>
-    <t>essa série elite presta mesmo?! a última vez q segui dica de millenial foi pra assistir 13 reasons why, parei no 2º… https://t.co/6b8wdylj0o</t>
-  </si>
-  <si>
-    <t>estou vissiadissíma em assistir 13 reasons why kkkkscrr</t>
-  </si>
-  <si>
-    <t>e eu nem terminei de assistir 13 reasons why... achei meio blé essa temporada nova</t>
-  </si>
-  <si>
-    <t>a real que eu vou ver o último ep de 13 reasons why</t>
-  </si>
-  <si>
-    <t>o ruim de 13 reasons why é que a gente fica sentida até pelos piores caras 😩</t>
-  </si>
-  <si>
-    <t>rt @salvadorfreits: perguntaram-me se sempre ia a um jantar e pensei "ao contrário do 13 reasons why, eu nunca me corto."
-e lá fui rindo nu…</t>
-  </si>
-  <si>
-    <t>vendo a série 13 reasons why na força do ódio kk</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma merda desnecessária! bom dia! https://t.co/jvvtkcztby</t>
-  </si>
-  <si>
-    <t>13 reasons why pior série da netflix digo com tranquilidade que bomba https://t.co/sfw8qrclxm</t>
-  </si>
-  <si>
-    <t>rt @brendalmiozzo: comecei a 3 temporada de 13 reasons why
-antes de continuar essa palhaçada alguém pode me dizer se eles vão realmente fa…</t>
-  </si>
-  <si>
-    <t>o meu gringo crush que vou casar algum dia foi num show hoje com aquele cantor da trilha sonora da primeira tempora… https://t.co/a1i0zduxyk</t>
-  </si>
-  <si>
-    <t>eu demorei pra assistir 13 reasons why, e eu tô chocado com essas coisaskkkkkk queria gritar</t>
-  </si>
-  <si>
-    <t>atribuí nota 9.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/nsfycjcois #bancodeseries</t>
-  </si>
-  <si>
-    <t>que preguiça é essa de pegar em 13 reasons why?</t>
-  </si>
-  <si>
-    <t>amg não beije este homem ele comemora nova temp de 13 reasons why</t>
-  </si>
-  <si>
-    <t>maravilhosa: downton abbey
-mediana: scream
-horrível: 13 reasons why https://t.co/8mckshefdz</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma merda cancela essa poha https://t.co/z9capjfcyg</t>
-  </si>
-  <si>
-    <t>tô achando insuportável essa season de 13 reasons why.. cansativa demais, não consegui passar do 3 ep</t>
-  </si>
-  <si>
-    <t>nunca pensei que me sentiria tão aflita assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>agora que eu tô terminando a t3 de 13 reasons why 😂</t>
-  </si>
-  <si>
-    <t>13 reasons why acaba com o meu psicológico.</t>
-  </si>
-  <si>
-    <t>hoje eu tô só a hanna de 13 reasons why</t>
-  </si>
-  <si>
-    <t>muito agradecida por 13 reasons why ter me "apresentado" à billie eilish ❤❤</t>
-  </si>
-  <si>
-    <t>3° temporada de 13 reasons why é muito boa, chega arrepiar</t>
-  </si>
-  <si>
-    <t>desisto dessa 13 reasons why, a terceira temporada consegue ser pior que a segunda, série patética, a segunda vi me… https://t.co/kqhjpuxgdx</t>
-  </si>
-  <si>
-    <t>rt @_arthff: vende-se esta casa
-tem aquele ator de 13 reasons why que atua do msm jeito e no final morre afogado na poça pelo assassino que…</t>
-  </si>
-  <si>
-    <t>rt @bsmatmig: essa série 13 reasons why é muito pesada, assisto passando mal, mas sabendo que é importantíssimo abordar esse tema.</t>
-  </si>
-  <si>
-    <t>13 reasons why terminou de uma forma muito triste, o mont nao poderia ter morrido daquele jeito, porra segunda seri… https://t.co/rs9ruvuszm</t>
-  </si>
-  <si>
-    <t>terminei de assistir 13 reasons why e só tenho a dizer que essa série é foda</t>
-  </si>
-  <si>
-    <t>to vendo 13 reasons why pela segunda vez, putz ta mexendo mt cmg essa serie</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''quando as pessoas te encaram e falam ou quando não te encaram mas você sabe que elas querem, apenas lembre-se que voc…</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “não zombe do que não conhece.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>@irvanmaccarthey irvan maccartney a única audiência de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>rt @vinipqs: 3 temporada de 13 reasons why foi a melhor. estou impactado.</t>
-  </si>
-  <si>
-    <t>assistam 13 reasons why e a melhor série mds</t>
-  </si>
-  <si>
-    <t>13 reasons why passou a mensagem de que estupradores se tornam pessoas boas e de que pessoas más vão “embora” e tud… https://t.co/creflkjnui</t>
-  </si>
-  <si>
-    <t>para cabeças fraquinhas euphoria só vos faz pior.
-i said what i said.
-esta série é tão ou mais tóxica que 13 reasons why</t>
-  </si>
-  <si>
-    <t>@marciocover exatamente!!!
-eu estou ainda na fase de atualizações....(acabei de rever a última temporada de orange… https://t.co/meoryo3ipp</t>
-  </si>
-  <si>
-    <t>na moral, e esse último ep de 13 reasons why????? 
-que loucuraaaaa, eu tô pasma, cara, que ep foda, que série foda, mano, muito loucoooo</t>
-  </si>
-  <si>
-    <t>a melhor frase de 13 reasons why
-é que eu sinto que eu tô mergulhando num buraco negro e eu não faço ideia de como… https://t.co/do9lad7tor</t>
-  </si>
-  <si>
-    <t>@seriestwbz 13 reasons why e todo mundo aqui sabe</t>
-  </si>
-  <si>
-    <t>@milenedecasstro comecei a ver 13 reasons why kkkk acho que é assim que se escreve</t>
-  </si>
-  <si>
-    <t>gostei pra crc do final da segunda temporadade 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @_larapetry: esse guri me lembra o justin de 13 reasons why e eu particularmente beijava os dois https://t.co/hxvpmxls7q</t>
-  </si>
-  <si>
-    <t>como eu consegui perder meu tempo vendo essa terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>“para ser sincero, não gosto de mudanças.” 
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>to atualizando minhas series, mas sinceramente... 13 reasons why tá um sacoooooo</t>
-  </si>
-  <si>
-    <t>me deu vontade de assistir 13 reasons why pela 3 vez</t>
-  </si>
-  <si>
-    <t>falta 3 ep p eu terminar 13 reasons why, eu vou terminar essa porra hoje</t>
-  </si>
-  <si>
-    <t>rt @andromedasdv: não deixe que mudem quem você é, não deixe que coloquem um rótulo na sua vida, não seja um reflexo no espelho, seja o ref…</t>
-  </si>
-  <si>
-    <t>enfim, terminei de assistir as novas temporadas de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>tou a ver 13 reasons why e faço como para foder a hannah? aposto que aqueles pés são perfeitos</t>
-  </si>
-  <si>
-    <t>qual é o top 5 de séries favs de vcs? 
-o meu: 
-the originals
-13 reasons why 
-riverdale
-elite
-merlin https://t.co/vvycvm9vdl</t>
-  </si>
-  <si>
-    <t>@nandabarros0 @ivocruz14 eu fico sem acreditar em 13 reasons why</t>
-  </si>
-  <si>
-    <t>essa 3° temporada de 13 reasons why ta tão frau q eu to olhando me rastejando</t>
-  </si>
-  <si>
-    <t>comecei 13 reasons why e tô me perguntando porque não assisti antes...</t>
-  </si>
-  <si>
-    <t>13 reasons why num acaba pqp</t>
-  </si>
-  <si>
-    <t>to chorando pq 13 reasons why me fez não só sentir pena, mas gostar do bryce</t>
-  </si>
-  <si>
-    <t>3° temp de 13 reasons why, e 2° temp de elite.. meu coração não aguenta 😍😍❤</t>
-  </si>
-  <si>
-    <t>rt @idcohana: gente vcs sabiam q o guri lá de 13 reasons why tem uma banda indie (q por sinal é muito boa)? https://t.co/cib3yj3edw</t>
-  </si>
-  <si>
-    <t>não adianta ter assistido 13 reasons why se você comete os mesmos erros na sua escola. https://t.co/gygdwakdew</t>
-  </si>
-  <si>
-    <t>3 temporada de 13 reasons why foi a melhor. estou impactado.</t>
-  </si>
-  <si>
-    <t>@cajuinaz mulher, só o que tô fazendo kkk. já terminei de assistir friends, good girls, 13 reasons why, the walking… https://t.co/wzyfu1pi98</t>
-  </si>
-  <si>
-    <t>rt @moralessfii: 13 reasons why não deveria existir mano, tipo uma guria se mata, depois um cara estupra um monte de gente, e agora clarame…</t>
-  </si>
-  <si>
-    <t>estou completamente sem palavras com a temporada 3 de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>@seungseokies ahhhh vdd vc leu ne amiga essa parte nao aaprece detalhada viu!! so aparece ele na banheira so mas nada tipo 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why tá chatão</t>
-  </si>
-  <si>
-    <t>the night we met, música tema da season 1 de 13 reasons why também toca em the flash, no episódio 18 da season 1 ❤️</t>
-  </si>
-  <si>
-    <t>queria ta assistindo 13 reasons why mais meu pai ta aqui no quarto.. e tem algumas cenas da terceira temporada que é pesada demais pqp</t>
-  </si>
-  <si>
-    <t>13 reasons why vai ser mais uma das series que nao vou conseguir terminar de tão ruim que ficou</t>
-  </si>
-  <si>
-    <t>terminei de ver todas as temporadas de "13 reasons why" e chorei horrores</t>
-  </si>
-  <si>
-    <t>13 reasons why mexe muito com o psicológico</t>
-  </si>
-  <si>
-    <t>ta sério eu n esperava mas essa 3ª temporada de 13 reasons why tá realmente muito boa</t>
-  </si>
-  <si>
-    <t>rt @urreabeaunert: justin foley; mais conhecido como dono do meu coração e da season 3 toda de 13 reasons why https://t.co/kfggflyiqk</t>
-  </si>
-  <si>
-    <t>vou ver 13 reasons why td denovo pra ver a 3t em paz</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e09 de 13 reasons why! #tvtime https://t.co/nvbschipsy https://t.co/ulcrtzzhc2</t>
+    <t>assisto as duas series teens da netflix que olha é um guilty pleasure. 13 reasons why e elite,e tenho uma coisa pra… https://t.co/hcptvehhwt</t>
+  </si>
+  <si>
+    <t>na minha opinião se 13 reasons why fosse algo sem forçar o tema "suicídio" e tivesse sido uma série meio "romântica… https://t.co/rhvd5vxi5k</t>
+  </si>
+  <si>
+    <t>essa ultima temporada de 13 reasons why ta me deixando muito puta</t>
+  </si>
+  <si>
+    <t>na moral? elite é uma série tão tóxica quanto 13 reasons why e ninguém fala nada 🤪</t>
   </si>
   <si>
     <t>eu odeio como 13 reasons why é cínico, é uma das coisas mais nojentas que já vi</t>
+  </si>
+  <si>
+    <t>acabaram de perguntar se a minha tatuagem de fita cassete é por conta de 13 reasons why
+eu nao mereço isso
+nao mereço</t>
+  </si>
+  <si>
+    <t>a série 13 reasons why mexe tanto comigo, choro de 5 em 5 min</t>
+  </si>
+  <si>
+    <t>vou comer a pizza vê essa série 13 reasons why</t>
+  </si>
+  <si>
+    <t>e se eu contar p vocês que eu me emocionei demais no último ep da 2 temp de 13 reasons why
+ com o hino "lovely" ainda mano, putz amo.</t>
+  </si>
+  <si>
+    <t>quando alguém quer me indicar a 3º temporada de 13 reasons why. 
+me poupe https://t.co/xmxvvova9i</t>
   </si>
   <si>
     <t>e eu que tô sem psicológico pra começar a terceira temporada de 
@@ -540,79 +391,107 @@
 (duas semanas que eu tento)</t>
   </si>
   <si>
-    <t>assisti greys anatomy, assisti elite, to órfã de série. pensando seriamente em assistir a 2 temp de 13 reasons why… https://t.co/tkri56dyhi</t>
-  </si>
-  <si>
-    <t>eu to demorando pra terminar 13 reasons why, justamente por isso.</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. h2o meninas sereias 
-2. got
-3. prison break 
-4. 13 reasons why 
-5. stranger things 
-6. irmão d… https://t.co/9ozhbl1e63</t>
-  </si>
-  <si>
-    <t>meu deus eu tenho um problema muito sério chamado “se começar qualquer série terei que assisti-la até o final” mesm… https://t.co/ex7pegepfv</t>
+    <t>não tenho nem palavras pra descrever a terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>ator de 13 reasons why quer ser o principe de a pequena sereia #sabadotemnaweb no #temnaweb https://t.co/mjx7vofivj</t>
+  </si>
+  <si>
+    <t>tô percebendo que nessa nova temporada de 13 reasons why eles querem deixar uma imagem de bonzinho pro bryce, ah pe… https://t.co/mewzzvimke</t>
+  </si>
+  <si>
+    <t>13 reasons why, ao mesmo tempo que pode ser besteira para os outros, tbm podem ajudar muita gente. e então, se tu n… https://t.co/1jushklmpw</t>
+  </si>
+  <si>
+    <t>senhor, terminar a terceira temporada de 13 reasons why está sendo um parto.</t>
+  </si>
+  <si>
+    <t>rt @ryui0471: assistindo 13 reasons why tive uma noção e ponto de vista completamente diferente.  a 1° temporada deixou várias coisas em ab…</t>
+  </si>
+  <si>
+    <t>13 reasons why - terceira temporada
+demoramos, mas enfim terminamos de assistir a terceira temporada de 13 reasons… https://t.co/r7hia3pwox</t>
+  </si>
+  <si>
+    <t>@thasioflw @backtocarlos @wolfhalls anta olha a foto, tem 5 emmys não 2 emmys como waverly place ganhou no site del… https://t.co/ekhcli5aoq</t>
+  </si>
+  <si>
+    <t>@artknam 13 reasons why,scream(se gostar de suspense) e elite (a segunda temporada ta ótima)</t>
+  </si>
+  <si>
+    <t>não deixe que mudem quem você é, não deixe que coloquem um rótulo na sua vida, não seja um reflexo no espelho, seja… https://t.co/3gq6gzuedf</t>
+  </si>
+  <si>
+    <t>comecei a ver a 3° temp de 13 reasons why (me julguem, eu quero saber como termina) né e mano: a jéssica dominando… https://t.co/gkmzassin5</t>
   </si>
   <si>
     <t>mo gosta de séries/ doramas? — ñ tô com mt tempo pra assistir séries ñ amor
 , mas já vi mts como: st, the 100, teen… https://t.co/9pxsha11sc</t>
   </si>
   <si>
-    <t>acabei de ver uma quote horrível de 13 reasons why com um gatilho extremamente pesado, por favor alguém avisa?????… https://t.co/qt0by5n7sp</t>
-  </si>
-  <si>
-    <t>como assim saiu a 3 terceira temporada de 13 reasons why e eu não tava sabendo de nada?</t>
-  </si>
-  <si>
-    <t>eu acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/hgrpensrlu https://t.co/nxvn0ohoc4</t>
-  </si>
-  <si>
-    <t>finalmente terminei 13 reasons why e assim
- foda demais</t>
-  </si>
-  <si>
-    <t>rt @ravena_ironica: sexta feira '13";
-vamo se beijar = "13" letras
-assistir "13" reasons why na netflix comendo mc
-vocês podem chamar de c…</t>
-  </si>
-  <si>
-    <t>13 reasons why terceira temporada lixo onde todos são culpados pela morte e carregam ela nas costas, mas que se ach… https://t.co/abaquxridn</t>
-  </si>
-  <si>
-    <t>tentei ver 13 reasons why, não consegui acabar o primeiro episódio</t>
-  </si>
-  <si>
-    <t>resolveu sair 15° temp de grey's, 3° temp de 13 reasons why e 2° temp de elite tudo junto, tô perdida</t>
-  </si>
-  <si>
-    <t>rt @seriestwbz: christian navarro (13 reasons why) fez audição para interpretar o príncipe eric no live-action de 'a pequena sereia'.
-o at…</t>
-  </si>
-  <si>
-    <t>13 reasons why é muito chato kk impossível de maratonar</t>
-  </si>
-  <si>
-    <t>rt @vicsvicsz: nunca demorei tanto pra terminar uma serie pequena, como to demorando pra terminar os 13 reasons why</t>
-  </si>
-  <si>
-    <t>o final de 13 reasons why é lindo mas é tão triste aaaaaaaaa</t>
-  </si>
-  <si>
-    <t>vou começar a assistir 13 reasons why dnv, já to vendo eu chorando mares</t>
-  </si>
-  <si>
-    <t>eu não acredito que eu tô assistindo 13 reasons why e tô sentindo dó do bruce...</t>
-  </si>
-  <si>
-    <t>4 horas da manhã e eu to comendo brigadeiro, tomando coca  e assistindo 13 reasons why kkkkkk</t>
-  </si>
-  <si>
-    <t>será que só  eu achei a 3° temporada de 13 reasons  why chata? a primeira temporada foi a única que realmente foi boa.</t>
+    <t>caralho eu to my impactada c a cena de 13 reasons why com o tyler abraçando o mlkinho lá</t>
+  </si>
+  <si>
+    <t>como q o mundo não se manifestou q lançou a 3° temporada de 13 reasons why?????</t>
+  </si>
+  <si>
+    <t>good wife ja tinha previsto 13 reasons why nesse episódio d cara q quis fazer um filme p evitar q as pessoas se sui… https://t.co/2weyvlyms2</t>
+  </si>
+  <si>
+    <t>rt @dressoutx: elite é tão merda quanto 13 reasons why</t>
+  </si>
+  <si>
+    <t>todos os personagens de 13 reasons why são psicopatas</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s01e08 de 13 reasons why  #13reasonswhy   #tvtime https://t.co/hgxedjyxi6 https://t.co/tklrk4vwir</t>
+  </si>
+  <si>
+    <t>véi... 13 reasons why é doente</t>
+  </si>
+  <si>
+    <t>@otaviodvd elite seriezinha forçada 13 reasons why temos visitas https://t.co/hhwl4gmxz8</t>
+  </si>
+  <si>
+    <t>rt @luh_kern: 13 reasons why é uma série muito perturbadora</t>
+  </si>
+  <si>
+    <t>seguindo a polêmica...
+fazer um filme do coringa onde a origem vem dos problemas com a saúde mental e o mau causado… https://t.co/6rhxo0muuu</t>
+  </si>
+  <si>
+    <t>assistindo alguma série?? — 13 reasons why só kk https://t.co/yykrze1snm</t>
+  </si>
+  <si>
+    <t>juro q lutei p não assistir a 3 temporada de 13 reasons why, mas tá mto boa</t>
+  </si>
+  <si>
+    <t>@mauri1947475061 e 13 reasons why, pra piorar: dinastia, esse mundo tá perdido</t>
+  </si>
+  <si>
+    <t>ah nao............. já começa com o garoto de 13 reasons why correndo e atuando mal.....................</t>
+  </si>
+  <si>
+    <t>rt @canceridemo: passada que o montgomery colocou a gay pra trabalhar a boca e depois bateu nela kkkkkkkk 13 reasons why pq fizeste isso co…</t>
+  </si>
+  <si>
+    <t>mlk esse final da 3t de 13 reasons why...... que coisa maravilhosa</t>
+  </si>
+  <si>
+    <t>senhor quem é esse figurante no 5º episódio da 3ª temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @heloysesantos1: manoooooo, não ta dandooo ... 
+tenho que assistir elite, 13 reasons why, grey’s anatomy e aindaaaa tem a dona do pedaço…</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why, pela primeira vez e não to legal irmão</t>
+  </si>
+  <si>
+    <t>13 reasons why: uhu vamo fazer o certo e falar sobre o suicídio,sobre mental illness e mostrar que todo mudo tem cu… https://t.co/5kxim33nyl</t>
+  </si>
+  <si>
+    <t>elite funciona muito bem tendo uma segunda temporada de um jeito que 13 reasons why nunca conseguiu</t>
   </si>
   <si>
     <t>setembro amarelo + 13 reasons why = 
@@ -620,453 +499,309 @@
 gente, to… https://t.co/w7iznxtnff</t>
   </si>
   <si>
-    <t>rt @swiftcersei: essa 13 reasons why não termina nunca</t>
-  </si>
-  <si>
-    <t>atribuí nota 8.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/9kawprpmlj #bancodeseries</t>
-  </si>
-  <si>
-    <t>sexta feira 13 reasons why no motolibre ao som de samba cuzao</t>
-  </si>
-  <si>
-    <t>impacto cultural:
-         █          　　
-         █　        
-         █　        
-         █… https://t.co/brxegvbnk1</t>
+    <t>- você gosta muito de 13 reasons why? 
+- não,nem muito 
+eu no futuro chamando a minha filha:
+- vem tomar teu banho hannah baker</t>
+  </si>
+  <si>
+    <t>sofrir por 13 reasons why (s03e01)
+episódio: sim, eu sou a garota nova
+nota: 5.26/10
+ #13reasonswhy |  #tvtime… https://t.co/ikcsr4cr5t</t>
+  </si>
+  <si>
+    <t>ontem terminei 13 reasons why e fui dormir com um nó na garganta :c essa série é pesada demais</t>
+  </si>
+  <si>
+    <t>atribuí nota 9.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/nsfycjcois #bancodeseries</t>
+  </si>
+  <si>
+    <t>nao beije esta menina ela gosta de 13 reasons why</t>
+  </si>
+  <si>
+    <t>— bia
+— 12 
+— bi 
+— riverdale, one day at a time, everything sucks e 13 reasons why kk
+— virgem 
+— vivendo
+— melhor… https://t.co/8thykzhvug</t>
+  </si>
+  <si>
+    <t>rt @oberinmartello: o alex standall na terceira temporada de 13 reasons why https://t.co/wfz3lrvfvx</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''por trás daquela cara de bonzinho tem uma confusão enorme.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>o meu gringo crush que vou casar algum dia foi num show hoje com aquele cantor da trilha sonora da primeira tempora… https://t.co/a1i0zduxyk</t>
+  </si>
+  <si>
+    <t>já que estou falante, deixa eu honrar esse compromisso aqui:
+a 3ª temporada de 13 reasons why é absolutamente horr… https://t.co/e7lxngebyd</t>
+  </si>
+  <si>
+    <t>falam que eu pareço o tony de 13 reasons why https://t.co/futbv6hsxb</t>
+  </si>
+  <si>
+    <t>mano, o cara que dubla a voz do sai deve ser o mesmo que dubla o alex de 13 reasons why, a voz é a mesma mano</t>
+  </si>
+  <si>
+    <t>sofrir por 13 reasons why (s03e08)
+episódio: na escola, mesmo num dia bom, é difícil dizer...
+nota: 9.7/10… https://t.co/orhhrcltyx</t>
+  </si>
+  <si>
+    <t>assistindo "13 reasons why?" não consigo achar diferenças entre a direção da liberty e a do instituto, meu deus...</t>
+  </si>
+  <si>
+    <t>não consegui terminar 13 reasons why ainda, já saiu segunda temp de elite e agr novos episódios de the ranch... eu vo morre</t>
+  </si>
+  <si>
+    <t>perguntaram-me se sempre ia a um jantar e pensei "ao contrário do 13 reasons why, eu nunca me corto."
+e lá fui rind… https://t.co/was9awxowg</t>
+  </si>
+  <si>
+    <t>minha mãe é sem graça demais noooo. falou que ia ver 13 reasons why comigo e já acabou tudo. que mãe tóxica af</t>
+  </si>
+  <si>
+    <t>vende-se esta casa
+tem aquele ator de 13 reasons why que atua do msm jeito e no final morre afogado na poça pelo as… https://t.co/dglgblzidu</t>
+  </si>
+  <si>
+    <t>3 temporada de 13 reasons why is shit, q desilusão</t>
+  </si>
+  <si>
+    <t>minha sina é assistir 13 reasons why esperando da a hora de tomar o remédio</t>
+  </si>
+  <si>
+    <t>se a gente fingir que a primeira e a segunda temporada de 13 reasons why nunca existiram a terceira até se torna decente</t>
+  </si>
+  <si>
+    <t>ta bom talvez eu goste de 13 reasons why</t>
+  </si>
+  <si>
+    <t>to tão sem tempo que nem 13 reasons why eu assisti</t>
+  </si>
+  <si>
+    <t>rt @baliborio: alguém me explica porque “13 reasons why” usou 13 capítulos pra humanizar um estuprador?</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''podemos dizer muito sobre uma pessoa pela forma que ela sofre.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why é muito forte cara, ta loco, a gente acha que isso só acontece na série mas é algo real velho, muito… https://t.co/g76mxjdd92</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma série muito fudida puta q pariu</t>
+  </si>
+  <si>
+    <t>rt @fadadignissima: to me decindo se gostei ou não do final de 13 reasons why</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e eu só quero matar o jojo e a giovanna, é isso, boa noite.</t>
+  </si>
+  <si>
+    <t>isso que da renovar 13 reasons why aparece gente assim</t>
+  </si>
+  <si>
+    <t>próximo semana começam as provas e eu assistindo 5 séries ao mesmo tempo. 
+elite
+13 reasons why
+how to get away wit… https://t.co/v1jnii7du2</t>
+  </si>
+  <si>
+    <t>ela parece a jessica de 13 reasons why, e é fofa https://t.co/ehqq2yebiq</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why e to muito puta porque o bryce morreu</t>
+  </si>
+  <si>
+    <t>alimentando o vício assistindo s03e01 of 13 reasons why! #13reasonswhy  #tvtime https://t.co/tae5zfnrsi https://t.co/fbkc4zxns1</t>
+  </si>
+  <si>
+    <t>"13 reasons why" deveria ser tipo uma série obrigatória pra sociedade! não pra se conscientizarem sobre suicídio "a… https://t.co/gvdserndaw</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why hoje kk</t>
+  </si>
+  <si>
+    <t>assistam 13 reasons why e a melhor série mds</t>
+  </si>
+  <si>
+    <t>acabei de adicionar 13 reasons why: ... à minha biblioteca! #tvtime https://t.co/w0vs38fhzw https://t.co/5qiu62trwz</t>
+  </si>
+  <si>
+    <t>christian navarro, de 13 reasons why, quer ser príncipe em a pequena sereia #segundatemnaweb no #temnaweb https://t.co/u6hmcxpsgu</t>
+  </si>
+  <si>
+    <t>@gushawn_ às vezes eu assisto 13 reasons why, só pra ter coragem de fazer umas besteiras</t>
+  </si>
+  <si>
+    <t>quero maratonar de novo twilight mas nao posso por causa de 13 reasons why</t>
+  </si>
+  <si>
+    <t>pensei que a 3 temp de 13 reasons why seria melhor af, só passei raiva</t>
+  </si>
+  <si>
+    <t>em um mês já assisti a nova temporada de greys anatomy e hj finalmente terminei de assistir 13 reasons why</t>
+  </si>
+  <si>
+    <t>mundo series | #13reasonswhy, temporada 2
+https://t.co/g6jihti8uo</t>
+  </si>
+  <si>
+    <t>em menos de uma semana eu assisti a 2 temporada de elite, sintonia e a 3 temporada de 13 reasons why
+melhor semana eveeeeeeer</t>
+  </si>
+  <si>
+    <t>acabei de assistir  3ª temporada de "13 reasons why". tinha odiado a 2ª temporada e pensei muito se seria perca de… https://t.co/cmyxs6eydq</t>
+  </si>
+  <si>
+    <t>terminei elite, the 100 e 13 reasons why e ainda não chegou o dia de lançar a 4° temporada de riverdale, tá demorando já...</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why com o joao e percebi que minha memória é muito ruim</t>
+  </si>
+  <si>
+    <t>rt @stitchesns: eu e mais duas pessoas que nunca assistiram 13 reasons why e não tem um pingo de vontade de assistir 
+https://t.co/kbgao4te…</t>
+  </si>
+  <si>
+    <t>falem o que quiser de “13 reasons why” mais que é uma série mais do que necessária e a opinião de quem nunca sofreu… https://t.co/8nkg5do80u</t>
+  </si>
+  <si>
+    <t>a terceira temporada de 13 reasons why é zero defeitos, impecável, amei.</t>
+  </si>
+  <si>
+    <t>netflix estragando mais ainds 13 reasons why porquê vai ter quarta temporada e eu fingindo que não me importo de fe… https://t.co/ouc4rclhal</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s03e11 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/fgorwjn88o https://t.co/up7drshhhr</t>
+  </si>
+  <si>
+    <t>fiquei a tarde toda assitindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>to vendo 13 reasons why e só passando raiva credo</t>
+  </si>
+  <si>
+    <t>@_bruninhs parece o povo q fez o 13 reasons why, vai se foder e faz pelo menos uma pesquisa antes</t>
+  </si>
+  <si>
+    <t>assistindo a terceira temp. de 13 reasons why e sem entender como as mulheres preferem caras como o bryce ao invés… https://t.co/uffp5qg0mh</t>
+  </si>
+  <si>
+    <t>@nandabarros0 @ivocruz14 eu fico sem acreditar em 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why me surpreendeu demais com essa temporada, obg @netflixbrasil</t>
+  </si>
+  <si>
+    <t>terminei as séries: jessica jones, 13 reasons why, elite e the a list.
+agora não sei se começo a assistir:
+luke cag… https://t.co/cp5173yew0</t>
+  </si>
+  <si>
+    <t>só amanhã, hoje vou terminar logo a terceira temporada de 13 reasons why https://t.co/o7osfmpokd</t>
+  </si>
+  <si>
+    <t>to vendo 13 reasons why e to surtando pq eles só vão falar qm matou fulano no episodio final
+ eu odeio esse suspens… https://t.co/egshfvz5yj</t>
+  </si>
+  <si>
+    <t>@arrobacarolinda tô assistindo tbm , ainda falta 6 temporadas 13 reasons why 😪😪😪</t>
+  </si>
+  <si>
+    <t>hoje eu termino de assistir 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why pode até estar podre. voltei a ter um pouquinho de amor pelos personagens que eu tomei nojo</t>
+  </si>
+  <si>
+    <t>13 reasons why acaba com meu emocional 🆘️ eu saio dos episódios me sentindo péssima</t>
   </si>
   <si>
     <t>• sobre séries •
-1. jullie e os fantasmas kkkk
-2. the oa 
-3. nenhuma 
-4. grey's anatomy
-5. 13 reasons why
-6. big b… https://t.co/g8ogomv4lt</t>
-  </si>
-  <si>
-    <t>terminei a 3ª temp. de 13 reasons why e porran.... o final poderia ter sido melhor.</t>
-  </si>
-  <si>
-    <t>e mais uma vez estou eu aqui chorando assistindo 13 reasons why. pqp.</t>
-  </si>
-  <si>
-    <t>minha amg tá nervosa pq eu amo o 
-bryce walker da série 13 reasons why.
-juro q choro a morte dele 😔</t>
-  </si>
-  <si>
-    <t>tô chorando de mais com 13 reasons why</t>
-  </si>
-  <si>
-    <t>não deixe que mudem quem você é, não deixe que coloquem um rótulo na sua vida, não seja um reflexo no espelho, seja… https://t.co/3gq6gzuedf</t>
-  </si>
-  <si>
-    <t>como eu consigo achar 13 reasons why tóxica e não tóxica ao mesmo tempo? o clay é tão 💕</t>
-  </si>
-  <si>
-    <t>caralho q pesado o final dessa temporada de 13 reasons why pqpppp</t>
-  </si>
-  <si>
-    <t>ator de 13 reasons why revela não ter gostado de trama da 3ª temporada.
-https://t.co/d6upge8smd</t>
-  </si>
-  <si>
-    <t>chorei igual criança com esse ep de 13 reasons why do bryce ouvindo as fitas e dps chorei igual criança dnv com o t… https://t.co/oyvgklsznt</t>
-  </si>
-  <si>
-    <t>nunca demorei tanto pra terminar uma serie pequena, como to demorando pra terminar os 13 reasons why</t>
-  </si>
-  <si>
-    <t>@beaf08 achei 13 reasons why uma bosta, elite muito mais instigante, 13 reasons é como se eles ficassem inventando… https://t.co/pz3yr3lnbw</t>
-  </si>
-  <si>
-    <t>rt @anacfernandes04: 13 reasons why está... oh uma merda</t>
-  </si>
-  <si>
-    <t>sem saco pra essa série chamada 13 reasons why  😴😴😴😴😴</t>
-  </si>
-  <si>
-    <t>falta 1 ep pra eu terminar 13 reasons why, hj eu termino e ainda vou jogar um ff, e assistir filme e dpsssss vou pe… https://t.co/pwe5emltbi</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/ytf0qlf8ub https://t.co/teukptnodk</t>
-  </si>
-  <si>
-    <t>terminei de assistir 13 reasons why agora, e caraca, que temporada pesada</t>
-  </si>
-  <si>
-    <t>tô muito bolada com o final de  13 reasons why😡😡😡😡</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''não importa o que aconteça ou aonde a gente vá, se tem uma pessoa no espelho ou todos nós, lembramos de como somos bo…</t>
-  </si>
-  <si>
-    <t>13 reasons why é a série com os piores personagens da história, sim, são piores do que os de friends.</t>
-  </si>
-  <si>
-    <t>se eu tivesse em 13 reasons why essa seria minha única fita https://t.co/ff3jdsjjlm</t>
-  </si>
-  <si>
-    <t>rt @gtinhashoegaze: vocês não tem noção do ódio que eu sinto de 13 reasons why.  tá pra existir entretenimento mais irresponsável e cínico…</t>
-  </si>
-  <si>
-    <t>2 episódios de 13 reasons why e ainda acho que deveria ter acabado na primeira temporada</t>
-  </si>
-  <si>
-    <t>rt @andromedasdv: você não precisa que o mundo te ame, mas merece que as pessoas te respeitem, respeitem seus limites e suas decisões.
-(13…</t>
-  </si>
-  <si>
-    <t>@_bruninhs parece o povo q fez o 13 reasons why, vai se foder e faz pelo menos uma pesquisa antes</t>
-  </si>
-  <si>
-    <t>em duas temporadas de 13 reasons why eu nunca imaginei que no final da terceira começaria a sentir uma dózinha do bryce</t>
-  </si>
-  <si>
-    <t>eu não vi 13 reasons why https://t.co/tqaf92zv5y</t>
-  </si>
-  <si>
-    <t>tomando coragem pra começar a ver 13 reasons why</t>
-  </si>
-  <si>
-    <t>ta tendo a 4 temporada de riverdale , sei la qual temporada de 13 reasons why q sao series bostas e ruims 
-mas n co… https://t.co/oxujuasayy</t>
-  </si>
-  <si>
-    <t>13 reasons why é fatal demais 😥 
-me fez ver que não enxergamos a ferida das pessoas e muitas vezes só pioramos elas</t>
-  </si>
-  <si>
-    <t>atribuí nota 9 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/uyclf0j9in #bancodeseries</t>
-  </si>
-  <si>
-    <t>todos os personagens de 13 reasons why são psicopatas</t>
-  </si>
-  <si>
-    <t>terminei também a 3ª temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>vendo cenas avulsas do começo de 13 reasons why
-meu deus a hannah era uma escrota</t>
-  </si>
-  <si>
-    <t>a 3ª temporada de 13 reasons why já está disponível na netflix. no total, são 13 episódios com aproximadamente uma… https://t.co/6rmfk03zwi</t>
-  </si>
-  <si>
-    <t>tô me arrastando pra terminar 13 reasons why que saco carai</t>
-  </si>
-  <si>
-    <t>em um mês já assisti a nova temporada de greys anatomy e hj finalmente terminei de assistir 13 reasons why</t>
-  </si>
-  <si>
-    <t>ator de 13 reasons why é rejeitado em teste da disney. entenda! https://t.co/ytsb3db4km https://t.co/4ae4iz2xri</t>
-  </si>
-  <si>
-    <t>tanta série de merda sem conteúdo relevante ou impactante por aí mas o povo insistiu em reclamar de 13 reasons why… https://t.co/8reix9pzl3</t>
-  </si>
-  <si>
-    <t>@silveira_henriq quem que vê elite, bah isso 13 reasons why... tu te perdeu meu parceiro</t>
-  </si>
-  <si>
-    <t>personagem mais chato de 13 reasons why? justifique a sua resposta. — faz tanto tempo que assisti a série que nem l… https://t.co/ghbthdiq5o</t>
-  </si>
-  <si>
-    <t>elite funciona muito bem tendo uma segunda temporada de um jeito que 13 reasons why nunca conseguiu</t>
-  </si>
-  <si>
-    <t>gld isso é mt eu perguntando p gabi se ela acha boa ideia eu assistir elite ou 13 reasons why na tv https://t.co/0rgfrv8p3x</t>
-  </si>
-  <si>
-    <t>ja tava noiada e ainda mais agora dps dos ep de 13 reasons why tô loca</t>
-  </si>
-  <si>
-    <t>eu ia sair pra beber mas, vou colocar umas coisas em dia, como a 3° temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>a serie 13 reasons why cada vez fica mais estranha</t>
-  </si>
-  <si>
-    <t>o final da 3ª temporada de 13 reasons why, foi a melhor coisa meu pai! 
-a 4ª temporada vem! https://t.co/xfwkszgvym</t>
-  </si>
-  <si>
-    <t>por algum motivo eu estou assistindo a 3ª temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @iiarsoty: vamos começar pela selena gomez: a cantora anunciou em seu twitter que parte dos lucros das vendas da trilha sonora da segund…</t>
-  </si>
-  <si>
-    <t>ao contrário de tds as críticas sobre a 3 temporada de 13 reasons why, i fucking like it!!!</t>
-  </si>
-  <si>
-    <t>manoooo assisti o trailer da 3 temporada de 13 reasons why e nossa que arrepio! tomara que a temporada seja tão boa quanto o trailer</t>
-  </si>
-  <si>
-    <t>isto é tipo.... um 13 reasons why só que actually good e que realmente me faz sentido lmfao. nem consigo explicar o… https://t.co/khnck3walj</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e12 de 13 reasons why! #tvtime https://t.co/knz82up1yg https://t.co/pkcm3ordyn</t>
-  </si>
-  <si>
-    <t>caralho eu to my impactada c a cena de 13 reasons why com o tyler abraçando o mlkinho lá</t>
-  </si>
-  <si>
-    <t>um dia é depressivo porque assisti ao seriado 13 reasons why. no outro é hilário e romântico porque assisti greys anatomy .</t>
-  </si>
-  <si>
-    <t>rt @pradonick1: não suporto 13 reasons why</t>
-  </si>
-  <si>
-    <t>terminei a terceira temporada de 13 reasons why e ainda não tenho uma opinião formada sobre a série, não sei se ach… https://t.co/hhc8u93x0x</t>
-  </si>
-  <si>
-    <t>a minha mãe está a ver 13 reasons why t3 e eu não posso dar spoiler aaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>acabei htgawm, supermães, 13 reasons why e acabei me apegando na putaria que rola nesse hospital kkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @mariliamreal: nao gostei do final seletivo de 13 reasons why .. n é possível q termina assim</t>
-  </si>
-  <si>
-    <t>13 reasons why
-não é uma série pros fracos</t>
-  </si>
-  <si>
-    <t>@elitenetflixbr e não choca ninguém né, protagonista da melhor série da atualidade... pq tá chorando 13 reasons why… https://t.co/g3n91anajm</t>
-  </si>
-  <si>
-    <t>rt @ingridgabiiii: 13 reasons why devia mesmo ter parado na primeira temporada...
-não sei se achei correto essa terceita temporada tentando…</t>
-  </si>
-  <si>
-    <t>acabei de assistir 13 reasons why e agora estou começando a segunda temporada de mindhunter</t>
-  </si>
-  <si>
-    <t>rt @ryui0471: assistindo 13 reasons why tive uma noção e ponto de vista completamente diferente.  a 1° temporada deixou várias coisas em ab…</t>
-  </si>
-  <si>
-    <t>@aboborazinha_ e amo tá!? kkkk
- elite tbm e 13 reasons why principalmente</t>
-  </si>
-  <si>
-    <t>atribuí nota 8 ao episódio 3x6 - you can tell the heart of a man by how he grieves de 13 reasons why https://t.co/kyebwp49r1 #bancodeseries</t>
-  </si>
-  <si>
-    <t>rt @worldfinnie: 13, reasons e why sabendo q não devia ter passado da primeira temporada e msm assim fizeram mais duas
- https://t.co/rkd21e…</t>
-  </si>
-  <si>
-    <t>ok 13 reasons why, fizeram bem a parte de mostrar a parte humana de um estuprador, mas sempre mostrando que mesmo t… https://t.co/wezkonhak3</t>
-  </si>
-  <si>
-    <t>e eu que não gostei da 2 tmp de elite e nem da 3 de 13 reasons why
-e ambas estão muito parecidas 😴</t>
-  </si>
-  <si>
-    <t>"ter amigos é maravilhoso". 
-que série ♥️ — assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>terminei de assistir a ultima temporada de 13 reasons why agora, mano já pensou se o monty ta vivo.... se tiver qua… https://t.co/cx7xjsy0al</t>
-  </si>
-  <si>
-    <t>terminei de assistir 13 reasons why e sei lá por favor ninguém fala cmg estou triste e de luto....</t>
-  </si>
-  <si>
-    <t>terminei de assistir 13 reasons why ontem e acho que a 3ª temporada é melhor de todas.</t>
-  </si>
-  <si>
-    <t>@netflixbrasil eu vendo a 1 temp de 13 reasons why  querendo que a hannah  nao morra  mas sabendo que ela ia morrer… https://t.co/otnwb35tyv</t>
-  </si>
-  <si>
-    <t>voltei a assistir 13 reasons why e comecei a 3a temporada hj e n to é entendendo nada</t>
+1. não lembro
+2. anne with an e
+3. nenhuma
+4. 13 reasons why
+5. merlí
+6. élite
+7. the handmaid's… https://t.co/xmj49y6u9y</t>
+  </si>
+  <si>
+    <t>rt @idcohana: gente vcs sabiam q o guri lá de 13 reasons why tem uma banda indie (q por sinal é muito boa)? https://t.co/cib3yj3edw</t>
+  </si>
+  <si>
+    <t>desde q terminei 13 reasons why eu estou com um flash de algo q aconteceu q eu não tenho certeza se é uma lembrança… https://t.co/rntoq0h4c1</t>
+  </si>
+  <si>
+    <t>@rayy_trem7 personagem da série 13 reasons why kkkkk</t>
+  </si>
+  <si>
+    <t>ficar sozinho em casa eh uma delicia, ontem acabei 13 reasons why e hj to vendo serie e comendo lasanha pronta do mercado</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/7bs3c8xaxm https://t.co/7hjlcjss6w</t>
+  </si>
+  <si>
+    <t>qual série você começou a assistir por recomendações mas se arrependeu? — 13 reasons why e riverdale https://t.co/fuyrfus7jb</t>
+  </si>
+  <si>
+    <t>a serie elite ta igualzinho 13 reasons why, zero criatividade odiei</t>
   </si>
   <si>
     <t>uma bosta esse final da temporada de 13 reasons why</t>
   </si>
   <si>
-    <t>sem pé e sem cabeça o final de 13 reasons why</t>
-  </si>
-  <si>
-    <t>se tem uma coisa que nunca vou me conformar é em before i ever met you ser usada no trailer de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>acabei 13 reasons why me perguntando: porque continuo vendo essa série?</t>
-  </si>
-  <si>
-    <t>minha cabeça já tá toda confusa com essa série 13 reasons why 🤦‍♀️🤦‍♀️</t>
-  </si>
-  <si>
-    <t>elite é tão merda quanto 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @clarissammt3: a terceira temporada de 13 reasons why ensinou a não procurar a ajuda necessária pra pessoas como o que quase assassinou…</t>
-  </si>
-  <si>
-    <t>terminei a 3a temp. de 13 reasons why. nem sei o que falar...</t>
-  </si>
-  <si>
-    <t>gente o monty homofóbico de 13 reasons why pegou o macho sem nem exitar chocadooo.</t>
-  </si>
-  <si>
-    <t>seguindo a polêmica...
-fazer um filme do coringa onde a origem vem dos problemas com a saúde mental e o mau causado… https://t.co/6rhxo0muuu</t>
-  </si>
-  <si>
-    <t>muito bem dona 13 reasons why. depois que o brice morre eu fico com pena dele. af</t>
-  </si>
-  <si>
-    <t>"pq garotas sempre gostam de caras como o justin. ele sempre foi um otário"
-- clay jensen (13 reasons why)</t>
-  </si>
-  <si>
-    <t>finalmente assistindo ao último ep de 13 reasons why</t>
-  </si>
-  <si>
-    <t>mano, o cara que dubla a voz do sai deve ser o mesmo que dubla o alex de 13 reasons why, a voz é a mesma mano</t>
-  </si>
-  <si>
-    <t>@mc06_helton @netflixbrasil tá parecendo eu com 13 reasons why kkkkk</t>
-  </si>
-  <si>
-    <t>“há pessoas que se machucam e há pessoas que machucam.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>apetece-me abraçar o tyler de 13 reasons why depois de tudo que ele passou</t>
-  </si>
-  <si>
-    <t>só amanhã, hoje vou terminar logo a terceira temporada de 13 reasons why https://t.co/o7osfmpokd</t>
-  </si>
-  <si>
-    <t>rt @mayara_100popo: e eu que tô sem psicológico pra começar a terceira temporada de 
-13 reasons why 
-(duas semanas que eu tento)</t>
-  </si>
-  <si>
-    <t>essa 13 reasons why não termina nunca</t>
-  </si>
-  <si>
-    <t>13 reasons why é um dos maiores desserviço que a netflix já fez</t>
-  </si>
-  <si>
-    <t>não ignorem 😷
-a terceira temporada de 13 reasons why ta...</t>
-  </si>
-  <si>
-    <t>@bchartsnet já esmurrou 13 reasons why e elite bc
-https://t.co/lmzzxinngt</t>
-  </si>
-  <si>
-    <t>acho que fui um dos últimos a finalizar a 3ª temporada de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>tô assistindo 13 reasons why e mano, só quero saber quem matou o bryce caralho que enrolação</t>
-  </si>
-  <si>
-    <t>13 reasons why season 3 está do caralho e ainda só vi um ep foda-se</t>
-  </si>
-  <si>
-    <t>terminei elite, the 100 e 13 reasons why e ainda não chegou o dia de lançar a 4° temporada de riverdale, tá demorando já...</t>
-  </si>
-  <si>
-    <t>vou terminar de ver 13 reasons why, dps vou outra série</t>
-  </si>
-  <si>
-    <t>rt @wennux1: impacto cultural:
-         █          　　
-         █　        
-         █　        
-         █　                           ＿…</t>
-  </si>
-  <si>
-    <t>essa 3 temporada de 13 reasons why tá meio naahhh</t>
-  </si>
-  <si>
-    <t>comecei a assistir grey's, ai dps comecei a assistir riverdale, dei uma parada, assiste 13 reasons why, vltei p gre… https://t.co/43tssuz9xz</t>
-  </si>
-  <si>
-    <t>não acho nada o justin foley de 13 reasons why atraente. tem demasiado aspeto de tristeza, não sei. não gosto</t>
-  </si>
-  <si>
-    <t>terceira temporada de 13 reasons why fazendo eu gostar do bryce walker, o auge</t>
-  </si>
-  <si>
-    <t>vou começar agr assistir 13 reasons why, vms ver em quanto tempo termino</t>
-  </si>
-  <si>
-    <t>rt @filipagranja: porque é que eu estou com pena do bryce na nova temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @dannvieiira: o desenvolvimento do tyler em 13 reasons why: de um porquê na primeira temporada pra um sobrevivente na terceira é a melho…</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s03e01 of 13 reasons why! #13reasonswhy  #tvtime https://t.co/watyei3fjx https://t.co/zzonyzfdpn</t>
-  </si>
-  <si>
-    <t>to chorando que nem um idiota com o ep 8 da terceira temporada de 13 reasons why 😭</t>
-  </si>
-  <si>
-    <t>caralho como eu odeio 13 reasons why e o quao essa serie me fez mal aaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why mt bom amei</t>
-  </si>
-  <si>
-    <t>não consigo terminar 13 reasons why, mano tá chato já, puta série que tá demorando mano to sem paciência</t>
-  </si>
-  <si>
-    <t>parabéns que temporada bosta de 13 reasons why</t>
-  </si>
-  <si>
-    <t>terminei de ver a segunda temporada de 13 reasons why hj, dps de tanto enrolar. só que eu achei tão pesada, mas tão… https://t.co/eyf8kpll8f</t>
-  </si>
-  <si>
-    <t>@artknam 13 reasons why,scream(se gostar de suspense) e elite (a segunda temporada ta ótima)</t>
-  </si>
-  <si>
-    <t>eu queria saber pq todos os três últimos episódios das temporadas de 13 reasons why são tão pesadossssss</t>
-  </si>
-  <si>
-    <t>já acabei 13 reasons why, elite e agora vou para “the 100”</t>
-  </si>
-  <si>
-    <t>sinceramente, é até chocante que 13 reasons why tenha passado da primeira temporada</t>
-  </si>
-  <si>
-    <t>coloquei 13 reasons why e vou ver se é boa</t>
-  </si>
-  <si>
-    <t>nao beije esta menina ela gosta de 13 reasons why</t>
-  </si>
-  <si>
-    <t>o episódio 6 de 13 reasons why está me fazendo chorar horrores</t>
-  </si>
-  <si>
-    <t>fiquei a tarde toda assitindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>por falar em aceitação mais alguém tá vendo elite? aquela cruza de gossip girl, skins e 13 reasons why espanhola?</t>
-  </si>
-  <si>
-    <t>ontem terminei 13 reasons why e fui dormir com um nó na garganta :c essa série é pesada demais</t>
-  </si>
-  <si>
-    <t>rt @carter_lukz: queria que 13 reasons why impactasse de forma positiva as outras pessoas tanto quanto me impacta</t>
-  </si>
-  <si>
-    <t>odeio o timothy em 13 reasons why e amo em t@gged, esse é o poder do ator</t>
-  </si>
-  <si>
-    <t>terceira seasons de 13 reasons why está fraquíssima</t>
-  </si>
-  <si>
-    <t>@arrobacarolinda tô assistindo tbm , ainda falta 6 temporadas 13 reasons why 😪😪😪</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/ytf0qlf8ub https://t.co/hahofaup3w</t>
+    <t>13 reasons why não é série para ser assistida sem cia</t>
+  </si>
+  <si>
+    <t>rt @leticia_kcs: • sobre séries •
+1. friends 
+2. não consigo escolher mas agora é lucifer
+3. forever
+4. 13 reasons why
+5. vou ser xingada…</t>
+  </si>
+  <si>
+    <t>eu assistindo  a terceira temporada 13 reasons why e eu não sei pq</t>
+  </si>
+  <si>
+    <t>assistindo 13 reasons why tive uma noção e ponto de vista completamente diferente.  a 1° temporada deixou várias co… https://t.co/3fsw6omddf</t>
+  </si>
+  <si>
+    <t>e eu já começo a 3° temporada de '13 reasons why' querendo gritar na cara do clay pra parar de pegar o problema dos outros pra ele! kkkkkkk</t>
+  </si>
+  <si>
+    <t>começei  a assistir 13 reasons why e tô gostando​.</t>
+  </si>
+  <si>
+    <t>sexta-feira 13 reasons why minha vida tá uma merda
+- vida pessoal
+- trabalho
+- saúde emocional
+- eu
+- vida pessoal… https://t.co/0lk1kdy0i0</t>
+  </si>
+  <si>
+    <t>mt esquisito 13 reasons why sem a hannah
+podia aparecer ela msm q fosse só como assombração, sdds</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''vergonha é o que os outros colocam em você e fazem de um jeito como se tivesse que assumir, mas não tem.''
+— 13 reaso…</t>
+  </si>
+  <si>
+    <t>achei 13 reasons why tão bosta que não quero nem terminar</t>
+  </si>
+  <si>
+    <t>@purplesirens2 em 13 reasons why ela faz os 2</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -1079,133 +814,115 @@
 7… https://t.co/xyhjdnth2a</t>
   </si>
   <si>
-    <t>@lordesupreme @bodakswift @felipestar23 @remoiupin @bchartsnet fic o quê sua anta? july moon é a empresa da selena… https://t.co/jwpitgkhmw</t>
-  </si>
-  <si>
-    <t>mt esquisito 13 reasons why sem a hannah
-podia aparecer ela msm q fosse só como assombração, sdds</t>
-  </si>
-  <si>
-    <t>mermao, nunca pensei q eu fosse falar isso mas a terceira temporada de 13 reasons why é incrível, na boa, é genial,… https://t.co/if8s8vimfb</t>
-  </si>
-  <si>
-    <t>@seriestwbz @grazy206 13 reasons why
-literalmente cancelei quando tentaram vitimizar um estuprador fdp, o cara fico… https://t.co/bprr0kafq5</t>
-  </si>
-  <si>
-    <t>tô vendo 13 reasons why e só consigo pensar que quem criou,quem foi o autor, graças á deus pensa que esse assunto n… https://t.co/qqgqq3e665</t>
-  </si>
-  <si>
-    <t>a história mais triste de 13 reasons why, pra mim, é a do taylor...
-o que aconteceu com ele, foi um episódio que v… https://t.co/5dy9nzcrmu</t>
-  </si>
-  <si>
-    <t>a temporada 3 de 13 reasons why é muito péssima pqp</t>
-  </si>
-  <si>
-    <t>ganda shit 13 reasons why season 3  nem tem nada sobra a hannah baker tipo e como se ela nunca tivesse existido ganda shit</t>
-  </si>
-  <si>
-    <t>caramba fiquei tanto em the originals que esqueci de 13 reasons why</t>
-  </si>
-  <si>
-    <t>depois de acabar 13 reasons why eu acho q sou muito, muito grata pela minha bolha quentinha. muitos pensamentos diferentes.</t>
-  </si>
-  <si>
-    <t>caralhoooooo 13 reasons why é muito fodaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série muito boa, amo demais desde 2017</t>
-  </si>
-  <si>
-    <t>se essa temporada de 13 reasons why acabar sem falar  quem matou o brice eu vou ficar puta</t>
-  </si>
-  <si>
-    <t>agora vamos para a 3 temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @backdantas: uma dica pra saúde mental de vocês: não assistam em hipótese alguma 13 reasons why, é muito tóxico</t>
-  </si>
-  <si>
-    <t>não tenho nem palavras pra descrever a terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>@rmlthie eu gostei mt da primeira, mas a segunda... mesmo sentimento de declínio q 13 reasons why</t>
-  </si>
-  <si>
-    <t>eu acho que sou a única que gostou da ani de 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why é lixo.</t>
-  </si>
-  <si>
-    <t>@felipeneto nenhuma série é melhor que 13 reasons why,  nem grey's anatomy</t>
-  </si>
-  <si>
-    <t>só eu q não gosto da intrometida da ani na 3º temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>só queria companhia pra assistir 13 reasons why, fico meio apavorada assistindo sozinha</t>
+    <t>13 reasons why é uma série muito ruim. só isso mesmo o tweet</t>
   </si>
   <si>
     <t>que final eu ein 
 13 reasons why me destrói e mds quando q vao assumir quem realmente foi poha aff</t>
   </si>
   <si>
-    <t>terminei 13 reasons why, foi ele gente mds, a temporada não foi ruim mais esse final</t>
-  </si>
-  <si>
-    <t>a terceira temporada de 13 reasons why é zero defeitos, impecável, amei.</t>
-  </si>
-  <si>
-    <t>acabei elite, oitnb e agora tá a dúvida entre assistir a 2°temp de dark ou a 3°temp de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “para ser sincero, não gosto de mudanças.” 
+    <t>eu chorei muito vendo esses últimos ep de 13 reasons why, mano o ep mais pesado pra mim foi quando os sobreviventes… https://t.co/dgpvlcwal8</t>
+  </si>
+  <si>
+    <t>a real que eu vou ver o último ep de 13 reasons why</t>
+  </si>
+  <si>
+    <t>finalizando a terceira temporada ❤️ — assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>terminei de ver todas as temporadas de "13 reasons why" e chorei horrores</t>
+  </si>
+  <si>
+    <t>13 reasons why
+não é uma série pros fracos</t>
+  </si>
+  <si>
+    <t>primeira temporada de 13 reasons why eu amei, a segunda nem tanto e a terceira eu odeie em um nível q nem consegui acabar</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. sou luna 
+2. stranger things
+3. todas q ja assisti
+4. pll
+5. baby
+6. n sei
+7. stranger things,… https://t.co/idmyud3rys</t>
+  </si>
+  <si>
+    <t>se o áudio que a bruna me mandou falando 13 reasons why, fosse uma pessoa, eu casaria com ele agora! huhahaha eu to… https://t.co/fxp8dk3zg2</t>
+  </si>
+  <si>
+    <t>pelo amor, n consigo terminar de assistir a 3° temporada de 13 reasons why
+alguém me fala quem matou o bryce</t>
+  </si>
+  <si>
+    <t>rt @carter_lukz: queria que 13 reasons why impactasse de forma positiva as outras pessoas tanto quanto me impacta</t>
+  </si>
+  <si>
+    <t>derrubei algumas lágrimas com o  final de 13 reasons why. que final!</t>
+  </si>
+  <si>
+    <t>me sentindo incrivel por ter impedido alguem de assistir 13 reasons why</t>
+  </si>
+  <si>
+    <t>to revendo a 1° temporada se 13 reasons why e fico pensando. uma menina se suicidou e as pessoas nem aí. se eu nunc… https://t.co/ey4mykmege</t>
+  </si>
+  <si>
+    <t>terminei de ver a segunda temporada de elite, agora vou ver a terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. acho que lost
+2. mad men
+3. skins
+4. 13 reasons why
+5. friends
+6. sei la
+7. skins
+8. miami vic… https://t.co/pnp8y60s5j</t>
+  </si>
+  <si>
+    <t>preguicinha de terminar 13 reasons why, mas vou conseguir nem q seja na força do ódio</t>
+  </si>
+  <si>
+    <t>13 reasons why fala tanto sobre se responsabilizar pelos seus atos aí vai e me faz uma terceira temporada com um fi… https://t.co/kgjt3ow67o</t>
+  </si>
+  <si>
+    <t>to no sexto ep da terceira temporada de 13 reasons why e preciso dizer que estou muito surpreso com o quão ruim con… https://t.co/kxyeajqkuc</t>
+  </si>
+  <si>
+    <t>estou no episódio 10 da temporada 3 de 13 reasons why... e estou quase arregando e não terminando. está muito chata, gente, como pode!</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “há pessoas que se machucam e há pessoas que machucam.”
 — 13 reasons why</t>
   </si>
   <si>
-    <t>@seletrufas @machad0_jc @artyand_ @lmjrest @bchartsnet de qualquer forma 13 reasons why é ruim e pronto.</t>
-  </si>
-  <si>
-    <t>agora ninguém mais fala (nem bem nem mal) vou assistir 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why! só isso o q tenho a dizer 🖤</t>
-  </si>
-  <si>
-    <t>eu parei de ver 13 reasons why e me perdi, agr eu vou ver tudo de novo</t>
-  </si>
-  <si>
-    <t>eu tô morrendo de sono e entediada assistindo 13 reasons why sem parar esperando da 2h pra eu tomar o remédio e ir dormir
-ô vida bandida</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e agora preciso de outra série pra eu me encarnar 😫😫</t>
-  </si>
-  <si>
-    <t>— yasmim
-— 14
-— heterossexual 
-— 13 reasons why 
-— aquário 
-— solteira
-— ídolos vale?¿
-— conseguir o meu trabalho d… https://t.co/vob083kvoz</t>
-  </si>
-  <si>
-    <t>como assim há pessoas que detestaram esta temporada de 13 reasons why? eu acho que foi só brutal e completamente in… https://t.co/r7mb3lanhx</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “preciso resolver as coisas. eu preciso agir para as coisas mudarem.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>amiga vc faz psicologia e fica postando foto de 13 reasons why como se fosse superação????
-essa série é a maior des… https://t.co/sip0vtoe3f</t>
-  </si>
-  <si>
-    <t>@gushawn_ às vezes eu assisto 13 reasons why, só pra ter coragem de fazer umas besteiras</t>
+    <t>tomei vergonha na cara e comecei a assistir a terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>assistir a 3º temp de 13 reasons why é masoquismo
+eu sei que o roteiro da serie é uma merda mas ainda quero confirmar</t>
+  </si>
+  <si>
+    <t>rt @andromedasdv: não deixe que mudem quem você é, não deixe que coloquem um rótulo na sua vida, não seja um reflexo no espelho, seja o ref…</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why e to começando a ter certeza de que tenho transtornos emocionais e isso me assusta</t>
+  </si>
+  <si>
+    <t>que merda que está acontecendo , eu chorei assistindo o 3 temporada de 13 reasons why, caraleoooo que cena linda. #feministas</t>
+  </si>
+  <si>
+    <t>em comemoração a sexta feira 13 vou terminar 13 reasons why</t>
+  </si>
+  <si>
+    <t>acabei de ler uma resenha sobre as piores series da netflix e dentro dela tinha : la casa de papel e 13 reasons why 
+ps:não estou surpresa</t>
+  </si>
+  <si>
+    <t>rt @pistole_scher: 13 reasons why é um dos maiores desserviço que a netflix já fez</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -1219,142 +936,1083 @@
 8. g… https://t.co/hmumc06sq1</t>
   </si>
   <si>
-    <t>@ricardogranja5 kkkkkk tava perdendo meu tmp assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>não aprenderam nada com aquela merda de 13 reasons why???</t>
-  </si>
-  <si>
-    <t>eu não sei se eu termino orange is the new black ou 13 reasons why ;-;</t>
-  </si>
-  <si>
-    <t>não sei quem é mais idiota, se são os personagens de 13 reasons why ou eu que insisto nessa série.</t>
-  </si>
-  <si>
-    <t>@kdiannes 13 reasons why também me passa essa impressão. a primeira temporada é totalmente perfeita. não há erros a… https://t.co/qyl6kmkl3m</t>
-  </si>
-  <si>
-    <t>rt @ianleite13: tanta série de merda sem conteúdo relevante ou impactante por aí mas o povo insistiu em reclamar de 13 reasons why ah pelam…</t>
+    <t>sinceramente 13 reasons why eu não sei quem matou bryce walker mas tomara que tenha sido o clay porque eu não aguen… https://t.co/ctt0so0rao</t>
+  </si>
+  <si>
+    <t>sexta feira 13 reasons why no motolibre ao som de samba cuzao</t>
+  </si>
+  <si>
+    <t>nn sei oq pensar sobre essa 3 temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>chocada c esse episódio de 13 reasons why puta que pariuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>esse fds semana vou pegar pra terminar a 3 temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>@dinarteassuncao a série "13 reasons why"? estou assistindo. é muito boa</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e11 de 13 reasons why! #tvtime https://t.co/7tezjczyub https://t.co/nkaobqco7e</t>
+  </si>
+  <si>
+    <t>o episódio 6 de 13 reasons why está me fazendo chorar horrores</t>
+  </si>
+  <si>
+    <t>terminando 13 reasons why e começando elite super atrasada deus me ajude</t>
+  </si>
+  <si>
+    <t>resolveu sair 15° temp de grey's, 3° temp de 13 reasons why e 2° temp de elite tudo junto, tô perdida</t>
+  </si>
+  <si>
+    <t>hoje eu termino 13 reasons why ou eu n me chamo caroline bertoncello</t>
+  </si>
+  <si>
+    <t>vcs vão me julgar mas elite a história ta parecendo 13 reasons why ,só que melhor</t>
+  </si>
+  <si>
+    <t>preciso dizer que os 9 primeiros episódios da 3° temp de 13 reasons why são chatinhos e uma morte lenta,mas  os 4 ú… https://t.co/nlrwuzbgiy</t>
+  </si>
+  <si>
+    <t>não adianta ter assistido 13 reasons why se você comete os mesmos erros na sua escola. https://t.co/gygdwakdew</t>
+  </si>
+  <si>
+    <t>ta vendo qual série? — 13 reasons why, vis a vis https://t.co/9n8yzkdjxb</t>
+  </si>
+  <si>
+    <t>quero começar a nova temporada de 13 reasons why hoje.</t>
+  </si>
+  <si>
+    <t>manooo eu to chocada em saber q quem matou o bryce foi o alex 13 reasons why eu te odeio</t>
+  </si>
+  <si>
+    <t>aff nunca vou achar uma série tão boa igual 13 reasons why 😥</t>
+  </si>
+  <si>
+    <t>tou a ver 13 reasons why e faço como para foder a hannah? aposto que aqueles pés são perfeitos</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why mt bom amei</t>
+  </si>
+  <si>
+    <t>ao contrário de tds as críticas sobre a 3 temporada de 13 reasons why, i fucking like it!!!</t>
+  </si>
+  <si>
+    <t>13 reasons why! só isso o q tenho a dizer 🖤</t>
+  </si>
+  <si>
+    <t>acabei htgawm, supermães, 13 reasons why e acabei me apegando na putaria que rola nesse hospital kkkkkkkk</t>
+  </si>
+  <si>
+    <t>pessoas q eu considero inteligentes mas assistem e enaltecem 13 reasons why 🤢</t>
+  </si>
+  <si>
+    <t>esse final de 13 reasons why...
+chorei viado</t>
+  </si>
+  <si>
+    <t>rt @ingridgabiiii: 13 reasons why devia mesmo ter parado na primeira temporada...
+não sei se achei correto essa terceita temporada tentando…</t>
+  </si>
+  <si>
+    <t>tô no último ep de 13 reasons why aí q bad</t>
+  </si>
+  <si>
+    <t>3° temporada de 13 reasons why é muito boa, chega arrepiar</t>
+  </si>
+  <si>
+    <t>acabei de ver 13 reasons why e aquilo deu voltas e voltas</t>
+  </si>
+  <si>
+    <t>eu pelada na cama
+e minha namorada assistindo 13 reasons why 
+mai né foda</t>
+  </si>
+  <si>
+    <t>alguém assiste 13 reasons why? gostaram da terceira temporada?</t>
   </si>
   <si>
     <t>a gente fazendo uma simulação aqui pra entender como funciona a sonu, ai o tema é "qual a melhor série da netflix?"… https://t.co/k4qhbdfwyj</t>
   </si>
   <si>
+    <t>rt @pergunteindmlk: menina como é q a guria de 13 reasons why conseguiu pensar em só 13 motivo eu devo te uns 163 só esse ano</t>
+  </si>
+  <si>
+    <t>tô assistindo 13 reasons why e mano, só quero saber quem matou o bryce caralho que enrolação</t>
+  </si>
+  <si>
+    <t>13 reasons why não deveria existir mano, tipo uma guria se mata, depois um cara estupra um monte de gente, e agora… https://t.co/d6k29rmtrz</t>
+  </si>
+  <si>
+    <t>se eu tivesse em 13 reasons why essa seria minha única fita https://t.co/ff3jdsjjlm</t>
+  </si>
+  <si>
+    <t>na minha opinião 13 reasons why é muito pesada, só atrapalha quem sofre desses problemas..</t>
+  </si>
+  <si>
+    <t>vou ver o último ep de 13 reasons why mais tarde pq não aguento mais bicho mas tb tenho que saber o desfecho</t>
+  </si>
+  <si>
+    <t>em duas temporadas de 13 reasons why eu nunca imaginei que no final da terceira começaria a sentir uma dózinha do bryce</t>
+  </si>
+  <si>
+    <t>@acruxjeon vendo minha série, 13 reasons why, é muito boa! conta a história de uma menina que se suicidou hanna, e… https://t.co/jjken7tk4l</t>
+  </si>
+  <si>
+    <t>agora que eu tô terminando a t3 de 13 reasons why 😂</t>
+  </si>
+  <si>
+    <t>rt @cinema505: 'elite' desbanca '13 reasons why' e se torna a série mais vista da semana. https://t.co/ybickylyly</t>
+  </si>
+  <si>
+    <t>meu deus a 3 temporada de 13 reasons why,tá surpreendendo a cada episódio,caralho a ani e o bryce tinham um caso um caso</t>
+  </si>
+  <si>
+    <t>finalmente terminei a terceira temporada de 13 reasons why...foi ok, espero q tenha sido a última</t>
+  </si>
+  <si>
+    <t>nesse fds já vi : elite, crush a altura e terminei 13 reasons why, próximo vis a vis</t>
+  </si>
+  <si>
+    <t>atribuí nota 8 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/pdtxn79cl9 #bancodeseries</t>
+  </si>
+  <si>
+    <t>ok temporada 3 de 13 reasons why está a ficar agressive ://</t>
+  </si>
+  <si>
+    <t>vocês não tem noção do ódio que eu sinto de 13 reasons why.  tá pra existir entretenimento mais irresponsável e cínico do q esse</t>
+  </si>
+  <si>
+    <t>acabei a 3ª temporada de 13 reasons why e parei pra pensar no quanto essa série é pesada viu</t>
+  </si>
+  <si>
+    <t>assistindo 13 reasons why e sentindo falta da morena + gata que já vi na vida 😅</t>
+  </si>
+  <si>
+    <t>13 reasons why é muito chato kk impossível de maratonar</t>
+  </si>
+  <si>
+    <t>rt @bewhateveryouw1: ai gente comecei a assistir uma série muito boa na netflix
+mas já tô com medo de ela não ser renovada pq ando com azar…</t>
+  </si>
+  <si>
+    <t>tô vendo 13 reasons why, me rendi</t>
+  </si>
+  <si>
+    <t>3 temporada de 13 reasons why tá me irritando um pouco</t>
+  </si>
+  <si>
+    <t>nossa que contraditória essa temporada de 13 reasons why hein?</t>
+  </si>
+  <si>
+    <t>vocês gostaram da terceira temporada de 13 reasons why?</t>
+  </si>
+  <si>
+    <t>- 13 reasons why (livro)
+- the 100 (livro)
+- foste sempre tu 
+- viver depois de ti 
+- a arte subtil de saber dizer que se foda .</t>
+  </si>
+  <si>
+    <t>não acredito que a 3 temporada de 13 reasons why acabou assim</t>
+  </si>
+  <si>
+    <t>eu abandonei tanta série, abandonei ru pal's drag race, 13 reasons why, gossip girl, gatunas eu sou uma decepção</t>
+  </si>
+  <si>
+    <t>rt @salvadorfreits: perguntaram-me se sempre ia a um jantar e pensei "ao contrário do 13 reasons why, eu nunca me corto."
+e lá fui rindo nu…</t>
+  </si>
+  <si>
+    <t>mano eu assisto 13 reasons why e sofro a morte da hannah como se eu tivesse conhecido ela</t>
+  </si>
+  <si>
+    <t>13 reasons why: as pessoas questionando a ideia da série pelo fato dela romantizar o suicídio e como isso é algo ir… https://t.co/skidalgcml</t>
+  </si>
+  <si>
+    <t>um homem pode se tornar cruel pra provar que não é fraco.
+- 13 reasons why.</t>
+  </si>
+  <si>
+    <t>frases da série 13 reasons why
+acesse e confira
+https://t.co/n4eajnbnlt</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “as pessoas te julgam pela sua aparência, pelo que ouvem de você. elas te rotulam.”
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>no episódio que eu penso em desistir de 13 reasons why eles me colocam na trilha uma música do nothing but thieves.… https://t.co/w8ygscwd54</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. friends 
+2. não consigo escolher mas agora é lucifer
+3. forever
+4. 13 reasons why
+5. vou ser x… https://t.co/w3xj0dlk0y</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e03 de 13 reasons why! #tvtime https://t.co/p1pkuz7izq https://t.co/dkbgjwjdrb</t>
+  </si>
+  <si>
+    <t>baaa tá tão boa a terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma série muito foda!</t>
+  </si>
+  <si>
+    <t>essa terceira temporada de 13 reasons why está acabando cmg 😭😭😭😭</t>
+  </si>
+  <si>
+    <t>@algunlucas eu nunca vi graça em rbd, mas te contar que curti elite kkk esmurra riverdale e 13 reasons why como tra… https://t.co/apqocsjnt6</t>
+  </si>
+  <si>
+    <t>gente o monty homofóbico de 13 reasons why pegou o macho sem nem exitar chocadooo.</t>
+  </si>
+  <si>
+    <t>@seletrufas @machad0_jc @artyand_ @lmjrest @bchartsnet de qualquer forma 13 reasons why é ruim e pronto.</t>
+  </si>
+  <si>
+    <t>terminei a 3ª parte de 13 reasons why e vai se fude, nunca chorei tanto na minha vida</t>
+  </si>
+  <si>
+    <t>mano, que garota aleatória é essa no 13 reasons why?</t>
+  </si>
+  <si>
+    <t>atribuí nota 7 ao episódio 3x3 - the good person is indistinguishable from the bad de 13 reasons why https://t.co/ky8sfclknc #bancodeseries</t>
+  </si>
+  <si>
+    <t>rt @urreabeaunert: justin foley; mais conhecido como dono do meu coração e da season 3 toda de 13 reasons why https://t.co/kfggflyiqk</t>
+  </si>
+  <si>
+    <t>a temporada 3 de 13 reasons why é muito péssima pqp</t>
+  </si>
+  <si>
     <t>@scrzpted @lategaga @elitenetflixbr ahhhhh, vocês lembram quando o aron e o brandon de 13 reasons why trocaram come… https://t.co/wpfpvuc34q</t>
   </si>
   <si>
+    <t>13 reasons why,a série que todo mundo critica e eu me identifico tanto</t>
+  </si>
+  <si>
+    <t>1) track 10 é simplesmente perfeita, não precisava de um remix transformando ela numa faixa de trilha sonora de 13… https://t.co/gxuvaty6oq</t>
+  </si>
+  <si>
+    <t>to vendo 13 reasons why e ainda to no capítulo um, alguém me fala como não odiar o bryce??</t>
+  </si>
+  <si>
+    <t>eu acabei de vê o último episódio da última temporada de 13 reasons why. eu tô triste, mas chateada pq tem algumas… https://t.co/hs63prszq0</t>
+  </si>
+  <si>
+    <t>@fiocosegundo @ssssegarra @spixxay acho que não, achei que era igual 13 reasons why</t>
+  </si>
+  <si>
+    <t>❌❌ spoiler de it 2 ❌❌
+mano vcs perceberam que a cena de suicidio em it foi completamente bem pensada apesar de ser… https://t.co/39qw3oqkg9</t>
+  </si>
+  <si>
+    <t>oi @selenagomez deixa eu entrar em 13 reasons why e encher a cara dessa ani de porrada garota chata da desgraça</t>
+  </si>
+  <si>
+    <t>@seriestwbz 13 reasons why. n é nem hate, só achei desnecessário mais temporadas</t>
+  </si>
+  <si>
+    <t>gente eu sei que estou atrasada, mas essa terceira temporada de 13 reasons why é muito ruim!</t>
+  </si>
+  <si>
+    <t>ai gente comecei a assistir uma série muito boa na netflix
+mas já tô com medo de ela não ser renovada pq ando com a… https://t.co/corrpirvqc</t>
+  </si>
+  <si>
+    <t>13 reasons why season 3 está do caralho e ainda só vi um ep foda-se</t>
+  </si>
+  <si>
+    <t>você não precisa que o mundo te ame, mas merece que as pessoas te respeitem, respeitem seus limites e suas decisões… https://t.co/3etbhsvq74</t>
+  </si>
+  <si>
+    <t>finalmente tomei coragem e assisti 13 reasons why... e como imaginava, não to bem</t>
+  </si>
+  <si>
+    <t>depois de acabar 13 reasons why eu acho q sou muito, muito grata pela minha bolha quentinha. muitos pensamentos diferentes.</t>
+  </si>
+  <si>
+    <t>vendo a série 13 reasons why na força do ódio kk</t>
+  </si>
+  <si>
+    <t>tô achando insuportável essa season de 13 reasons why.. cansativa demais, não consegui passar do 3 ep</t>
+  </si>
+  <si>
+    <t>eu me odeio mto por continuar assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why num acaba pqp</t>
+  </si>
+  <si>
+    <t>finalmente to vendo a terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>to chorando que nem um idiota com o ep 8 da terceira temporada de 13 reasons why 😭</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e12 de 13 reasons why! #tvtime https://t.co/7jw8uwtxbq https://t.co/0izhwepufm</t>
+  </si>
+  <si>
+    <t>eu to de fato assistindo 13 reasons why desde o ano passado e ainda estou no ep 8</t>
+  </si>
+  <si>
+    <t>tomando coragem pra começar a ver 13 reasons why</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. homeland
+2. stranger things, big little lies e black mirror
+3. não cheguei fazer isso kk
+4. 13… https://t.co/mifixyuv8w</t>
+  </si>
+  <si>
+    <t>terminei de assistir a ultima temporada de 13 reasons why agora, mano já pensou se o monty ta vivo.... se tiver qua… https://t.co/cx7xjsy0al</t>
+  </si>
+  <si>
+    <t>eu nunca demorei/enrolei tanto pra terminar a temporada de uma série como tô demorando pra assistir a terceira temp de 13 reasons why</t>
+  </si>
+  <si>
     <t>tenho que colocar elite e 13 reasons why em dia</t>
+  </si>
+  <si>
+    <t>13 reasons why é lixo.</t>
+  </si>
+  <si>
+    <t>philipe peter é um gênio meu na boa 
+já viram o vídeo dele sobre 13 reasons why???? muito bom</t>
+  </si>
+  <si>
+    <t>isto é tipo.... um 13 reasons why só que actually good e que realmente me faz sentido lmfao. nem consigo explicar o… https://t.co/khnck3walj</t>
+  </si>
+  <si>
+    <t>vou assistir 13 reasons why tudo de novo pq só assisti a 1 temp</t>
+  </si>
+  <si>
+    <t>puta merda, a 3ª temporada de 13 reasons why me fez chorar demaaaissssss, tô em prantos</t>
+  </si>
+  <si>
+    <t>@netflixbrasil eu vendo a 1 temp de 13 reasons why  querendo que a hannah  nao morra  mas sabendo que ela ia morrer… https://t.co/otnwb35tyv</t>
+  </si>
+  <si>
+    <t>rt @gtinhashoegaze: vocês não tem noção do ódio que eu sinto de 13 reasons why.  tá pra existir entretenimento mais irresponsável e cínico…</t>
+  </si>
+  <si>
+    <t>o final da 3ª temporada de 13 reasons why, foi a melhor coisa meu pai! 
+a 4ª temporada vem! https://t.co/xfwkszgvym</t>
+  </si>
+  <si>
+    <t>3° temporada de 13 reasons why tá muitooo top!!!! que série meus amigos 😱😱😱</t>
+  </si>
+  <si>
+    <t>@tattyhp ia rolar um com gente de 13 reasons why, 7/09 acho não rolou né?</t>
+  </si>
+  <si>
+    <t>#elitenetflix tá igual 13 reasons why, só acho</t>
+  </si>
+  <si>
+    <t>@mc06_helton @netflixbrasil tá parecendo eu com 13 reasons why kkkkk</t>
+  </si>
+  <si>
+    <t>acabei de ver o episódio  s03e02 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/kdhro4sfec https://t.co/i8l4xcchbx</t>
+  </si>
+  <si>
+    <t>vi a 3° temporada de "13 reasons why" ontem e pqp, que troço problemático. a quase beatificação de um sujeito confe… https://t.co/pkkfwbwati</t>
+  </si>
+  <si>
+    <t>tô assistindo lentamente a 3° temporada de 13 reasons why, e sinceramente não recomendo pra ninguém. pqp..</t>
+  </si>
+  <si>
+    <t>comecei a 3 temporada de 13 reasons why
+antes de continuar essa palhaçada alguém pode me dizer se eles vão realmen… https://t.co/p0ck1sp7gz</t>
+  </si>
+  <si>
+    <t>3° temp de 13 reasons why, e 2° temp de elite.. meu coração não aguenta 😍😍❤</t>
+  </si>
+  <si>
+    <t>rt @anacfernandes04: 13 reasons why está... oh uma merda</t>
+  </si>
+  <si>
+    <t>greys anatomy continua sendo boa dps de mt tempo, agr 13 reasons why realmente n tem pq ter mais temporada, com iss… https://t.co/otjziuuipy</t>
+  </si>
+  <si>
+    <t>mano, essa temporada de 13 reasons why está foda demais, várias cenas emocionante que não tem como não segurar o choro</t>
+  </si>
+  <si>
+    <t>minha amg tá nervosa pq eu amo o 
+bryce walker da série 13 reasons why.
+juro q choro a morte dele 😔</t>
+  </si>
+  <si>
+    <t>5 ep da t1 de 13 reasons why e não da pra continuar vendo. extremamente cansativo e repetitivo.</t>
+  </si>
+  <si>
+    <t>caralho como eu odeio 13 reasons why e o quao essa serie me fez mal aaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>@miltonfdjr dá pra fazer um super tcc sobre 13 reasons why, se for pra falar mal</t>
+  </si>
+  <si>
+    <t>achei a série 13 reasons why muuuuito boa , mas as maldades daquela série me incomoda tanto 😪</t>
+  </si>
+  <si>
+    <t>13 reasons why, temporada 3, episódio 8 me fazendo chorar pra caralho nessa segunda feira</t>
+  </si>
+  <si>
+    <t>ta sério eu n esperava mas essa 3ª temporada de 13 reasons why tá realmente muito boa</t>
+  </si>
+  <si>
+    <t>rt @seriestwbz: christian navarro (13 reasons why) fez audição para interpretar o príncipe eric no live-action de 'a pequena sereia'.
+o at…</t>
+  </si>
+  <si>
+    <t>eu tô morrendo de sono e entediada assistindo 13 reasons why sem parar esperando da 2h pra eu tomar o remédio e ir dormir
+ô vida bandida</t>
+  </si>
+  <si>
+    <t>rt @nitrox7: amiga vc faz psicologia e fica postando foto de 13 reasons why como se fosse superação????
+essa série é a maior desinformação…</t>
+  </si>
+  <si>
+    <t>— aline
+— 25
+— hetero
+— no momento, 13 reasons why
+— leão
+— solteira 
+— nenhum 
+— ser uma veterinária  
+— assistir… https://t.co/6cweeoo78b</t>
+  </si>
+  <si>
+    <t>rt @jpaulo645: e saiu minha crítica sobre a terceira temporada de #13reasonswhy, vem ler e saber o que achei sobre a trama desta temporada.…</t>
+  </si>
+  <si>
+    <t>13 reasons why é muito adolescente gente, não dá, os assuntos são sérios, mas a forma como é tratado...</t>
+  </si>
+  <si>
+    <t>@anthunesarth assim como a selena que também não tem emmy, apesar de ter a estatueta ela não está creditada no prêm… https://t.co/6x1bsqfftb</t>
+  </si>
+  <si>
+    <t>comecei a assistir grey's, ai dps comecei a assistir riverdale, dei uma parada, assiste 13 reasons why, vltei p gre… https://t.co/43tssuz9xz</t>
+  </si>
+  <si>
+    <t>❌❌ spoiler de it 2 em paralelo à série 13 reasons why no próximo tweet ❌❌</t>
+  </si>
+  <si>
+    <t>elite é tão merda quanto 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why ganhou meu respeito quando tocou a trilha sonora de donnie darko, foi demais p mim</t>
+  </si>
+  <si>
+    <t>acabando 13 reasons why, obrigado deus</t>
+  </si>
+  <si>
+    <t>@marciocover exatamente!!!
+eu estou ainda na fase de atualizações....(acabei de rever a última temporada de orange… https://t.co/meoryo3ipp</t>
+  </si>
+  <si>
+    <t>tô chocada q já acordei...ontem fui dormir tardão assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>atribuí nota 7 ao episódio 3x2 - if you're breathing, you're a liar de 13 reasons why https://t.co/cnzmhckxsq #bancodeseries</t>
+  </si>
+  <si>
+    <t>sofro muito com o justin nessa ultima temp de 13 reasons why 😔</t>
+  </si>
+  <si>
+    <t>agora vamos para a 3 temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>e agr não sei se assisto ela ou termino de ver 13 reasons why kkkkk</t>
+  </si>
+  <si>
+    <t>vários ep de 13 reasons why e várias horas de sono.</t>
+  </si>
+  <si>
+    <t>o elenco de 13 reasons why que eu esqueci o nome 😂😂
+mas eles são bem simpáticos, muito mesmo https://t.co/ux5mp7wziq</t>
+  </si>
+  <si>
+    <t>@seriestwbz e esqueci de orphan black, ela com 13 reasons why são horríveis</t>
+  </si>
+  <si>
+    <t>não acredito q fiquei até agora assistindo 13 reasons why. q final foi esse pelo amor de deus?!!</t>
+  </si>
+  <si>
+    <t>aquele meme do 13 reasons why que fala do maldito sorriso, nunca foi tão verdadeiro como agora viu, ai mds</t>
+  </si>
+  <si>
+    <t>ai hj eu termino 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why passou a mensagem de que estupradores se tornam pessoas boas e de que pessoas más vão “embora” e tud… https://t.co/creflkjnui</t>
+  </si>
+  <si>
+    <t>o ruim de ver series horrorosas como 13 reasons why é que você se identifica com o que passa e simplesmente tem que… https://t.co/mmkeskihub</t>
+  </si>
+  <si>
+    <t>4 horas da manhã e eu to comendo brigadeiro, tomando coca  e assistindo 13 reasons why kkkkkk</t>
+  </si>
+  <si>
+    <t>rt @saalisboa: to arrastada pra terminar 13 reasons why gente parece que nunca acaba</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e elite e to pensando em assistir sex education mas não sei se é boa</t>
+  </si>
+  <si>
+    <t>vou ver 13 reasons why td denovo pra ver a 3t em paz</t>
+  </si>
+  <si>
+    <t>@abmcgrazi @construtorajab @pedrocerize @hbredda e 13 reasons why só para morrer de raiva dos personagens.</t>
+  </si>
+  <si>
+    <t>que personagem insuportável essa menina que apareceu em 13 reasons why</t>
+  </si>
+  <si>
+    <t>tô assistindo 13 reasons why e como que uma série pode ser tão ??????? assim</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma série triste, tudo sempre muito no fim, cada cena é uma despedida. eu realmente me sinto abraç… https://t.co/eagfxl8n0f</t>
+  </si>
+  <si>
+    <t>rt @pradonick1: não suporto 13 reasons why</t>
+  </si>
+  <si>
+    <t>ator de 13 reasons why revela não ter gostado de trama da 3ª temporada.
+https://t.co/d6upge8smd</t>
+  </si>
+  <si>
+    <t>se for pra cagar a série q nem 13 reasons why é melhor fazer um episódio final e tá ótimo https://t.co/jdw0boayxe</t>
+  </si>
+  <si>
+    <t>que série tá assistindo e q temp — 13 reasons why, terceira temporada https://t.co/fbwn3dm7hq</t>
+  </si>
+  <si>
+    <t>13 reasons why vai ser mais uma das series que nao vou conseguir terminar de tão ruim que ficou</t>
+  </si>
+  <si>
+    <t>se tem uma coisa que nunca vou me conformar é em before i ever met you ser usada no trailer de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>''a gente acerta e a gente erra, dai a gente aprende e melhora.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>uma dica pra saúde mental de vocês: não assistam em hipótese alguma 13 reasons why, é muito tóxico</t>
+  </si>
+  <si>
+    <t>se essa temporada de 13 reasons why acabar sem falar  quem matou o brice eu vou ficar puta</t>
+  </si>
+  <si>
+    <t>tá vendo alguma série atualmente? — assisti 13 reasons why https://t.co/sh2nj8dnzq</t>
+  </si>
+  <si>
+    <t>ah sim, lavei o carro da minha mãe antes de assistir 13 reasons why e lavei a louça.
+aaahhh.....</t>
+  </si>
+  <si>
+    <t>mas eu preciso falar sobre crazy ex girlfriend pq numa época onde existe 13 reasons why, por exemplo, eu n achei qu… https://t.co/4jvktmo5um</t>
+  </si>
+  <si>
+    <t>to chorando pq 13 reasons why me fez não só sentir pena, mas gostar do bryce</t>
+  </si>
+  <si>
+    <t>@seriestwbz 13 reasons why e todo mundo aqui sabe</t>
+  </si>
+  <si>
+    <t>tentando terminar o ultimo ep 13 reasons why, mas fica dificil enxergar com tanta lágrima</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. h2o meninas sereias 
+2. got
+3. prison break 
+4. 13 reasons why 
+5. stranger things 
+6. irmão d… https://t.co/9ozhbl1e63</t>
+  </si>
+  <si>
+    <t>não suporto 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @moralessfii: 13 reasons why não deveria existir mano, tipo uma guria se mata, depois um cara estupra um monte de gente, e agora clarame…</t>
+  </si>
+  <si>
+    <t>bem que a sabrina falou que 13 reasons why foi um gatilho pra ela e me alertou para nao assistir, os dois dias que… https://t.co/7sqzuotjph</t>
+  </si>
+  <si>
+    <t>moço “13 reasons why” está muito bem estruturada nessa terceira temporada, o segunda episódio retratando o aborto d… https://t.co/d6ymsxvvqh</t>
+  </si>
+  <si>
+    <t>terminei agora de assistir o episódio s03e05 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/zaj8zpl0kb https://t.co/bu5duhq0je</t>
+  </si>
+  <si>
+    <t>ainda não terminei 13 reasons why tá uma bela de uma bosta desde a 2°t</t>
+  </si>
+  <si>
+    <t>eu ia sair pra beber mas, vou colocar umas coisas em dia, como a 3° temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>terminei o último de ep de 13 reasons why amém kk, e estou assistindo a segunda temporada de elite</t>
+  </si>
+  <si>
+    <t>eu não vi 13 reasons why https://t.co/tqaf92zv5y</t>
+  </si>
+  <si>
+    <t>rt @queridojeito: “preciso resolver as coisas. eu preciso agir para as coisas mudarem.”
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>os alunos de 13 reasons why quando souberam do suicidio da hannah baker https://t.co/7yhzlcbtjy</t>
+  </si>
+  <si>
+    <t>— gabriel vilela
+— 16
+— bisexual
+— 13 reasons why??? sla kk
+— pexe
+— dei um tempo no namoro aberto
+— o scar e uma p… https://t.co/eme9algbuj</t>
+  </si>
+  <si>
+    <t>rt @tribbianzi: elite e 13 reasons why qual das duas séries eu tenho menos vontade de ver</t>
+  </si>
+  <si>
+    <t>13 reasons why devia ter parado na primeira temporada, o resto eh forçação</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''quando as pessoas te encaram e falam ou quando não te encaram mas você sabe que elas querem, apenas lembre-se que voc…</t>
+  </si>
+  <si>
+    <t>enfim último episódio de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>um dia é depressivo porque assisti ao seriado 13 reasons why. no outro é hilário e romântico porque assisti greys anatomy .</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e não consigo ter pena do bryce e nem do mont. moral: cada um colhe o que planta (nem todos)</t>
+  </si>
+  <si>
+    <t>comecei 13 reasons why e tô me perguntando porque não assisti antes...</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e...... me julguem..... eu gosto dessa série</t>
+  </si>
+  <si>
+    <t>se o bryce não tivesse feito tanta merda nas primeiras temporadas de 13 reasons why eu poderia até ficar com dó del… https://t.co/iikgvrp1lr</t>
+  </si>
+  <si>
+    <t>queria poder banir algumas coisas que a lue assiste no meu netflix tipo sinceramente ela ta vendo 13 reasons why qq eu faço c a garota???</t>
   </si>
   <si>
     <t>rt @citou13reasons: ''a tristeza faz a gente agir de maneiras inesperadas.''
 — 13 reasons why</t>
   </si>
   <si>
-    <t>atribuí nota 8.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/i5pxngn1lh #bancodeseries</t>
-  </si>
-  <si>
-    <t>vontade q eu tô de madrugar p assistir a terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @jurezender: 13 reasons why devia ter parado na primeira temporada, o resto eh forçação</t>
+    <t>to vendo 13 reasons why pela segunda vez, putz ta mexendo mt cmg essa serie</t>
+  </si>
+  <si>
+    <t>3° temporada do 13 reasons why esta...🤯 já é pesado mas esta tá o dobro crlh</t>
+  </si>
+  <si>
+    <t>eu não evitei assistir 13 reasons why mesmo com o povo dizendo pra eu assistir, pra poupar minha saúde mental, por… https://t.co/ialnmslmu0</t>
+  </si>
+  <si>
+    <t>mt fofo o jeito q a terceira temporada  de 13 reasons why começa</t>
+  </si>
+  <si>
+    <t>acabei de terminar a ultima temporada de 13 reasons why e pra mim foi um pouco impactante ver a família walker na s… https://t.co/f8uqomjc1b</t>
+  </si>
+  <si>
+    <t>estou assistindo a segunda temporada de 13 reasons or why, o garoto que na primeira temporada até estuprava garotas… https://t.co/zufnjadx3r</t>
+  </si>
+  <si>
+    <t>"quando a casa pega fogo, você conversa sobre o fogo ou sai da casa?" - 13 reasons why</t>
+  </si>
+  <si>
+    <t>por algum motivo eu estou assistindo a 3ª temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>acho que essa série 13 reasons why tá me fazendo é mal, ou é a tpm. sei la</t>
+  </si>
+  <si>
+    <t>''quando as pessoas te encaram e falam ou quando não te encaram mas você sabe que elas querem, apenas lembre-se que… https://t.co/673clihnuq</t>
+  </si>
+  <si>
+    <t>atribuí nota 9 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/uyclf0j9in #bancodeseries</t>
+  </si>
+  <si>
+    <t>vcs amigariam comigo?
+idade: 15 anos 
+série fav: 13 reasons why
+filme fav: meninas malvadas 
+hobby: dançar, cantar… https://t.co/5b4uzq04qn</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why
+minha série preferida
+única série que eu não recebi spoiler algum
+olhei com a maior calma… https://t.co/yssg6dnyn7</t>
+  </si>
+  <si>
+    <t>finalmente consegui terminar 13 reasons why, agora preciso de forças pra terminar oitnb</t>
+  </si>
+  <si>
+    <t>essa temporada de 13 reasons why tava foda dms</t>
+  </si>
+  <si>
+    <t>terminei a 3 temp de 13 reasons why e to até agora tentando entender que mensagem que eles tentam passar pq tirando… https://t.co/koxkkhaiqk</t>
+  </si>
+  <si>
+    <t>ultimamente eu estou andando tão morta que nem pra série/netflix eu to ligando mais, tem temporada nova de elite e… https://t.co/oeed4mxqjd</t>
+  </si>
+  <si>
+    <t>rt @carolin58895490: estou completamente sem palavras com a temporada 3 de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>tu termina de assistir lá casa de papel e vira um assaltante profissional.
+termina 13 reasons why e fica na bad.
+e… https://t.co/0j0kdk1las</t>
+  </si>
+  <si>
+    <t>dois dias e já terminei elite. alguém já viu a terceira temporada de 13 reasons why? quero saber se é boa</t>
+  </si>
+  <si>
+    <t>rt @pripugliese: que saco netflix que não deixa tirar print, mas pensa no casal lindo que me faz de trouxa em 13 reasons why https://t.co/e…</t>
+  </si>
+  <si>
+    <t>rt @andromedasdv: você não precisa que o mundo te ame, mas merece que as pessoas te respeitem, respeitem seus limites e suas decisões.
+(13…</t>
+  </si>
+  <si>
+    <t>atribuí nota 8 ao episódio 3x10 - the world closing in de 13 reasons why https://t.co/qcpqcnjynk #bancodeseries</t>
+  </si>
+  <si>
+    <t>lá vou eu assistir a 3ª temporada de 13 reasons why, torcendo pra não ficar um lixo depois</t>
+  </si>
+  <si>
+    <t>não gostei do fim de 13 reasons why</t>
   </si>
   <si>
     <t>mano, 13 reasons why é a maior ofensa que eu já vi nesse universo de netflix e tal</t>
   </si>
   <si>
-    <t>atribuí nota 8.5 ao episódio 3x6 - you can tell the heart of a man by how he grieves de 13 reasons why… https://t.co/jvypejejrn</t>
+    <t>rt @bchartsnet: smash sem precedentes, "elite" debuta em #1 no top10 das séries mais vistas da semana e derruba merda seca "13 reasons why"…</t>
+  </si>
+  <si>
+    <t>@seriestwbz @grazy206 13 reasons why
+literalmente cancelei quando tentaram vitimizar um estuprador fdp, o cara fico… https://t.co/bprr0kafq5</t>
+  </si>
+  <si>
+    <t>nao dá pra negar que a cinematografia de 13 reasons why é impecável, e que a série foi muito bem desenvolvida. 
+mas… https://t.co/xbks6myoio</t>
+  </si>
+  <si>
+    <t>terceira temp de 13 reasons why, parabéns vc superou a perfeição</t>
+  </si>
+  <si>
+    <t>@jviana172 @flipeouza @bchartsnet amiga, isso não é considerado bem um emmy. para te provar isso, peguei a fonte do… https://t.co/vc9to8keio</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''não importa o que aconteça ou aonde a gente vá, se tem uma pessoa no espelho ou todos nós, lembramos de como somos bo…</t>
+  </si>
+  <si>
+    <t>não sei quem é mais idiota, se são os personagens de 13 reasons why ou eu que insisto nessa série.</t>
+  </si>
+  <si>
+    <t>13 reasons why e realmente ruim como o povo diz? to querendo assistir https://t.co/fng0nihgvt</t>
+  </si>
+  <si>
+    <t>hoje eu termino de ver 13 reasons why</t>
+  </si>
+  <si>
+    <t>@felipeneto eu esperando  " atypical" "sex education" faz uns séculos aí e a netflix lançando 13 reasons why. 
+ódio que tenho disso pqp.</t>
+  </si>
+  <si>
+    <t>não gosto tanto assim de 13 reasons why, nem sei porque é que me estou a obrigar a ver estar terceira temporada</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. jullie e os fantasmas kkkk
+2. the oa 
+3. nenhuma 
+4. grey's anatomy
+5. 13 reasons why
+6. big b… https://t.co/g8ogomv4lt</t>
+  </si>
+  <si>
+    <t>gente vcs sabiam q o guri lá de 13 reasons why tem uma banda indie (q por sinal é muito boa)? https://t.co/cib3yj3edw</t>
+  </si>
+  <si>
+    <t>quadro exclusivo inspirado na série 13 reasons why 😎 #13rw #13reasonswhy #quadro #quadros #quadrosdecorativos… https://t.co/xh51nbkffb</t>
+  </si>
+  <si>
+    <t>se eu pudesse dar algum conselho, seria: não assistam 13 reasons why!</t>
+  </si>
+  <si>
+    <t>acabei de ver uma quote horrível de 13 reasons why com um gatilho extremamente pesado, por favor alguém avisa?????… https://t.co/qt0by5n7sp</t>
+  </si>
+  <si>
+    <t>acho que sou a única pessoa que achou uma bosta greys anatomy,achou mais ou menos friends ,odiou elite e achou 13 reasons why forçado</t>
+  </si>
+  <si>
+    <t>pra quem ainda não assistiu a terceira temporada de 13 reasons why, não assista se você ja passou por algo que a sé… https://t.co/cjtyes2ovb</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e09 de 13 reasons why! #tvtime https://t.co/nvbschipsy https://t.co/ulcrtzzhc2</t>
+  </si>
+  <si>
+    <t>e hoje no meio de 13 reasons why me bateu um puta sono aí eu tive que pausar pra dormir umas meia horinha pra depoi… https://t.co/mcxyrpmrly</t>
+  </si>
+  <si>
+    <t>como eu consigo achar 13 reasons why tóxica e não tóxica ao mesmo tempo? o clay é tão 💕</t>
+  </si>
+  <si>
+    <t>tentei ver 13 reasons why, não consegui acabar o primeiro episódio</t>
+  </si>
+  <si>
+    <t>mano eu to chorando mt com a terceira temporada de 13 reasons why,scrr</t>
+  </si>
+  <si>
+    <t>rt @versosfrases: "todo mundo que você conhece está em uma batalha sobre a qual você não sabe nada, seja gentil, sempre." 
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>que preguiça é essa de pegar em 13 reasons why?</t>
+  </si>
+  <si>
+    <t>puta que pariu na raiva que eu passo com 13 reasons why 
+último ep da terceira temporada sem ter tomado nem um spoi… https://t.co/1tfsfzcthz</t>
+  </si>
+  <si>
+    <t>rt @exposingselenaa: série suicida: “13 reasons why” série na qual selena gomez é produtora executiva e comprou os direitos autorais, ñ acr…</t>
+  </si>
+  <si>
+    <t>sobre a nova temporada de 13° reasons why , spoiler ! as pessoas mais idiotas da série são culpadas , final horrível e eu odeio o clay .</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. the vampire diaries 
+2. got
+3. nenhuma
+4. 13 reasons why 
+5. a mesma de antes 
+6. friends 
+7.… https://t.co/9durkui9pr</t>
+  </si>
+  <si>
+    <t>atribuí nota 8 ao episódio 3x6 - you can tell the heart of a man by how he grieves de 13 reasons why https://t.co/kyebwp49r1 #bancodeseries</t>
+  </si>
+  <si>
+    <t>passando aq p dizer que odiei o final de  13 reasons why</t>
   </si>
   <si>
     <t>terminei 13 reasons why, e mais tarde vou terminar elite</t>
   </si>
   <si>
-    <t>quadro exclusivo inspirado na série 13 reasons why 😎 #13rw #13reasonswhy #quadro #quadros #quadrosdecorativos… https://t.co/xh51nbkffb</t>
-  </si>
-  <si>
-    <t>acho que eu prefiro esquecer essa temporada de 13 reasons why
-famoso desperdício e um final que sinceramente, ah que preguiça</t>
-  </si>
-  <si>
-    <t>terminei a 3 temp de 13 reasons why e to até agora tentando entender que mensagem que eles tentam passar pq tirando… https://t.co/koxkkhaiqk</t>
-  </si>
-  <si>
-    <t>nem vi q tinha lançado a 3 temp de 13 reasons why na netflix</t>
-  </si>
-  <si>
-    <t>ela parece a jessica de 13 reasons why, e é fofa https://t.co/ehqq2yebiq</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e09 de 13 reasons why! #tvtime https://t.co/mg54je4cwr https://t.co/lptwzscerv</t>
-  </si>
-  <si>
-    <t>*aula de tcc
-professora: vc vai falar sobre uma série né?
-aluna: sim, sobre 13 reasons why
-eu: https://t.co/pmeseymusb</t>
-  </si>
-  <si>
-    <t>desde q terminei 13 reasons why eu estou com um flash de algo q aconteceu q eu não tenho certeza se é uma lembrança… https://t.co/rntoq0h4c1</t>
-  </si>
-  <si>
-    <t>assisti alguns episódios da primeira temporada de 13 reasons why. alguém aqui conhece a série?</t>
-  </si>
-  <si>
-    <t>uma dica pra saúde mental de vocês: não assistam em hipótese alguma 13 reasons why, é muito tóxico</t>
+    <t>13, reasons e why sabendo q não devia ter passado da primeira temporada e msm assim fizeram mais duas
+ https://t.co/rkd21eh9w4</t>
+  </si>
+  <si>
+    <t>netflix pra renovar 13 reasons why é rapidinho ne agora pra colocar a segunda temporada de titans demora 200 anos</t>
+  </si>
+  <si>
+    <t>13 reasons why tinha que ter acabado na primeira temporada já</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao s03e10 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/a1obrknnko https://t.co/sgze2x6ji0</t>
+  </si>
+  <si>
+    <t>terceira temporada de 13 reasons why tá ótima
+foda-se os outros eu que entendo
+muito melhor que a segunda, pelo menos</t>
+  </si>
+  <si>
+    <t>pedi tanto a 3 temp de 13 reasons why, e agora eu não gostando do rumo q tomou e to até enrolando p terminar, pois tá chata!</t>
+  </si>
+  <si>
+    <t>acabei de ver uma cena em 13 reasons why e fiquei totalmente certo de uma coisa: as pessoas realmente não conseguem… https://t.co/x5p4ywkkm5</t>
+  </si>
+  <si>
+    <t>eu odeio profundamente como 13 reasons why me fez ter pena do bryce walker</t>
+  </si>
+  <si>
+    <t>terminei de maratonar 13 reasons why e comecei elite mesmo sabendo que deveria estar trabalhando no meu tcc mas est… https://t.co/q0x4qcgcho</t>
+  </si>
+  <si>
+    <t>nao tem como ter vontade de ver essa temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>[tw / gatilho]
+eu estava vendo 13 reasons why.
+quando explico pro meu pai o que é, ele diz: "ela é louca! se matar… https://t.co/sdu10okfkz</t>
+  </si>
+  <si>
+    <t>terminei vis a vis, elite, 13 reasons why, good girls... mais da metade das series da netflix ja acabei, agora nao… https://t.co/hxbutkfuva</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma merda desnecessária! bom dia! https://t.co/jvvtkcztby</t>
+  </si>
+  <si>
+    <t>falta 1 ep pra eu terminar 13 reasons why, hj eu termino e ainda vou jogar um ff, e assistir filme e dpsssss vou pe… https://t.co/pwe5emltbi</t>
+  </si>
+  <si>
+    <t>confesso, chorei vendo o brace e a mãe brincando na 3°temporada de 13 reasons why, e olha q a serie perdeh tds as qualidades</t>
+  </si>
+  <si>
+    <t>dylan minnette em 13 reasons why e em goosebumps
+percebam que aproveitaram até o figurino rsrs https://t.co/pyjvzvbshi</t>
+  </si>
+  <si>
+    <t>@seriestwbz 13 reasons why que o diga, essa 3 temporada tá horrível</t>
+  </si>
+  <si>
+    <t>sabadou comendo pizza e assitindo a 3 temporada de 13 reasons why pra saber quem foi o anjo que matou o bryce</t>
+  </si>
+  <si>
+    <t>a cada episodio que eu assisto de 13 reasons why,pego mais ódio da humanidade</t>
+  </si>
+  <si>
+    <t>passar a feira inteiro em um canto ouvindo música e assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @mi__nina: só que me faltava eu ver 13 ep de 13 reasons why e não saber quem matou o bryce</t>
+  </si>
+  <si>
+    <t>agora que terminei de assistir 13 reasons why, agora posso dormir sossegada sobre o desfecho da história que foi digno</t>
+  </si>
+  <si>
+    <t>3 temporada de 13 reasons why tá muito conturbada pra falar o mínimo</t>
+  </si>
+  <si>
+    <t>terminei também a 3ª temporada de 13 reasons why</t>
   </si>
   <si>
     <t>gostei e não gostei do final de 13 reasons why</t>
   </si>
   <si>
-    <t>terminei finalmente elite, greys e 13 reasons why. agora vou pra última temporada de vis a vis 🥰</t>
-  </si>
-  <si>
-    <t>terminei a 3 temp de 13 reasons why 
-gostei do final e por mim a série acabaria ali ñ tem mais necessidade de outra temporada</t>
-  </si>
-  <si>
-    <t>eu pulei mt ep de 13 reasons why pq a segunda temporada ta chata só o final ta "top", eu chorei vendo o último ep 🤧… https://t.co/emar867ttq</t>
-  </si>
-  <si>
-    <t>baaa tá tão boa a terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>quero fazer maratona de 13 reasons why</t>
-  </si>
-  <si>
-    <t>atribuí nota 9 ao episódio 3x5 - nobody's clean de 13 reasons why https://t.co/sxyoqgq76m #bancodeseries</t>
-  </si>
-  <si>
-    <t>13 reasons why ta me fazendo ter ódio e dó do montgomery</t>
-  </si>
-  <si>
-    <t>13 reasons why, ao mesmo tempo que pode ser besteira para os outros, tbm podem ajudar muita gente. e então, se tu n… https://t.co/1jushklmpw</t>
-  </si>
-  <si>
-    <t>esse final de 13 reasons why eu não gostei, o alex não merecia ter ficado save, eu nunca gostei dele. e o bryce não… https://t.co/utdyuh59bs</t>
-  </si>
-  <si>
-    <t>hmmm terminei 13 reasons why, até q gostei</t>
-  </si>
-  <si>
-    <t>meu deus a 3 temporada de 13 reasons why,tá surpreendendo a cada episódio,caralho a ani e o bryce tinham um caso um caso</t>
-  </si>
-  <si>
-    <t>senhor quem é esse figurante no 5º episódio da 3ª temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>1) track 10 é simplesmente perfeita, não precisava de um remix transformando ela numa faixa de trilha sonora de 13… https://t.co/gxuvaty6oq</t>
-  </si>
-  <si>
-    <t>aff nunca vou achar uma série tão boa igual 13 reasons why 😥</t>
-  </si>
-  <si>
-    <t>finalmente terminei a terceira temporada de 13 reasons why...foi ok, espero q tenha sido a última</t>
-  </si>
-  <si>
-    <t>tô vendo a terceira temporada de 13 reasons why e ainda acho que poderia ter parada na primeira, não está ruim mas não é necessária</t>
-  </si>
-  <si>
-    <t>acabei de terminar a ultima temporada de 13 reasons why e pra mim foi um pouco impactante ver a família walker na s… https://t.co/f8uqomjc1b</t>
+    <t>ganda shit 13 reasons why season 3  nem tem nada sobra a hannah baker tipo e como se ela nunca tivesse existido ganda shit</t>
+  </si>
+  <si>
+    <t>será que só  eu achei a 3° temporada de 13 reasons  why chata? a primeira temporada foi a única que realmente foi boa.</t>
+  </si>
+  <si>
+    <t>@_jjmg_ 13 reasons why ahahah não conheces?</t>
+  </si>
+  <si>
+    <t>rt @iaggomeira: o clay e o justin como irmãos foi a melhor coisa que aconteceu na season 3 de 13 reasons why. #13reasonswhy #13resonswhy3</t>
+  </si>
+  <si>
+    <t>o tanto que eu to chorando com o final de 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why mexe muito com o psicológico</t>
+  </si>
+  <si>
+    <t>meu aluno de 50 anos disse que adora 13 reasons why eu disse beloved?</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e tô triste, boa</t>
+  </si>
+  <si>
+    <t>spoiler sobre final da 3 temp de 13 reasons why: tá muito how to get away with murder</t>
+  </si>
+  <si>
+    <t>tô me arrastando pra terminar 13 reasons why que saco carai</t>
+  </si>
+  <si>
+    <t>to me segurando pra nao pular logo pro ultimo episódio de 13 reasons why, quero saber logo o final</t>
+  </si>
+  <si>
+    <t>acabei de ver 13 reasons why, estou surpresa com esse final</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s03e01 of 13 reasons why! #13reasonswhy  #tvtime https://t.co/watyei3fjx https://t.co/zzonyzfdpn</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e10 de 13 reasons why! #tvtime https://t.co/o0ykdiguud https://t.co/mv1rglqwlj</t>
+  </si>
+  <si>
+    <t>começar a 3 temporada de 13 reasons why agr</t>
+  </si>
+  <si>
+    <t>e pra finalizar: “13 reasons why (netflix) também  disponibilizou um site com informações para quem precisa de ajud… https://t.co/4y3cfuol2n</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. tvd
+2. sense8
+3. la casa de papel
+4. 13 reasons why
+5. todas da marvel
+6. friends
+7. sense8
+8.… https://t.co/xnxt9h19vu</t>
+  </si>
+  <si>
+    <t>aí eu amo tanto o livro de 13 reasons why... pena que banalizaram com essa segunda e terceira temporadas na série o conceito</t>
+  </si>
+  <si>
+    <t>13 reasons why 
+você me detonastes</t>
+  </si>
+  <si>
+    <t>elite é muito melhor que 13 reasons why aceitem!</t>
+  </si>
+  <si>
+    <t>a história mais triste de 13 reasons why, pra mim, é a do taylor...
+o que aconteceu com ele, foi um episódio que v… https://t.co/5dy9nzcrmu</t>
+  </si>
+  <si>
+    <t>gente alguém me fiz que q tá acontecendo com "13 reasons why"?
+colocaram o mont como hetero curioso kkk apesar de e… https://t.co/omi7afxpeq</t>
+  </si>
+  <si>
+    <t>deixei minha prima assistir comigo 13 reasons why e ela amou man</t>
+  </si>
+  <si>
+    <t>''por trás daquela cara de bonzinho tem uma confusão enorme.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @filipagranja: porque é que eu estou com pena do bryce na nova temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>está fome 13 reasons why segunda temporada, como que me aburrió 🙄</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e12 de 13 reasons why! #tvtime https://t.co/knz82up1yg https://t.co/pkcm3ordyn</t>
+  </si>
+  <si>
+    <t>acabei a temporada 3 de 13 reasons why, obrigada senhor pela folguinha nessa segunda-feira</t>
+  </si>
+  <si>
+    <t>é muito errado gostar do bryce de 13 reasons why?</t>
+  </si>
+  <si>
+    <t>que saco netflix que não deixa tirar print, mas pensa no casal lindo que me faz de trouxa em 13 reasons why https://t.co/eq3lfmufwh</t>
+  </si>
+  <si>
+    <t>e eu que não terminei 13 reasons why ainda</t>
+  </si>
+  <si>
+    <t>13 reasons why bother.
+uma série que eu veria.</t>
+  </si>
+  <si>
+    <t>rt @saalisboa: e eu que não terminei 13 reasons why ainda</t>
+  </si>
+  <si>
+    <t>uma loucura como essa terceira temporada de "13 reasons why" tenta fazer você sentir pena do bryce walker... pena q… https://t.co/dt5qdvhmb2</t>
   </si>
   <si>
     <t>melhor abordagem do tema suicídio e saúde mental:
@@ -1363,117 +2021,834 @@
          █… https://t.co/om1p5juxys</t>
   </si>
   <si>
-    <t>acabei a segunda temporada da série 13 reasons why.. mds, forte!!!</t>
-  </si>
-  <si>
-    <t>acabaram de perguntar se a minha tatuagem de fita cassete é por conta de 13 reasons why
-eu nao mereço isso
-nao mereço</t>
-  </si>
-  <si>
-    <t>@seriestwbz 13 reasons why que o diga, essa 3 temporada tá horrível</t>
-  </si>
-  <si>
-    <t>na minha opinião se 13 reasons why fosse algo sem forçar o tema "suicídio" e tivesse sido uma série meio "romântica… https://t.co/rhvd5vxi5k</t>
+    <t>atribuí nota 8 ao episódio 3x9 - always waiting for the next bad news de 13 reasons why https://t.co/3bm2qc1bd4 #bancodeseries</t>
+  </si>
+  <si>
+    <t>ahhhh fodas me rendi e to vendo a segunda temporada de 13 reasons why
+é isso</t>
+  </si>
+  <si>
+    <t>meus amigos me deram spoiler de 13 reasons why, e eu surteeei</t>
+  </si>
+  <si>
+    <t>rt @sgcharts: “13 reasons why”, série produzida por selena gomez (que também detém os direitos autorais do livro) foi homenageada pelo @tel…</t>
+  </si>
+  <si>
+    <t>carai eu to tentando assistir a terceira temporada de 13 reasons why
+mas vei muito saturadaaaaaa</t>
+  </si>
+  <si>
+    <t>@milenedecasstro comecei a ver 13 reasons why kkkk acho que é assim que se escreve</t>
+  </si>
+  <si>
+    <t>não consigo terminar 13 reasons why, mano tá chato já, puta série que tá demorando mano to sem paciência</t>
+  </si>
+  <si>
+    <t>assistindo 13 reasons why dnv só pra ver a hannah e o justin, se minhas amigas pôdem shippar incesto 
+eu posso shippar relacionamento toxico</t>
+  </si>
+  <si>
+    <t>essa 3 temporada de 13 reasons why ta uma merda, pqp</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>agora eu tava olhando o último ep da tmp 2 de 13 reasons why, meu, chorei tanto</t>
+  </si>
+  <si>
+    <t>tô vendo 13 reasons why e só consigo pensar que quem criou,quem foi o autor, graças á deus pensa que esse assunto n… https://t.co/qqgqq3e665</t>
+  </si>
+  <si>
+    <t>— yasmim
+— 14
+— heterossexual 
+— 13 reasons why 
+— aquário 
+— solteira
+— ídolos vale?¿
+— conseguir o meu trabalho d… https://t.co/vob083kvoz</t>
+  </si>
+  <si>
+    <t>18 eps de 13 reasons why e fiquei retardado,acabar essa merda logo</t>
+  </si>
+  <si>
+    <t>jessica de 13 reasons why é um íconeeeeeeee</t>
+  </si>
+  <si>
+    <t>rt @_arthff: vende-se esta casa
+tem aquele ator de 13 reasons why que atua do msm jeito e no final morre afogado na poça pelo assassino que…</t>
+  </si>
+  <si>
+    <t>pqp ep 8 de 13 reasons why chorei tanto senti real 😭😭😭😭😭 fiquei até mal</t>
+  </si>
+  <si>
+    <t>pqp uma das minhas músicas preferidas do csh aparece na ost de 13 reasons why que nojo</t>
+  </si>
+  <si>
+    <t>terminei de olhar 13 reasons why e vai toma no cu mano</t>
+  </si>
+  <si>
+    <t>eu acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/hgrpensrlu https://t.co/nxvn0ohoc4</t>
+  </si>
+  <si>
+    <t>elite é tipo o 13 reasons why da espanha</t>
+  </si>
+  <si>
+    <t>acabei de assistir a season 3 de "13 reasons why" e eu digo com tranquilidade que essa série, é, com certeza, extre… https://t.co/cuinaizafc</t>
+  </si>
+  <si>
+    <t>eu queria saber pq todos os três últimos episódios das temporadas de 13 reasons why são tão pesadossssss</t>
+  </si>
+  <si>
+    <t>vendo 13 reasons why sim pq eu nao tenho um pingo de amor proprio e a alisha eh tudo</t>
+  </si>
+  <si>
+    <t>rt @dannvieiira: o desenvolvimento do tyler em 13 reasons why: de um porquê na primeira temporada pra um sobrevivente na terceira é a melho…</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma série muito boa, amo demais desde 2017</t>
+  </si>
+  <si>
+    <t>atribuí nota 7.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/9kawprpmlj #bancodeseries</t>
+  </si>
+  <si>
+    <t>eu tô assistindo 13 reasons why toda me tremendo. pela coragem dos personagens, pelas lembranças afetivas, as vezes… https://t.co/dhsu2kiqlo</t>
+  </si>
+  <si>
+    <t>13 reasons why devia mesmo ter parado na primeira temporada...
+não sei se achei correto essa terceita temporada ten… https://t.co/og2ikhuwga</t>
+  </si>
+  <si>
+    <t>caramba fiquei tanto em the originals que esqueci de 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why é ridículo, essa personagem nova é ridícula, o clay é frouxo e jessica maluca de voltar pra aquele l… https://t.co/m34bkelanq</t>
+  </si>
+  <si>
+    <t>terceira seasons de 13 reasons why está fraquíssima</t>
+  </si>
+  <si>
+    <t>queria ta assistindo 13 reasons why mais meu pai ta aqui no quarto.. e tem algumas cenas da terceira temporada que é pesada demais pqp</t>
+  </si>
+  <si>
+    <t>minha cabeça já tá toda confusa com essa série 13 reasons why 🤦‍♀️🤦‍♀️</t>
+  </si>
+  <si>
+    <t>estou assistindo a terceira temporada de 13 reasons why. vou começar a pôr minhas séries em dia 🤗</t>
+  </si>
+  <si>
+    <t>tenho q assistir a 3 temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>eu to muito puto como essa terceira temporada de 13 reasons why está chata pra caralho, falta dois ep pra terminar… https://t.co/q9ragwzesd</t>
+  </si>
+  <si>
+    <t>não ignorem 😷
+a terceira temporada de 13 reasons why ta...</t>
+  </si>
+  <si>
+    <t>maratonando 13 reasons why  com o menino que eu gosto</t>
+  </si>
+  <si>
+    <t>passada com a série 13 reasons why, amo!!! https://t.co/4pxq5tdwbk</t>
+  </si>
+  <si>
+    <t>@mayconolyver the 100 , 13 reasons why, how to get away with murder , euphoria , legacies , the rain , la casa del… https://t.co/ppvzlqv088</t>
+  </si>
+  <si>
+    <t>13 reasons why esta começando a tomar o 1° lugar de minha série preferida putz</t>
+  </si>
+  <si>
+    <t>13 reasons why terceira temporada lixo onde todos são culpados pela morte e carregam ela nas costas, mas que se ach… https://t.co/abaquxridn</t>
+  </si>
+  <si>
+    <t>tô assistindo a terceira temporada de 13 reasons why e morrendo de medo que o clay tenha passado de mocinho p vilão</t>
+  </si>
+  <si>
+    <t>vcs tão gostando da 3ª temporada de 13 reasons why?</t>
+  </si>
+  <si>
+    <t>eu pulei mt ep de 13 reasons why pq a segunda temporada ta chata só o final ta "top", eu chorei vendo o último ep 🤧… https://t.co/emar867ttq</t>
+  </si>
+  <si>
+    <t>acabei 13 reasons why e elite e achei q n iria ter mais nada p assistir, mas lembrei q já lançou station 19 😁</t>
+  </si>
+  <si>
+    <t>se vc gosta de e/ou respeita o gosto dos outros da fav  e me segue, eu sdv
+elite
+you
+good girls
+jane the virgin
+yo… https://t.co/traqpbg6yu</t>
+  </si>
+  <si>
+    <t>acho muito foda 13 reasons why fornecer um canal de ajuda pra quem sofre com as coisas que acontecem na série</t>
+  </si>
+  <si>
+    <t>depois de terminar a 2 temporada de elite eu percebi que nenhuma série mais me surpreende... tá igual 13 reasons wh… https://t.co/8wuwwilpq9</t>
+  </si>
+  <si>
+    <t>essa terceira temporada de 13 reasons why tá muito toppen, sério!</t>
+  </si>
+  <si>
+    <t>• sobre séries •
+1. tvd
+2. não consigo decidir
+3. gossip girl
+4. la casa de papel
+5. dear white people
+6. uks
+7. 1… https://t.co/0xhumorsjr</t>
+  </si>
+  <si>
+    <t>coloquei 13 reasons why e vou ver se é boa</t>
+  </si>
+  <si>
+    <t>13 reasons why é muito bom pqp</t>
+  </si>
+  <si>
+    <t>rt @laura_canavezi: netflix pra renovar 13 reasons why é rapidinho ne agora pra colocar a segunda temporada de titans demora 200 anos</t>
+  </si>
+  <si>
+    <t>o final de 13 reasons why é lindo mas é tão triste aaaaaaaaa</t>
+  </si>
+  <si>
+    <t>nome: dávilla 
+idade: 16
+orientação sexual: hétero 
+série fav: 13 reasons why
+signo: libra
+estado civil: solteira
+c… https://t.co/ltxg5aak2r</t>
+  </si>
+  <si>
+    <t>a camile tava assistindo 13 reasons why e eu desci na sala bem na hr q o garoto q foi estuprado na temporada passad… https://t.co/y5wxq42cpc</t>
+  </si>
+  <si>
+    <t>gente meu deus? minha vó veio com um cabo de vassoura pra perto de mim e eu assustei achando que ela ia enfiar no m… https://t.co/aspharhkm4</t>
+  </si>
+  <si>
+    <t>juro que não era a intenção perder meu tempo vendo mais uma temporada de 13 reasons why, mas aqui estamos já viciad… https://t.co/oviezry3p2</t>
+  </si>
+  <si>
+    <t>chorando com a série 13 reasons why, batendo muito na tecla da cultura do estupro!!! cena fortíssima pqp</t>
+  </si>
+  <si>
+    <t>rt @mixdeseries: ator de 13 reasons why revela não ter gostado de trama da 3ª temporada.
+https://t.co/d6upge8smd</t>
+  </si>
+  <si>
+    <t>eu demorei pra assistir 13 reasons why, e eu tô chocado com essas coisaskkkkkk queria gritar</t>
+  </si>
+  <si>
+    <t>atribuí nota 8.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/9kawprpmlj #bancodeseries</t>
+  </si>
+  <si>
+    <t>sofrir por 13 reasons why (s03e05)
+episódio: ninguém está limpo 
+nota: 8.34/10
+ #13reasonswhy |  #tvtime… https://t.co/qpjnaasdsq</t>
+  </si>
+  <si>
+    <t>porque é que eu estou com pena do bryce na nova temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @backdantas: uma dica pra saúde mental de vocês: não assistam em hipótese alguma 13 reasons why, é muito tóxico</t>
+  </si>
+  <si>
+    <t>só assistam 13 reasons why perfeita sem defeitos 😭😭😭</t>
+  </si>
+  <si>
+    <t>eu to demorando pra terminar 13 reasons why, justamente por isso.</t>
+  </si>
+  <si>
+    <t>nao consigo gostar de 13 reasons why, não consigo mesmo</t>
+  </si>
+  <si>
+    <t>ta, eu vou terminar 13 reasons why mesmo depois do spoiler gigantesco que eu tomei. bora.</t>
+  </si>
+  <si>
+    <t>e assim acabo a 3° temporada de 13 reasons why, a chorar</t>
+  </si>
+  <si>
+    <t>tô chorando de mais com 13 reasons why</t>
+  </si>
+  <si>
+    <t>acertei quem era o assassino do bryce na 3ª temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>meu sonho é q 13 reasons why tivesse uma linha do tempo q aparecesse embaixo de cada cena pra eu me situar 
+sou mto lerda p essa serie</t>
+  </si>
+  <si>
+    <t>acho que eu prefiro esquecer essa temporada de 13 reasons why
+famoso desperdício e um final que sinceramente, ah que preguiça</t>
+  </si>
+  <si>
+    <t>passei o dia vendo série acabei de ver vis a vis agora tô vendo a 3° temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why mexeu com a minha mente legal bglh pertubou a minha cabeça</t>
+  </si>
+  <si>
+    <t>terminei de arrumar meu quarto agora vamo terminar 13 reasons why</t>
+  </si>
+  <si>
+    <t>estou completamente sem palavras com a temporada 3 de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>não sei se choro ou fico puta com o final de 13 reasons why</t>
+  </si>
+  <si>
+    <t>''quando as pessoas te encaram e falam ou quando não te encaram mas você sabe que elas querem, apenas lembre-se que… https://t.co/hygxtz8mqv</t>
+  </si>
+  <si>
+    <t>depois de ver a 3a temporada de 13 reasons why (fraca e desnecessária), difícil não me reconhecer no clay quase tud… https://t.co/adzjwyxvkm</t>
+  </si>
+  <si>
+    <t>já acabei 13 reasons why, elite e agora vou para “the 100”</t>
+  </si>
+  <si>
+    <t>elite e 13 reasons why na msm semana, dlç</t>
+  </si>
+  <si>
+    <t>bom dia! sonhei com 13 reasons why a noite toda pqp e so cena pesada</t>
+  </si>
+  <si>
+    <t>pelo menos um dos livros que eu vou apresentar é 13 reasons why, eu sei tudo que acontece no livro e na série, é só… https://t.co/koqooidy1a</t>
+  </si>
+  <si>
+    <t>terminei elite
+e porra
+que reviravolta
+ta bem parecida com 13 reasons why</t>
+  </si>
+  <si>
+    <t>essa 3 temporada de 13 reasons why tá meio naahhh</t>
+  </si>
+  <si>
+    <t>eu : já viu 13 reasons why ?
+lunna: só metade
+eu : é dahora
+lunna: hanna volta a vida?
+eu : só se ela for jesus dis… https://t.co/cc2yhppuko</t>
+  </si>
+  <si>
+    <t>eu maratonei toda a 3° temporada de 13 reasons why hoje. depois de resistir muito. não vou negar que foi muito mais… https://t.co/0irtzkfykd</t>
+  </si>
+  <si>
+    <t>a melhor frase de 13 reasons why
+é que eu sinto que eu tô mergulhando num buraco negro e eu não faço ideia de como… https://t.co/do9lad7tor</t>
+  </si>
+  <si>
+    <t>@beaf08 achei 13 reasons why uma bosta, elite muito mais instigante, 13 reasons é como se eles ficassem inventando… https://t.co/pz3yr3lnbw</t>
+  </si>
+  <si>
+    <t>depois do episódio 5 da season 3 de "13 reasons why" já chega de episódio por hj</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e mano... que temporada foda!</t>
+  </si>
+  <si>
+    <t>eu acho que sou a única que gostou da ani de 13 reasons why</t>
+  </si>
+  <si>
+    <t>a série "13 reasons why" é tão pesada que... 
+isso não é uma mentira
+é tão pesada que eu choro a cada episódio qu… https://t.co/gotvtwydul</t>
+  </si>
+  <si>
+    <t>preciso terminar essa 13 reasons why p poder ver sintona e por fim assistir vikings</t>
+  </si>
+  <si>
+    <t>pai eterno que vontade e essa de enaltecer o bryce da 3 temporada de 13 reasons why?</t>
+  </si>
+  <si>
+    <t>sobrevivi a mais um surto de 13 reasons why s03e08 #tvtime https://t.co/k4xwvvwi8x</t>
+  </si>
+  <si>
+    <t>@netflixbrasil minha cunhada vem na minha casa pra falar bem de 13 reasons why kkjkjjkkk https://t.co/ctk3eqmxxw</t>
+  </si>
+  <si>
+    <t>@aleteiaen por que a série “13 reasons why” ainda merece atenção dos pais https://t.co/hkcorhq1i3 via @aleteiapt</t>
+  </si>
+  <si>
+    <t>não olhem o 8° episódio do 13 reasons why! quase me desidratei de tanto que eu chorei. realmente eu amo e odeio essa série!</t>
+  </si>
+  <si>
+    <t>@highwarlockofbr @swiftitproudly é tipo um 13 reasons why, eu assisto mais pelo casal gay 💙</t>
+  </si>
+  <si>
+    <t>acabei a 3° temporada de 13 reasons why mdsss que série maravilhosa</t>
+  </si>
+  <si>
+    <t>me deu vontade de assistir 13 reasons why pela 3 vez</t>
+  </si>
+  <si>
+    <t>mermao, nunca pensei q eu fosse falar isso mas a terceira temporada de 13 reasons why é incrível, na boa, é genial,… https://t.co/if8s8vimfb</t>
+  </si>
+  <si>
+    <t>essa série é massa "13 reasons why"</t>
+  </si>
+  <si>
+    <t>eu tenho uma semana pra maratonar elite, sintonia, 13 reasons why e irmão do jorel</t>
+  </si>
+  <si>
+    <t>13 reasons why ganhar uma quarta temporada e hannibal não é um crime contra a humanidade.</t>
+  </si>
+  <si>
+    <t>@felipeneto nenhuma série é melhor que 13 reasons why,  nem grey's anatomy</t>
+  </si>
+  <si>
+    <t>quais suas séries favoritas?? — tvd, to, legacies, teen wolf e 13 reasons why. amo demais https://t.co/sidoyoombi</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why tudo de novo, amo</t>
+  </si>
+  <si>
+    <t>mano a série 13 reasons why é uma merda em alguns aspectos, mas me faz questionar muita coisa. slc</t>
+  </si>
+  <si>
+    <t>impacto cultural:
+         █          　　
+         █　        
+         █　        
+         █… https://t.co/brxegvbnk1</t>
+  </si>
+  <si>
+    <t>rt @ocontodaaia: tomei decisões ruins na minha vida.
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why (3 temporada) e pqp tem hr que eu quero defender o bryce e tem hrs que eu acho certíssimo ele ter morrido</t>
+  </si>
+  <si>
+    <t>eu vendo o último episódio de 13 reasons why 😫😫😫😫😔😔😭😭😭😭🤔🤔🤔🤔🤔😱😱😱😱😱😱🥺🥺🥺🥺🥺🥺🧐🧐🧐</t>
+  </si>
+  <si>
+    <t>finalizei a #maratona de "13 reasons why" - 13 episódios vistos e média de 0.82  episódios/dia #bancodeseries https://t.co/vahv1m7sda</t>
+  </si>
+  <si>
+    <t>a serie 13 reasons why cada vez fica mais estranha</t>
+  </si>
+  <si>
+    <t>terminei de assistir 13 reasons why e só tenho a dizer que essa série é foda</t>
+  </si>
+  <si>
+    <t>quero fazer maratona de 13 reasons why</t>
+  </si>
+  <si>
+    <t>eu descutindo com minha nova amiga sobre 13 reasons why esse é o twite</t>
+  </si>
+  <si>
+    <t>13 reasons why podia ter ficado na 1ª temporada, enrolação do caralho pra falar quem matou o bryce</t>
+  </si>
+  <si>
+    <t>terminei a terceira temporada de 13 reasons why e ainda não tenho uma opinião formada sobre a série, não sei se ach… https://t.co/hhc8u93x0x</t>
+  </si>
+  <si>
+    <t>esse ep 8 da 3 temporada do 13 reasons why
+foi o mais fudido pro psicológico slc</t>
+  </si>
+  <si>
+    <t>@elitenetflixbr e não choca ninguém né, protagonista da melhor série da atualidade... pq tá chorando 13 reasons why… https://t.co/g3n91anajm</t>
+  </si>
+  <si>
+    <t>rt @wennux1: impacto cultural:
+         █          　　
+         █　        
+         █　        
+         █　                           ＿…</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e13 de 13 reasons why! #tvtime https://t.co/1jt2bzeie1 https://t.co/w3ojrhj7xj</t>
+  </si>
+  <si>
+    <t>vou começar a ver 13 reasons why dnv</t>
+  </si>
+  <si>
+    <t>parabéns ao envolvidos na terceira temporada de “13 reasons why”. 
+vocês melhorar 1000% a série</t>
+  </si>
+  <si>
+    <t>acabei 13 reasons why, que série pesada</t>
+  </si>
+  <si>
+    <t>-vê homem nas trevas
+-ok
+-viu?
+-vi
+-eae?
+-eu achava que o 13 reasons why ia sobreviver</t>
+  </si>
+  <si>
+    <t>eu não acredito que eu tô assistindo 13 reasons why e tô sentindo dó do bruce...</t>
+  </si>
+  <si>
+    <t>uma hora da manhã e eu olhando 13 reasons why</t>
+  </si>
+  <si>
+    <t>maravilhosa: downton abbey
+mediana: scream
+horrível: 13 reasons why https://t.co/8mckshefdz</t>
+  </si>
+  <si>
+    <t>não creio que já acabei 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why é um dos maiores desserviço que a netflix já fez</t>
+  </si>
+  <si>
+    <t>finalmente assistindo ao último ep de 13 reasons why</t>
+  </si>
+  <si>
+    <t>tá eu me achando onde parei em 13 reasons why e a netflix me lembra q eu tô vendo elite llklllkkkkk to com muita série acumulada socorro</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/9dqkl3ae0m https://t.co/wd39ocvyaa</t>
+  </si>
+  <si>
+    <t>eu li o spoiler de 13 reasons why pq ia parar de assistir, mas aí deu vontade de continuar assistindo pra saber pq a pessoa fez o que fez</t>
+  </si>
+  <si>
+    <t>assistindo 13 reasons why e chorando que nem uma desgraçada</t>
+  </si>
+  <si>
+    <t>@aboborazinha_ e amo tá!? kkkk
+ elite tbm e 13 reasons why principalmente</t>
+  </si>
+  <si>
+    <t>eu não me dou bem com gatilhos mentais, fiquei mal com 13 reasons why kkkkkkkkkkkkk
+imagina cm tht?</t>
+  </si>
+  <si>
+    <t>vendo a terceira temporada de 13 reasons why e ainda sem entender pq eles tão tentando humanizar o estrupador (?????)</t>
+  </si>
+  <si>
+    <t>@shxwoif não tem vergonha de 13 reasons why não tem vergonha de nada né amore</t>
+  </si>
+  <si>
+    <t>aí vou assistir à 3º temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>ok, vou terminar de assistir elite, depois la casa de papel, depois 13 reasons why</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why e to sem chão</t>
+  </si>
+  <si>
+    <t>serio q ainda vai ter quarta temporada de 13 reasons why?? af, netflix se empolgou dms</t>
+  </si>
+  <si>
+    <t>(séries q já vi ou que estou vendo q recomendo com certeza):🤩🎬
+•13 reasons why
+•titãs
+•elite
+•the end of the f***in… https://t.co/ntezdhgr6v</t>
+  </si>
+  <si>
+    <t>a 3ª temporada de 13 reasons why já está disponível na netflix. no total, são 13 episódios com aproximadamente uma… https://t.co/6rmfk03zwi</t>
+  </si>
+  <si>
+    <t>atribuí nota 6.5 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/qnuw3egadm #bancodeseries</t>
+  </si>
+  <si>
+    <t>nunca demorei tanto pra terminar uma serie pequena, como demorei pra terminar 13 reasons why...isso que eu só tinha a nova temporada pra ver</t>
+  </si>
+  <si>
+    <t>só queria companhia pra assistir 13 reasons why, fico meio apavorada assistindo sozinha</t>
+  </si>
+  <si>
+    <t>a pior coisa que eu fiz hj foi terminar a primeira temporada de 13 reasons why. passei tanto tempo querendo ver podia ter ficado sem essa</t>
+  </si>
+  <si>
+    <t>1 temp de elite, o que dizer? 13 reasons why contada de uma forma diferente kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>riverdale, the society e 13 reasons why sabendo que são as três piores séries adolescentes https://t.co/0gdepjcpew</t>
+  </si>
+  <si>
+    <t>@thaayzada vê: 13 reasons why 💗</t>
+  </si>
+  <si>
+    <t>acho que fui um dos últimos a finalizar a 3ª temporada de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e06 de 13 reasons why! #tvtime https://t.co/uqbc2tqjgg https://t.co/9h9cenwazh</t>
+  </si>
+  <si>
+    <t>amiga vc faz psicologia e fica postando foto de 13 reasons why como se fosse superação????
+essa série é a maior des… https://t.co/sip0vtoe3f</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e13 de 13 reasons why! #tvtime https://t.co/refq4ailna https://t.co/nyt3i7msgh</t>
+  </si>
+  <si>
+    <t>terminei elite e puta que pariu chupa 13 reasons why, n consegui nem ver 4 eps da 3 temp, elite sim ta de parabéns… https://t.co/tq2vozucd4</t>
+  </si>
+  <si>
+    <t>terminei de assistir 13 reasons why ontem e acho que a 3ª temporada é melhor de todas.</t>
   </si>
   <si>
     <t>n to entendendo nada da 3 temporada de 13 reasons why</t>
   </si>
   <si>
+    <t>estou farto de chorar por causa de 13 reasons why...</t>
+  </si>
+  <si>
+    <t>por falar em aceitação mais alguém tá vendo elite? aquela cruza de gossip girl, skins e 13 reasons why espanhola?</t>
+  </si>
+  <si>
+    <t>rt @minhaserie: christian navarro, de 13 reasons why, quer ser príncipe em a pequena sereia https://t.co/2bow8zbbkf https://t.co/aro4od7bkb</t>
+  </si>
+  <si>
+    <t>mais de 1 hora da manhã e eu to tomando café e olhando 13 reasons why, minha vida já perdeu o sentido</t>
+  </si>
+  <si>
+    <t>to assistindo a força essa temporada de 13 reasons why, chata pra caceta</t>
+  </si>
+  <si>
+    <t>terminei e 13 reasons why e não aceitei o final que teve, to puta</t>
+  </si>
+  <si>
+    <t>- você é fã de 13 reasons why?
+- sim.
+- e você chorou na cena que o tyler conta para o clay tudo que aconteceu co… https://t.co/aqekv50ubm</t>
+  </si>
+  <si>
+    <t>apetece-me abraçar o tyler de 13 reasons why depois de tudo que ele passou</t>
+  </si>
+  <si>
+    <t>eu parei de ver 13 reasons why e me perdi, agr eu vou ver tudo de novo</t>
+  </si>
+  <si>
+    <t>13 reasons why eh a maior aberracao da internet e eu tenho como prova</t>
+  </si>
+  <si>
+    <t>assistindo a terceira temporada de 13 reasons why na força do ódio</t>
+  </si>
+  <si>
+    <t>13 reasons why: vamos falar sobre bullying.
+tbm 13 reasons why: vamos fazer adolescentes culpar outro adolescente p… https://t.co/orr15ls5g6</t>
+  </si>
+  <si>
+    <t>terminei todas as séries que eu gosto 
+elite 
+euphoria 
+15º temporada de greys 
+13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @ravena_ironica: sexta feira '13";
+vamo se beijar = "13" letras
+assistir "13" reasons why na netflix comendo mc
+vocês podem chamar de c…</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why, e acho que não sou uma pessoa muito triste, vi várias pessoas falando mal... eu gostei bicho</t>
+  </si>
+  <si>
+    <t>o que mais me impressiona em “13 reasons why” é que os meninos usam anabolizantes e continuam frangos kkkkk só tem colateral</t>
+  </si>
+  <si>
+    <t>rt @crf__leeh: nn sei oq pensar sobre essa 3 temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @guinhomeira: tava assistindo 13 reasons why e encontrei um ator (deaken bluman) para interpretar o príncipe eric no live da pequena ser…</t>
+  </si>
+  <si>
+    <t>rt @mayara_100popo: e eu que tô sem psicológico pra começar a terceira temporada de 
+13 reasons why 
+(duas semanas que eu tento)</t>
+  </si>
+  <si>
+    <t>a música tema do clay e hanna de 13 reasons why é demais pra mim, eu não consigo ouvir essa porra dessa música sem… https://t.co/knz9y4toce</t>
+  </si>
+  <si>
+    <t>@anapaulalopesp vc assistiu a terceira temporada de 13 reasons why?</t>
+  </si>
+  <si>
+    <t>tava vendo uns vídeos sobre a terceira temporada de 13 reasons why e da vontade de continuar pq eu parei no terceir… https://t.co/bwuqujx7qg</t>
+  </si>
+  <si>
+    <t>trilha sonora: 4 faixas presentes na nova temporada de “13 reasons why” https://t.co/d1iticdxsk</t>
+  </si>
+  <si>
+    <t>@seungseokies ahhhh vdd vc leu ne amiga essa parte nao aaprece detalhada viu!! so aparece ele na banheira so mas nada tipo 13 reasons why</t>
+  </si>
+  <si>
+    <t>alguém que me diga se vale a pena ver a 3a temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>eu achei super pesado a parte de 13 reasons why q o bryce aparece pro clay e fala " vc nunca vai se livrar de mim,… https://t.co/m0iywzgurz</t>
+  </si>
+  <si>
+    <t>ja assisti: greys, station 19, elite, casa de papel, breaking bad, blacklist, suits, diários de um vampiro, 13 reas… https://t.co/qyng0i7hsj</t>
+  </si>
+  <si>
+    <t>não entendi o final do 13 reasons why</t>
+  </si>
+  <si>
+    <t>assistindo a terceira temporada de 13 reasons why, chorando</t>
+  </si>
+  <si>
+    <t>eu e mais duas pessoas que nunca assistiram 13 reasons why e não tem um pingo de vontade de assistir 
+https://t.co/kbgao4te4h</t>
+  </si>
+  <si>
+    <t>a terceira temporada de 13 reasons why é só porradão</t>
+  </si>
+  <si>
+    <t>‘elite’ desbanca ’13 reasons why’ e se torna a série mais maratonada da semana – confira o top 10 https://t.co/snrkgoklmv</t>
+  </si>
+  <si>
+    <t>13 reasons why, mó treta seloko, essa série devia acabar logo, creduuuuuuuuuuuuuuuuu</t>
+  </si>
+  <si>
+    <t>rt @rossonicosta: mano, 13 reasons why é a maior ofensa que eu já vi nesse universo de netflix e tal</t>
+  </si>
+  <si>
+    <t>13 reasons why nao deveria nem ter tido o primeiro capitulo https://t.co/yiybtiivng</t>
+  </si>
+  <si>
+    <t>samuel de elite is the new clay jensen de 13 reasons why 
+os dois são passivao e ficam perseguindo todo mundo o tempo inteiro quem aguenta</t>
+  </si>
+  <si>
     <t>e eu que julgava a serie '13 reasons why’ e resolvi assistir por pura curiosidade, fiquei empolgadíssima com a 1 e… https://t.co/qgpfpn4tym</t>
   </si>
   <si>
-    <t>tá eu me achando onde parei em 13 reasons why e a netflix me lembra q eu tô vendo elite llklllkkkkk to com muita série acumulada socorro</t>
-  </si>
-  <si>
-    <t>meu, sério, eu não consigo acreditar que vivo num mundo em que 13 reasons why é renovada enquanto scorpion foi canc… https://t.co/pmgelixf6w</t>
-  </si>
-  <si>
-    <t>rt @rayllins_: sobre 13 reasons why:
-odiei essa personagem desde o 1 momento, ate da voz cínica e chata de quem dublou https://t.co/cbtr17z…</t>
-  </si>
-  <si>
-    <t>tô chocada q já acordei...ontem fui dormir tardão assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>poxa, por que ninguém enaltece o charlie vulgo melhor e maior personagem de 13 reasons why https://t.co/y98fig8squ</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why
-minha série preferida
-única série que eu não recebi spoiler algum
-olhei com a maior calma… https://t.co/yssg6dnyn7</t>
-  </si>
-  <si>
-    <t>o elenco de 13 reasons why que eu esqueci o nome 😂😂
-mas eles são bem simpáticos, muito mesmo https://t.co/ux5mp7wziq</t>
-  </si>
-  <si>
-    <t>deixei minha prima assistir comigo 13 reasons why e ela amou man</t>
-  </si>
-  <si>
-    <t>eu tenho bipolaridade, passo por varias crises de depressão e tal e eu real acho que 13 reasons why aborda uns assu… https://t.co/1ifcda0aoh</t>
-  </si>
-  <si>
-    <t>terminei narcos, sintonia, 13 reasons why e acabei de terminar elite, não sei se começo vis a vis primeiro ou la casa de papel</t>
-  </si>
-  <si>
-    <t>começei  a assistir 13 reasons why e tô gostando​.</t>
-  </si>
-  <si>
-    <t>rt @camargomarcel: "às vezes, parece que a vida é só isto: todos os erros que você comete e todas as merdas que você tem que arrumar." (13…</t>
-  </si>
-  <si>
-    <t>rt @luh_kern: 13 reasons why é uma série muito perturbadora</t>
-  </si>
-  <si>
-    <t>comecei a ver a 3° temp de 13 reasons why (me julguem, eu quero saber como termina) né e mano: a jéssica dominando… https://t.co/gkmzassin5</t>
-  </si>
-  <si>
-    <t>rt @cesar_calves: saudade de quando 13 reasons why era narrado pela hannah ou pelo clay</t>
-  </si>
-  <si>
-    <t>chocada c esse episódio de 13 reasons why puta que pariuuuuuuuuuu</t>
-  </si>
-  <si>
-    <t>sofrir por 13 reasons why (s03e06)
-episódio: você conhece um homem pelo seu jeito de sofrer
-nota: 9.26/10… https://t.co/ec9vinvdfp</t>
-  </si>
-  <si>
-    <t>rt @baliborio: alguém me explica porque “13 reasons why” usou 13 capítulos pra humanizar um estuprador?</t>
-  </si>
-  <si>
-    <t>eu tô assistindo 13 reasons why toda me tremendo. pela coragem dos personagens, pelas lembranças afetivas, as vezes… https://t.co/dhsu2kiqlo</t>
-  </si>
-  <si>
-    <t>13 reasons why mexeu com a minha mente legal bglh pertubou a minha cabeça</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. eu a patroa e as crianças kkk
-2. chuck
-3. chuck, himym, friends
-4. narcos
-5. 13 reasons why
-6.… https://t.co/bqut5upso7</t>
-  </si>
-  <si>
-    <t>o que mais me impressiona em “13 reasons why” é que os meninos usam anabolizantes e continuam frangos kkkkk só tem colateral</t>
-  </si>
-  <si>
-    <t>terceira temporada de 13 reasons why tá ótima
-foda-se os outros eu que entendo
-muito melhor que a segunda, pelo menos</t>
-  </si>
-  <si>
-    <t>13 reasons why não deveria existir mano, tipo uma guria se mata, depois um cara estupra um monte de gente, e agora… https://t.co/d6k29rmtrz</t>
-  </si>
-  <si>
-    <t>rt @iaggomeira: o clay e o justin como irmãos foi a melhor coisa que aconteceu na season 3 de 13 reasons why. #13reasonswhy #13resonswhy3</t>
-  </si>
-  <si>
-    <t>agora eu tava olhando o último ep da tmp 2 de 13 reasons why, meu, chorei tanto</t>
+    <t>esse mês não sai de casa pra nada.. já maratonei:
+-orange is the new black
+-13 reasons why 
+-elite
+-greys anatomy
+-la casa de papel</t>
+  </si>
+  <si>
+    <t>caralho essa ani parece aquelas zé povinho — assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>uma vez perguntaram se essa camisa era de 13 reasons why kkk eu falei “me respeita” https://t.co/40qazee0ck</t>
+  </si>
+  <si>
+    <t>@carolj_ eu vi de 13 reasons why e agora de elite. eu sinceramente quero falecer amiga, não dá mais pra mim</t>
+  </si>
+  <si>
+    <t>eu devia ta dormindo por que né, acordo 7 hrs pra ir pro curso, mas to aqui vendo 13 reasons why por que quero saber como o bryce morreu</t>
+  </si>
+  <si>
+    <t>derramei várias lágrimas com esse final da 2° temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>13 reasons why é mesmo tão ruim e irresponsável que fazer outra temporada disso é cínico</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/ytf0qlf8ub https://t.co/teukptnodk</t>
+  </si>
+  <si>
+    <t>termino hj 13 reasons why
+que aflição meu deus</t>
+  </si>
+  <si>
+    <t>13 reasons why é muito pesada mano, tem que ter um psicológico muito bom pra ver essa série</t>
+  </si>
+  <si>
+    <t>eu depois da seaso 3 de ouat
+eu depois da season 3 de pretty little liars
+eu ao ouvir falar de 13 reasons why
+eu de… https://t.co/0kvs589dkr</t>
+  </si>
+  <si>
+    <t>na minha opinião é uma mistura de gossip girl com 13 reasons why https://t.co/dv1keofy8t</t>
+  </si>
+  <si>
+    <t>ok 13 reasons why, fizeram bem a parte de mostrar a parte humana de um estuprador, mas sempre mostrando que mesmo t… https://t.co/wezkonhak3</t>
+  </si>
+  <si>
+    <t>to atualizando minhas series, mas sinceramente... 13 reasons why tá um sacoooooo</t>
+  </si>
+  <si>
+    <t>essa 13 reasons why não termina nunca</t>
+  </si>
+  <si>
+    <t>rt @anna_patricia21: a série “13 reasons why” é só a série mais fudida que existe, acreditem... é uma série muito marada. e se tiverem uma…</t>
+  </si>
+  <si>
+    <t>rt @viniciusbrien: foi isso que eu achei da 3 temporada de 13 reasons why, se quiserem me julgar pelo que eu acho, me julguem. mais tal ati…</t>
+  </si>
+  <si>
+    <t>13 reasons why é tão tóxico, cheguei ao segundo capítulo e deus,como foi difícil.</t>
+  </si>
+  <si>
+    <t>não sei como as pessoas ainda dão bola pra 13 reasons why depois de todo falatório negativo que teve em torno da sé… https://t.co/hqyg7vhjzd</t>
+  </si>
+  <si>
+    <t>@kdiannes 13 reasons why também me passa essa impressão. a primeira temporada é totalmente perfeita. não há erros a… https://t.co/qyl6kmkl3m</t>
+  </si>
+  <si>
+    <t>rt @renatomoa: enfim, terminei de assistir as novas temporadas de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>atribuí nota 9 ao episódio 3x5 - nobody's clean de 13 reasons why https://t.co/sxyoqgq76m #bancodeseries</t>
+  </si>
+  <si>
+    <t>acho que é a primeira vez que eu assisto 13 reasons why como se fosse um gatilho..</t>
+  </si>
+  <si>
+    <t>rt @swiftcersei: essa 13 reasons why não termina nunca</t>
+  </si>
+  <si>
+    <t>rt @clarissammt3: a terceira temporada de 13 reasons why ensinou a não procurar a ajuda necessária pra pessoas como o que quase assassinou…</t>
+  </si>
+  <si>
+    <t>assistindo a terceira temporada de 13 reasons why mas não to lembrado de nada que aconteceu na segunda temporada https://t.co/jcj5uueudo</t>
+  </si>
+  <si>
+    <t>até 13 reasons why mostrou que mães africanas dão medo 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>voltei a assistir 13 reasons why e comecei a 3a temporada hj e n to é entendendo nada</t>
+  </si>
+  <si>
+    <t>hoje eu tô só a hanna de 13 reasons why</t>
+  </si>
+  <si>
+    <t>e na verdade,13 reasons why é simplesmente a série da minha vida,me vejo em quase todos os episódios...e isso não é bom, não é boa coisa</t>
+  </si>
+  <si>
+    <t>mano acabei 13 reasons why e pqp q drama foi esse nessa 3° temporada pra descobrir quem matou o mano</t>
+  </si>
+  <si>
+    <t>terminei de assistir 13 reasons why e sei lá por favor ninguém fala cmg estou triste e de luto....</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s01e10 de 13 reasons why  #13reasonswhy   #tvtime https://t.co/urihwi09tp https://t.co/hsgsotglkf</t>
+  </si>
+  <si>
+    <t>e eu nem terminei de assistir 13 reasons why... achei meio blé essa temporada nova</t>
+  </si>
+  <si>
+    <t>terminei finalmente elite, greys e 13 reasons why. agora vou pra última temporada de vis a vis 🥰</t>
+  </si>
+  <si>
+    <t>começando 13 reasons why season 3 ! 🍿</t>
+  </si>
+  <si>
+    <t>assistir 13 reasons why e chorar até a cara ficar dormente...</t>
+  </si>
+  <si>
+    <t>@cajuinaz mulher, só o que tô fazendo kkk. já terminei de assistir friends, good girls, 13 reasons why, the walking… https://t.co/wzyfu1pi98</t>
+  </si>
+  <si>
+    <t>😭😭😭😭😭 minha reação pro penúltimo ep de 13 reasons why</t>
+  </si>
+  <si>
+    <t>to entre assistir a nova temporada de 13 reasons why de chernobyl e começar outra série vulgo vis a vis</t>
+  </si>
+  <si>
+    <t>rt @lafliess: depois de terminar a 2 temporada de elite eu percebi que nenhuma série mais me surpreende... tá igual 13 reasons why, cansada…</t>
   </si>
   <si>
     <t>— ana
@@ -1488,187 +2863,167 @@
 — iu/bts/balckbear/bill… https://t.co/jqg3ispsok</t>
   </si>
   <si>
-    <t>a terceira temporada de 13 reasons why tá maravilhosaaaa foda-se sua opinião</t>
-  </si>
-  <si>
-    <t>quero terminar a 3t de 13 reasons why e depois a 2t se elite pra depois começar a assistir the i land 🙆🏽‍♀️</t>
-  </si>
-  <si>
-    <t>elite é tipo o 13 reasons why da espanha</t>
-  </si>
-  <si>
-    <t>13 reasons why é o exemplo de como uma série muito boa pode se tornar um amontoado de temporadas ruins atrás de temporada ruim.</t>
-  </si>
-  <si>
-    <t>terminei agora de assistir o episódio s03e05 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/zaj8zpl0kb https://t.co/bu5duhq0je</t>
-  </si>
-  <si>
-    <t>vocês gostaram da terceira temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>gente eu sei que estou atrasada, mas essa terceira temporada de 13 reasons why é muito ruim!</t>
-  </si>
-  <si>
-    <t>@tattyhp ia rolar um com gente de 13 reasons why, 7/09 acho não rolou né?</t>
-  </si>
-  <si>
-    <t>ah nao............. já começa com o garoto de 13 reasons why correndo e atuando mal.....................</t>
-  </si>
-  <si>
-    <t>terminei a 3ª temp de 13 reasons why foi pura encheção de linguiça e muito ódio pela ani. não sei pq perco meu tempo assistindo essa série</t>
-  </si>
-  <si>
-    <t>esse ep 8 da 3 temporada do 13 reasons why
-foi o mais fudido pro psicológico slc</t>
-  </si>
-  <si>
-    <t>eu pelada na cama
-e minha namorada assistindo 13 reasons why 
-mai né foda</t>
-  </si>
-  <si>
-    <t>eu não evitei assistir 13 reasons why mesmo com o povo dizendo pra eu assistir, pra poupar minha saúde mental, por… https://t.co/ialnmslmu0</t>
-  </si>
-  <si>
-    <t>mano e que tô assistindo 13 reasons why com meu pai na sala ai do nada começa cena de sexo
-a vergonha meu paiiii</t>
-  </si>
-  <si>
-    <t>agr vou baixar os episódios de 13 reasons why e vou dormir real kkk</t>
+    <t>@ricardogranja5 kkkkkk tava perdendo meu tmp assistindo 13 reasons why</t>
+  </si>
+  <si>
+    <t>tô escutando a playlist que eu montei e tem música de 13 reasons why. me trás uma calmaria que se fosse ano passado eu só ia saber chorar</t>
+  </si>
+  <si>
+    <t>não importa o que os outros digam, eu amo 13 reasons why</t>
+  </si>
+  <si>
+    <t>tanta série de merda sem conteúdo relevante ou impactante por aí mas o povo insistiu em reclamar de 13 reasons why… https://t.co/8reix9pzl3</t>
+  </si>
+  <si>
+    <t>rt @burn1ngmandala: 13 reasons why está realmente tratando um estuprador filha da puta como coitado nessa 3 temporada ou eu tô loca da cabe…</t>
+  </si>
+  <si>
+    <t>me fizeram ver 13 reasons why, resultado...no final fui dar um abraço no meu pai e ligação de video pra minha mãe</t>
+  </si>
+  <si>
+    <t>rt @manudss17: eu ontem assistindo o último episódio de 13 reasons why e descobrindo quem matou o bryce walker https://t.co/kdzjr6yoql</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why n sei como prosseguir c a vida agora</t>
+  </si>
+  <si>
+    <t>a terceira temporada de 13 reasons why,  tá uma enrolação só, mas sei q os dois últimos episódios vão dizer tudo, v… https://t.co/pzuf3ctf63</t>
   </si>
   <si>
     <t>t3e9 de 13 reasons why: chorei o ep inteiro, mds do céu</t>
   </si>
   <si>
-    <t>o ruim de ver series horrorosas como 13 reasons why é que você se identifica com o que passa e simplesmente tem que… https://t.co/mmkeskihub</t>
-  </si>
-  <si>
-    <t>eu estava com tanta sdd do henrique aí ele veio aqui em casa e dormiu, fiquei sozinha vendo séries *tá dormindo até… https://t.co/xiyfv2o4v1</t>
-  </si>
-  <si>
-    <t>essa série 13 reasons why é muito pesada, assisto passando mal, mas sabendo que é importantíssimo abordar esse tema.</t>
-  </si>
-  <si>
-    <t>mano essa última temporada de 13 reasons why acabou cmg</t>
-  </si>
-  <si>
-    <t>@seriestwbz 13 reasons why. n é nem hate, só achei desnecessário mais temporadas</t>
-  </si>
-  <si>
-    <t>sofrir por 13 reasons why (s03e01)
-episódio: sim, eu sou a garota nova
-nota: 5.26/10
- #13reasonswhy |  #tvtime… https://t.co/ikcsr4cr5t</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e estou decepcionada porque não acusaram as pessoas certas pela morte do brayce,b dia ne</t>
-  </si>
-  <si>
-    <t>pessoas q eu considero inteligentes mas assistem e enaltecem 13 reasons why 🤢</t>
-  </si>
-  <si>
-    <t>vcs tão gostando da 3ª temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>13 reasons why sempre deixa um gancho pra uma próxima temporada que ódio</t>
-  </si>
-  <si>
-    <t>mt fofo o jeito q a terceira temporada  de 13 reasons why começa</t>
-  </si>
-  <si>
-    <t>fingi que não tenho mil matérias acumuladas e maratonei 13 reasons why até agora 🙃</t>
-  </si>
-  <si>
-    <t>eu preciso assistir a nova temporada de 13 reasons why, mas no momento me encontro muito viciada em vis a vis</t>
-  </si>
-  <si>
-    <t>eu devia ta dormindo por que né, acordo 7 hrs pra ir pro curso, mas to aqui vendo 13 reasons why por que quero saber como o bryce morreu</t>
-  </si>
-  <si>
-    <t>@guymyolo esse eh o ponto bb, não eh mal intencionado, é irresponsável,  tipo 13 reasons why, mas isso não quer dizer que eh ruim</t>
-  </si>
-  <si>
-    <t>mundo series | #13reasonswhy, temporada 2
-https://t.co/g6jihti8uo</t>
-  </si>
-  <si>
-    <t>não sei se eu assista essa terceira temporada de 13 reasons why, o final da segunda foi mt pesado. sla, fiquei meio coisada...</t>
-  </si>
-  <si>
-    <t>rt @paulocruzphi: no dia mundial de prevenção do suicídio, relembro que, há dois anos, dei uma palestra sobre a série “13 reasons why” e o…</t>
-  </si>
-  <si>
-    <t>sofrir por 13 reasons why (s03e05)
-episódio: ninguém está limpo 
-nota: 8.34/10
- #13reasonswhy |  #tvtime… https://t.co/qpjnaasdsq</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why e acabo hoje ou não me chamo marina então</t>
-  </si>
-  <si>
-    <t>13 reasons why com novos eps e zero rebuliços de gente comentando 🤔</t>
-  </si>
-  <si>
-    <t>@netflixbrasil minha cunhada vem na minha casa pra falar bem de 13 reasons why kkjkjjkkk https://t.co/ctk3eqmxxw</t>
-  </si>
-  <si>
-    <t>rt @tribbianzi: elite e 13 reasons why qual das duas séries eu tenho menos vontade de ver</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why, mas to perdidinho, esqueci tudo</t>
-  </si>
-  <si>
-    <t>philipe peter é um gênio meu na boa 
-já viram o vídeo dele sobre 13 reasons why???? muito bom</t>
-  </si>
-  <si>
-    <t>vou termina de assistir os 13 reasons why, já que a ester tá assistindo desenho.</t>
-  </si>
-  <si>
-    <t>depois de terminar a 2 temporada de elite eu percebi que nenhuma série mais me surpreende... tá igual 13 reasons wh… https://t.co/8wuwwilpq9</t>
-  </si>
-  <si>
-    <t>parabéns ao envolvidos na terceira temporada de “13 reasons why”. 
-vocês melhorar 1000% a série</t>
-  </si>
-  <si>
-    <t>acabei de ver 13 reasons why, estou surpresa com esse final</t>
-  </si>
-  <si>
-    <t>hoje eu termino 13 reasons why ou eu n me chamo caroline bertoncello</t>
-  </si>
-  <si>
-    <t>eu entrei na segunda temporada de 13 reasons why agora mas não tenho mais emocional e nem psicológico pra assistir ao resto</t>
-  </si>
-  <si>
-    <t>pqp uma das minhas músicas preferidas do csh aparece na ost de 13 reasons why que nojo</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “as pessoas te julgam pela sua aparência, pelo que ouvem de você. elas te rotulam.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e tô abalada</t>
-  </si>
-  <si>
-    <t>eu maratonei toda a 3° temporada de 13 reasons why hoje. depois de resistir muito. não vou negar que foi muito mais… https://t.co/0irtzkfykd</t>
-  </si>
-  <si>
-    <t>13 reasons why pode até estar podre. voltei a ter um pouquinho de amor pelos personagens que eu tomei nojo</t>
-  </si>
-  <si>
-    <t>eu depois da seaso 3 de ouat
-eu depois da season 3 de pretty little liars
-eu ao ouvir falar de 13 reasons why
-eu de… https://t.co/0kvs589dkr</t>
-  </si>
-  <si>
-    <t>rt @byersperalta: agora vc foi longe demais 13 reasons why fã
-https://t.co/wy33nagpwz https://t.co/jsrinheywz</t>
-  </si>
-  <si>
-    <t>vendo 13 reasons why sim pq eu nao tenho um pingo de amor proprio e a alisha eh tudo</t>
+    <t>rt @angryluana: eu acho que sou a única que gostou da ani de 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @cesar_calves: saudade de quando 13 reasons why era narrado pela hannah ou pelo clay</t>
+  </si>
+  <si>
+    <t>@adrianoo95 e meu mais novo caso de amor e ódio; 
+13 reasons why (esqueça o que disseram veja por si mesmo) https://t.co/zmmcebebw3</t>
+  </si>
+  <si>
+    <t>acabada dps de terminar a última tempo de 13 reasons why, série sem defeitos</t>
+  </si>
+  <si>
+    <t>bryce walker fez isso com o zach em na 3ª temporada de 13 reasons why (sim, as referências se cruzam na minha cabeç… https://t.co/5vcvxeaoek</t>
+  </si>
+  <si>
+    <t>amg não beije este homem ele comemora nova temp de 13 reasons why</t>
+  </si>
+  <si>
+    <t>e eu que não gostei da 2 tmp de elite e nem da 3 de 13 reasons why
+e ambas estão muito parecidas 😴</t>
+  </si>
+  <si>
+    <t>e eu que nunca deixei de assistir uma série venho comunicar que:
+13 reasons why simplesmente não dá mais não consi… https://t.co/1jx4n9ouno</t>
+  </si>
+  <si>
+    <t>em 13 reasons why o monty estupro o tyler e quando o pai dele descobre ele se importa se o filho dele é viado e não… https://t.co/ikybrohtip</t>
+  </si>
+  <si>
+    <t>surpreso c/ o final de 13 reasons why. achei forçado só pra ficar bem fora da imaginação de quem assiste. série mt… https://t.co/kvw118pxrl</t>
+  </si>
+  <si>
+    <t>mano essa temporada de 13 reasons why tá foda... tem certas coisas q não desce de jeito nenhum....</t>
+  </si>
+  <si>
+    <t>o clay jensen de 13 reasons why e o samuel de elite são personagens muito parecidos.</t>
+  </si>
+  <si>
+    <t>muito bem dona 13 reasons why. depois que o brice morre eu fico com pena dele. af</t>
+  </si>
+  <si>
+    <t>nem acredito que tou a dar "13 reasons why" em inglês 🙄</t>
+  </si>
+  <si>
+    <t>que era o que eles deveriam ter feito desde o começo e nao imitado 13 reasons why com um clay q nao tinha nem motiv… https://t.co/tirzikfsgn</t>
+  </si>
+  <si>
+    <t>muito agradecida por 13 reasons why ter me "apresentado" à billie eilish ❤❤</t>
+  </si>
+  <si>
+    <t>tô muito bolada com o final de  13 reasons why😡😡😡😡</t>
+  </si>
+  <si>
+    <t>13 reasons why aí https://t.co/72srinzqq5</t>
+  </si>
+  <si>
+    <t>estou vissiadissíma em assistir 13 reasons why kkkkscrr</t>
+  </si>
+  <si>
+    <t>e eu q chorei no final d 13 reasons why</t>
+  </si>
+  <si>
+    <t>fiquei até agora assistindo 13 reasons why e.... foi bonzinho. clay poderia terminar melhor.... mas fazer uma tempo… https://t.co/3hifyrexh9</t>
+  </si>
+  <si>
+    <t>acabei de ver elite, o final foi bem decepcionante. inclusive a cena foi igualzinha o final da segunda temporada de… https://t.co/vffbwlimhg</t>
+  </si>
+  <si>
+    <t>eu sempre choro assistindo o sexto episódio da segunda temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>3ª temporada de 13 reasons why aí vou eu</t>
+  </si>
+  <si>
+    <t>queria que 13 reasons why impactasse de forma positiva as outras pessoas tanto quanto me impacta</t>
+  </si>
+  <si>
+    <t>rt @brendalmiozzo: comecei a 3 temporada de 13 reasons why
+antes de continuar essa palhaçada alguém pode me dizer se eles vão realmente fa…</t>
+  </si>
+  <si>
+    <t>o tanto que eu chorei com o último episódio de 13 reasons why gente</t>
+  </si>
+  <si>
+    <t>13 reasons why tá me deixando paranóico e confuso novamente</t>
+  </si>
+  <si>
+    <t>na boa.. essa season 3 de "13 reasons why" tá ficando muito cansativa de assistir.. 😐</t>
+  </si>
+  <si>
+    <t>terminei a 3a temp. de 13 reasons why. nem sei o que falar...</t>
+  </si>
+  <si>
+    <t>gld isso é mt eu perguntando p gabi se ela acha boa ideia eu assistir elite ou 13 reasons why na tv https://t.co/0rgfrv8p3x</t>
+  </si>
+  <si>
+    <t>@carolmoreira3 comenta sobre a última temporada de 13 reasons why, achei pesada e muito reflexiva.</t>
+  </si>
+  <si>
+    <t>hbo go é tão ruim que deveria mudar o nome pra 13 reasons why</t>
+  </si>
+  <si>
+    <t>to acordada a essas horas assistindo 13 reasons why dnv (porém só baixei dois episódios) e tenho aula amanhã de man… https://t.co/m1keujcjco</t>
+  </si>
+  <si>
+    <t>rt @mariliamreal: nao gostei do final seletivo de 13 reasons why .. n é possível q termina assim</t>
+  </si>
+  <si>
+    <t>sacrificando uma hora de sono pra acabar 13 reasons why e ver se fico ou não com pena do bryce</t>
+  </si>
+  <si>
+    <t>@seriestwbz 13 reasons why é de voce mesmo que to falando</t>
+  </si>
+  <si>
+    <t>13 reasons why ta o aço</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e10 de 13 reasons why! #tvtime https://t.co/9amhgklzwe https://t.co/k9gwq3xqv3</t>
+  </si>
+  <si>
+    <t>eu acabei de ver o 1° episódio da 3t de 13 reasons why. até o último capítulo da 2t eu tinha certeza que eu conheci… https://t.co/zu4cnzzcj3</t>
+  </si>
+  <si>
+    <t>crlh, eu tou a chorar muito com 13 reasons why</t>
+  </si>
+  <si>
+    <t>caralhoooooo 13 reasons why é muito fodaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>@caique_quarttos @henriqueuolque @gomezswho @tropicalistas mas depende de como a pessoa é colocada na situação, se… https://t.co/fwvg8gyins</t>
   </si>
   <si>
     <t>— rafaela
@@ -1680,1281 +3035,80 @@
 — não… https://t.co/eb9rwgpa8b</t>
   </si>
   <si>
-    <t>terminei elite e puta que pariu chupa 13 reasons why, n consegui nem ver 4 eps da 3 temp, elite sim ta de parabéns… https://t.co/tq2vozucd4</t>
+    <t>13 reasons why é pesado</t>
+  </si>
+  <si>
+    <t>@pedroarno @netflixbrasil de tantos motivos que eu tenho pra te xingar, voce consegue fazer eu te apoiar nesse ponto, esquece 13 reasons why</t>
+  </si>
+  <si>
+    <t>em cada temporada 13 reasons why mexe com psicológico, o ser humano só faz e tenta reparar fazendo outras merdas</t>
+  </si>
+  <si>
+    <t>roteiro de elite.2 e 13 reasons why.3 são muito iguais kkkk aiaiai por que que me submeto a procrastinar com essas séries</t>
+  </si>
+  <si>
+    <t>cara eu assisti a 3 temporada de 13 reasons why bebado  e não lembro kakskakakakslskskals</t>
+  </si>
+  <si>
+    <t>estou chocado com a segunda temporada de elite, não sabia que iam conseguir um enredo melho que a primeira temporad… https://t.co/ntuu2tp9kr</t>
+  </si>
+  <si>
+    <t>finalmente terminei 13 reasons why e assim
+ foda demais</t>
+  </si>
+  <si>
+    <t>13 reasons why é péssimo no começo mas no fim é maravilhosooooooo</t>
+  </si>
+  <si>
+    <t>enfim, terminei de assistir as novas temporadas de 13 reasons why.</t>
+  </si>
+  <si>
+    <t>eu passei o domingo inteiro fazendo marmita pra comer bem essa semana.
+sai de casa sem marmita nenhuma.
+vejo nos e-… https://t.co/fxkn4h1mrj</t>
+  </si>
+  <si>
+    <t>peguei o dinheiro que sobrou do lanche ontem, comprei umas pipoca de microondas e uma lata de coca e to aqui maratonando "13 reasons why"</t>
   </si>
   <si>
     <t>vou terminar de ver 13 reasons why, me contaram o que ia acontecer então aí eu tinha parado de ver.</t>
   </si>
   <si>
-    <t>ok, vou terminar de assistir elite, depois la casa de papel, depois 13 reasons why</t>
-  </si>
-  <si>
-    <t>mano eu assisto 13 reasons why e sofro a morte da hannah como se eu tivesse conhecido ela</t>
-  </si>
-  <si>
-    <t>não acredito que a 3 temporada de 13 reasons why acabou assim</t>
-  </si>
-  <si>
-    <t>3a temporada de 13 reasons why tá  muito pica</t>
-  </si>
-  <si>
-    <t>todo mundo ignorando minhas apostas quando eu acertar vou enfiar no cu de cada um e ainda mandar quem gostar de 13… https://t.co/ldalxsjt0e</t>
-  </si>
-  <si>
-    <t>é como disse o alex na 3° temporada de 13 reasons why
-"passamos de podemos ser amigos pra não me toque"
-e é isso</t>
-  </si>
-  <si>
-    <t>elite é melhor que 13 reasons why e só minha opinião importa</t>
-  </si>
-  <si>
-    <t>falem o que quiser de “13 reasons why” mais que é uma série mais do que necessária e a opinião de quem nunca sofreu… https://t.co/8nkg5do80u</t>
-  </si>
-  <si>
-    <t>rt @fadadignissima: to me decindo se gostei ou não do final de 13 reasons why</t>
-  </si>
-  <si>
-    <t>terminei de ver vis a vis e já estou acabando elite, e to pronta pra começar 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @versosfrases: "todo mundo que você conhece está em uma batalha sobre a qual você não sabe nada, seja gentil, sempre." 
+    <t>13 reasons why vem aqui agora e me explica esse final</t>
+  </si>
+  <si>
+    <t>fingi que não tenho mil matérias acumuladas e maratonei 13 reasons why até agora 🙃</t>
+  </si>
+  <si>
+    <t>rt @pablogordiinho: pra mim a única coisa que valeu na 3 temporada de 13 reasons why foi a relação do tyler com o clay,só de ver essa cena…</t>
+  </si>
+  <si>
+    <t>to assistindo 13 reasons why 3 temp e ainda nesse julgamento, parece o julgamento do lula</t>
+  </si>
+  <si>
+    <t>rt @oiejuj: eu terminando a 3 temporada de 13 reasons why: https://t.co/varbk7ypuq</t>
+  </si>
+  <si>
+    <t>terceira temporada de 13 reasons why tá péssima no</t>
+  </si>
+  <si>
+    <t>13 reasons why tá tão chato que to até com preguiça de terminar essa temporada</t>
+  </si>
+  <si>
+    <t>falta 3 ep p eu terminar 13 reasons why, eu vou terminar essa porra hoje</t>
+  </si>
+  <si>
+    <t>o jeito que essa personagem jéssica de 13 reasons why interpretou a dor de ver o corpo dela por ter sido estuprada… https://t.co/cm9toycdgf</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''alguns sofrem em silêncio, desesperados para escapar de sua dor.''
 — 13 reasons why</t>
   </si>
   <si>
-    <t>essa temp de 13 reasons why ta perfeita
-o bryce se arrependendo e tentando consertar as coisas, eu to triste demais… https://t.co/azwmouqius</t>
-  </si>
-  <si>
-    <t>rt @minhaserie: christian navarro, de 13 reasons why, quer ser príncipe em a pequena sereia https://t.co/2bow8zbbkf https://t.co/aro4od7bkb</t>
-  </si>
-  <si>
-    <t>13 reasons why: vamos falar sobre bullying.
-tbm 13 reasons why: vamos fazer adolescentes culpar outro adolescente p… https://t.co/orr15ls5g6</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why na força do ódio essa temporada não acaba, pela feeeee</t>
-  </si>
-  <si>
-    <t>rt @oiejuj: eu terminando a 3 temporada de 13 reasons why: https://t.co/varbk7ypuq</t>
-  </si>
-  <si>
-    <t>— aline
-— 25
-— hetero
-— no momento, 13 reasons why
-— leão
-— solteira 
-— nenhum 
-— ser uma veterinária  
-— assistir… https://t.co/6cweeoo78b</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e...... me julguem..... eu gosto dessa série</t>
-  </si>
-  <si>
-    <t>essa série é massa "13 reasons why"</t>
-  </si>
-  <si>
-    <t>estou assistindo a terceira temporada de 13 reasons why. vou começar a pôr minhas séries em dia 🤗</t>
-  </si>
-  <si>
-    <t>netflix pra renovar 13 reasons why é rapidinho ne agora pra colocar a segunda temporada de titans demora 200 anos</t>
-  </si>
-  <si>
-    <t>finalmente tomei coragem e assisti 13 reasons why... e como imaginava, não to bem</t>
-  </si>
-  <si>
-    <t>que série tá assistindo e q temp — 13 reasons why, terceira temporada https://t.co/fbwn3dm7hq</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. sou luna 
-2. stranger things
-3. todas q ja assisti
-4. pll
-5. baby
-6. n sei
-7. stranger things,… https://t.co/idmyud3rys</t>
-  </si>
-  <si>
-    <t>13 reasons why é mt foda</t>
-  </si>
-  <si>
-    <t>ótimo momento da vida pra maratonar 2 temp de 13 reasons why</t>
-  </si>
-  <si>
-    <t>a terceira temporada de 13 reasons why,  tá uma enrolação só, mas sei q os dois últimos episódios vão dizer tudo, v… https://t.co/pzuf3ctf63</t>
-  </si>
-  <si>
-    <t>sabia que eu tinha visto a cara dele antes de 13 reasons why https://t.co/4swifybptv</t>
-  </si>
-  <si>
-    <t>to aqui assistindo a 3º temporada de 13 reasons why, mas to caindo de sono 💤</t>
-  </si>
-  <si>
-    <t>acho que essa série 13 reasons why tá me fazendo é mal, ou é a tpm. sei la</t>
-  </si>
-  <si>
-    <t>1 temp de elite, o que dizer? 13 reasons why contada de uma forma diferente kkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>perguntaram-me se sempre ia a um jantar e pensei "ao contrário do 13 reasons why, eu nunca me corto."
-e lá fui rind… https://t.co/was9awxowg</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma merda pqp os cara tenta fazer um monte de crítica social foda e falha em absolutamente todas as tentativas</t>
-  </si>
-  <si>
-    <t>@seriestwbz e esqueci de orphan black, ela com 13 reasons why são horríveis</t>
-  </si>
-  <si>
-    <t>só que me faltava eu ver 13 ep de 13 reasons why e não saber quem matou o bryce</t>
-  </si>
-  <si>
-    <t>alguém que me diga se vale a pena ver a 3a temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why dnv só pra ver a hannah e o justin, se minhas amigas pôdem shippar incesto 
-eu posso shippar relacionamento toxico</t>
-  </si>
-  <si>
-    <t>hoje eu termino de assistir 13 reasons why</t>
-  </si>
-  <si>
-    <t>nesse fds já vi : elite, crush a altura e terminei 13 reasons why, próximo vis a vis</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. homeland
-2. stranger things, big little lies e black mirror
-3. não cheguei fazer isso kk
-4. 13… https://t.co/mifixyuv8w</t>
-  </si>
-  <si>
-    <t>acho q prefiro ver 13 reasons why desde a 1ª tempdo q começar a escola segunda</t>
-  </si>
-  <si>
-    <t>pois hoje terminei finalmente a 1t de 13 reasons why. demorei, pois não foi fácil assistir. a professora de ontem p… https://t.co/e7ewbjposp</t>
-  </si>
-  <si>
-    <t>to tão presa em 13 reasons why, que nem to entrando nas minhas redes sociais direito</t>
-  </si>
-  <si>
-    <t>que temporada chata essa nova de 13 reasons why pqp</t>
-  </si>
-  <si>
-    <t>eu chorei muito vendo esses últimos ep de 13 reasons why, mano o ep mais pesado pra mim foi quando os sobreviventes… https://t.co/dgpvlcwal8</t>
-  </si>
-  <si>
-    <t>aquele meme do 13 reasons why que fala do maldito sorriso, nunca foi tão verdadeiro como agora viu, ai mds</t>
-  </si>
-  <si>
-    <t>rt @mixdeseries: ator de 13 reasons why revela não ter gostado de trama da 3ª temporada.
-https://t.co/d6upge8smd</t>
-  </si>
-  <si>
-    <t>não suporto 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @saalisboa: to arrastada pra terminar 13 reasons why gente parece que nunca acaba</t>
-  </si>
-  <si>
-    <t>mano, essa temporada de 13 reasons why está foda demais, várias cenas emocionante que não tem como não segurar o choro</t>
-  </si>
-  <si>
-    <t>eu odeio essa ani de 13 reasons why odeio</t>
-  </si>
-  <si>
-    <t>depois de ver a terceira temporada de 13 reasons why, a única coisa que quero saber é onde raio se meteu a nina a t… https://t.co/urfyihtpeb</t>
-  </si>
-  <si>
-    <t>rt @sgcharts: “13 reasons why”, série produzida por selena gomez (que também detém os direitos autorais do livro) foi homenageada pelo @tel…</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''existe uma dor além da morte, além do que se imagina, além das palavras.''
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>juro que não era a intenção perder meu tempo vendo mais uma temporada de 13 reasons why, mas aqui estamos já viciad… https://t.co/oviezry3p2</t>
-  </si>
-  <si>
-    <t>e hoje no meio de 13 reasons why me bateu um puta sono aí eu tive que pausar pra dormir umas meia horinha pra depoi… https://t.co/mcxyrpmrly</t>
-  </si>
-  <si>
-    <t>vou assistir 13 reasons why tudo de novo pq só assisti a 1 temp</t>
-  </si>
-  <si>
-    <t>acabei 13 reasons why e elite e achei q n iria ter mais nada p assistir, mas lembrei q já lançou station 19 😁</t>
-  </si>
-  <si>
-    <t>13 reasons why: uhu vamo fazer o certo e falar sobre o suicídio,sobre mental illness e mostrar que todo mudo tem cu… https://t.co/5kxim33nyl</t>
-  </si>
-  <si>
-    <t>moço “13 reasons why” está muito bem estruturada nessa terceira temporada, o segunda episódio retratando o aborto d… https://t.co/d6ymsxvvqh</t>
-  </si>
-  <si>
-    <t>mais de 1 hora da manhã e eu to tomando café e olhando 13 reasons why, minha vida já perdeu o sentido</t>
-  </si>
-  <si>
-    <t>18 eps de 13 reasons why e fiquei retardado,acabar essa merda logo</t>
-  </si>
-  <si>
-    <t>lá vou eu assistir a 3ª temporada de 13 reasons why, torcendo pra não ficar um lixo depois</t>
-  </si>
-  <si>
-    <t>e eu já começo a 3° temporada de '13 reasons why' querendo gritar na cara do clay pra parar de pegar o problema dos outros pra ele! kkkkkkk</t>
-  </si>
-  <si>
-    <t>13 reasons why é tão tóxico, cheguei ao segundo capítulo e deus,como foi difícil.</t>
-  </si>
-  <si>
-    <t>rt @forumeplay: elite desbanca a chacota 13 reasons why e se torna a série mais maratonada da semana na netflix https://t.co/y2umom9tud htt…</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s01e10 de 13 reasons why  #13reasonswhy   #tvtime https://t.co/urihwi09tp https://t.co/hsgsotglkf</t>
-  </si>
-  <si>
-    <t>aí vou assistir à 3º temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why fala tanto sobre se responsabilizar pelos seus atos aí vai e me faz uma terceira temporada com um fi… https://t.co/kgjt3ow67o</t>
-  </si>
-  <si>
-    <t>mano i just wanted to say que eu n acompanhei 13 reasons why
-assisti a primeira temp pq ne
-p mim n tinha motivo p t… https://t.co/ek4hx15ofg</t>
-  </si>
-  <si>
-    <t>to revendo a 1° temporada se 13 reasons why e fico pensando. uma menina se suicidou e as pessoas nem aí. se eu nunc… https://t.co/ey4mykmege</t>
-  </si>
-  <si>
-    <t>acabei de ver 13 reasons why e aquilo deu voltas e voltas</t>
-  </si>
-  <si>
-    <t>13 reasons why essa série e boa de mais baa</t>
-  </si>
-  <si>
-    <t>13 reasons why ta o aço</t>
-  </si>
-  <si>
-    <t>essa série 13 reasons why ficou pesada demais. mostrou uma cena que eu só havia lido antes num procedimento de execução criminal.</t>
-  </si>
-  <si>
-    <t>que era o que eles deveriam ter feito desde o começo e nao imitado 13 reasons why com um clay q nao tinha nem motiv… https://t.co/tirzikfsgn</t>
-  </si>
-  <si>
-    <t>até 13 reasons why mostrou que mães africanas dão medo 😂😂😂😂</t>
-  </si>
-  <si>
-    <t>@dinarteassuncao a série "13 reasons why"? estou assistindo. é muito boa</t>
-  </si>
-  <si>
-    <t>o jeito que essa personagem jéssica de 13 reasons why interpretou a dor de ver o corpo dela por ter sido estuprada… https://t.co/cm9toycdgf</t>
-  </si>
-  <si>
-    <t>acabei de terminar a segunda temporada de 13 reasons why. 
-sobre a minha experiência: a primeira temporada é muito… https://t.co/tskebzb0vj</t>
-  </si>
-  <si>
-    <t>assistir a 3º temp de 13 reasons why é masoquismo
-eu sei que o roteiro da serie é uma merda mas ainda quero confirmar</t>
-  </si>
-  <si>
-    <t>''quando as pessoas te encaram e falam ou quando não te encaram mas você sabe que elas querem, apenas lembre-se que… https://t.co/673clihnuq</t>
-  </si>
-  <si>
-    <t>tô tentando terminar essa temporada de 13 reasons why, mas essa ani é insuportável! ranço</t>
-  </si>
-  <si>
-    <t>ah sim, lavei o carro da minha mãe antes de assistir 13 reasons why e lavei a louça.
-aaahhh.....</t>
-  </si>
-  <si>
-    <t>13 reasons why tem que ter outra temporada pq essa história tá um pouco mal contada, o zach bateu no bryce, o alex… https://t.co/vjh4vq3mnk</t>
-  </si>
-  <si>
-    <t>finamente terminei a 3° temp de 13 reasons why, mas já estou c sdds 😫</t>
-  </si>
-  <si>
-    <t>bebés no avião sao piores que 13 reasons why</t>
-  </si>
-  <si>
-    <t>ta bom talvez eu goste de 13 reasons why</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/ihtueoomar https://t.co/ygzqghnewv</t>
-  </si>
-  <si>
-    <t>alguém assiste 13 reasons why? gostaram da terceira temporada?</t>
-  </si>
-  <si>
-    <t>rt @guinhomeira: tava assistindo 13 reasons why e encontrei um ator (deaken bluman) para interpretar o príncipe eric no live da pequena ser…</t>
-  </si>
-  <si>
-    <t>rt @queridojeito: “há pessoas que se machucam e há pessoas que machucam.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>estou chocado com a segunda temporada de elite, não sabia que iam conseguir um enredo melho que a primeira temporad… https://t.co/ntuu2tp9kr</t>
-  </si>
-  <si>
-    <t>um homem pode se tornar cruel pra provar que não é fraco.
-- 13 reasons why.</t>
-  </si>
-  <si>
-    <t>queria que 13 reasons why impactasse de forma positiva as outras pessoas tanto quanto me impacta</t>
-  </si>
-  <si>
-    <t>crlhooou, completamente apaixonado pela música de 13 reasons why mano 😍😍😍</t>
-  </si>
-  <si>
-    <t>está fome 13 reasons why segunda temporada, como que me aburrió 🙄</t>
-  </si>
-  <si>
-    <t>cara pfvr alguém namora cmg igual ao zach e a hanna na 2t6p de 13 reasons why ??????????? caralho que namoro lindo,… https://t.co/bnwe7rwdhj</t>
-  </si>
-  <si>
-    <t>vou já já ver 13 reasons why pra terminar logo essa terceira temporada, eu fico impressionado que #elite2 eu acabei… https://t.co/u2xi8jpj2w</t>
-  </si>
-  <si>
-    <t>acabei de assistir vis a vis e sintonia ontem, adicionei algumas séries na minha lista, agr vou assistir a 3 temp de 13 reasons why .</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série muito fudida puta q pariu</t>
-  </si>
-  <si>
-    <t>coringa é um símbolo psicopata. dependendo de como o filme tiver sido trabalhado, fazer poesia em cima desse person… https://t.co/thirmjd8oq</t>
-  </si>
-  <si>
-    <t>to assistindo a 3 temp de 13 reasons why com a certeza que vou me arrepender</t>
-  </si>
-  <si>
-    <t>13 reasons why está... oh uma merda</t>
-  </si>
-  <si>
-    <t>vende-se esta casa
-tem aquele ator de 13 reasons why que atua do msm jeito e no final morre afogado na poça pelo as… https://t.co/dglgblzidu</t>
-  </si>
-  <si>
-    <t>temporada 3 de "13 reasons why" aqui vou eu</t>
-  </si>
-  <si>
-    <t>manooo eu to chocada em saber q quem matou o bryce foi o alex 13 reasons why eu te odeio</t>
-  </si>
-  <si>
-    <t>fui assistir a terceira temp de 13 reasons why e fiquei perdidinha, não lembro de nada que aconteceu gente socorro</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>onde posso ver a segunda temporada do 13 reasons why?</t>
-  </si>
-  <si>
-    <t>se o áudio que a bruna me mandou falando 13 reasons why, fosse uma pessoa, eu casaria com ele agora! huhahaha eu to… https://t.co/fxp8dk3zg2</t>
-  </si>
-  <si>
-    <t>hoje passei a minha tarde maratonando 13 reasons why por dois motivos: 1. não tinha nada mais interessante para faz… https://t.co/jxjdp1rpnc</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why, pela primeira vez e não to legal irmão</t>
-  </si>
-  <si>
-    <t>atribuí nota 6.5 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/qnuw3egadm #bancodeseries</t>
-  </si>
-  <si>
-    <t>puta que pariu na raiva que eu passo com 13 reasons why 
-último ep da terceira temporada sem ter tomado nem um spoi… https://t.co/1tfsfzcthz</t>
-  </si>
-  <si>
-    <t>samuel de elite is the new clay jensen de 13 reasons why 
-os dois são passivao e ficam perseguindo todo mundo o tempo inteiro quem aguenta</t>
-  </si>
-  <si>
-    <t>rt @carolin58895490: estou completamente sem palavras com a temporada 3 de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e mano... que temporada foda!</t>
-  </si>
-  <si>
-    <t>acabei 13 reasons why, que série pesada</t>
-  </si>
-  <si>
-    <t>depois de ver a 3a temporada de 13 reasons why (fraca e desnecessária), difícil não me reconhecer no clay quase tud… https://t.co/adzjwyxvkm</t>
-  </si>
-  <si>
-    <t>''por trás daquela cara de bonzinho tem uma confusão enorme.''
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>mano, que garota aleatória é essa no 13 reasons why?</t>
-  </si>
-  <si>
-    <t>@oh_itsbeco tipo, é fixe para pitos do secundário, mas para as pessoas que já pensam um bocado aquilo é pior que 13 reasons why😪😪</t>
-  </si>
-  <si>
-    <t>agora que terminei de assistir 13 reasons why, agora posso dormir sossegada sobre o desfecho da história que foi digno</t>
-  </si>
-  <si>
-    <t>13 reasons why é muito pesada mano, tem que ter um psicológico muito bom pra ver essa série</t>
-  </si>
-  <si>
-    <t>o tanto que eu chorei com o último episódio de 13 reasons why gente</t>
-  </si>
-  <si>
-    <t>assistindo a terceira temporada de 13 reasons why na força do ódio</t>
-  </si>
-  <si>
-    <t>@t_a_i_n_a_r_a elite, 13 reasons why e olhos que condenam.</t>
-  </si>
-  <si>
-    <t>só assistam 13 reasons why perfeita sem defeitos 😭😭😭</t>
-  </si>
-  <si>
-    <t>se yeri falar que assiste the 100 ou aquele 13 reasons why eu fecho esse fc</t>
-  </si>
-  <si>
-    <t>terminei de ver a segunda temporada de elite, agora vou ver a terceira temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>e se eu contar p vocês que eu me emocionei demais no último ep da 2 temp de 13 reasons why
- com o hino "lovely" ainda mano, putz amo.</t>
-  </si>
-  <si>
-    <t>não gosto tanto assim de 13 reasons why, nem sei porque é que me estou a obrigar a ver estar terceira temporada</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why tive uma noção e ponto de vista completamente diferente.  a 1° temporada deixou várias co… https://t.co/3fsw6omddf</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. tvd
-2. sense8
-3. la casa de papel
-4. 13 reasons why
-5. todas da marvel
-6. friends
-7. sense8
-8.… https://t.co/xnxt9h19vu</t>
-  </si>
-  <si>
-    <t>terminei de arrumar meu quarto agora vamo terminar 13 reasons why</t>
-  </si>
-  <si>
-    <t>acabei a 3a temporada de 13 reasons why, finalmente. ainda tenho tanta coisa pra ver...</t>
-  </si>
-  <si>
-    <t>assistindo a terceira temporada de 13 reasons why, chorando</t>
-  </si>
-  <si>
-    <t>finalizei a #maratona de "13 reasons why" - 13 episódios vistos e média de 0.82  episódios/dia #bancodeseries https://t.co/vahv1m7sda</t>
-  </si>
-  <si>
-    <t>ta vendo qual série? — 13 reasons why, vis a vis https://t.co/9n8yzkdjxb</t>
-  </si>
-  <si>
-    <t>rt @debsbhava: as pessoas desconhecem o problema de se colocar em debate de qualquer maneira assuntos de saúde mental.  
-sabe o que faz iss…</t>
-  </si>
-  <si>
-    <t>finalizando a terceira temporada ❤️ — assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série muito ruim. só isso mesmo o tweet</t>
-  </si>
-  <si>
-    <t>mano essa temporada de 13 reasons why tá foda... tem certas coisas q não desce de jeito nenhum....</t>
-  </si>
-  <si>
-    <t>véi... 13 reasons why é doente</t>
-  </si>
-  <si>
-    <t>@rayy_trem7 personagem da série 13 reasons why kkkkk</t>
-  </si>
-  <si>
-    <t>na boa.. essa season 3 de "13 reasons why" tá ficando muito cansativa de assistir.. 😐</t>
-  </si>
-  <si>
-    <t>um dos motivos pra 13 reasons why ser um grande pedaço de bosta https://t.co/jxpcfyagyc</t>
-  </si>
-  <si>
-    <t>eu amo chamar wallows de "a banda daquele menino de 13 reasons why"</t>
-  </si>
-  <si>
-    <t>13 reasons why é muito bom pqp</t>
-  </si>
-  <si>
-    <t>meus amigos me deram spoiler de 13 reasons why, e eu surteeei</t>
-  </si>
-  <si>
-    <t>a música tema do clay e hanna de 13 reasons why é demais pra mim, eu não consigo ouvir essa porra dessa música sem… https://t.co/knz9y4toce</t>
-  </si>
-  <si>
-    <t>nome: dávilla 
-idade: 16
-orientação sexual: hétero 
-série fav: 13 reasons why
-signo: libra
-estado civil: solteira
-c… https://t.co/ltxg5aak2r</t>
-  </si>
-  <si>
-    <t>07:20 e eu chorando emocionada c o fim da 3ª temporada de 13 reasons why, aaaaa</t>
-  </si>
-  <si>
-    <t>13 reasons why devia mesmo ter parado na primeira temporada...
-não sei se achei correto essa terceita temporada ten… https://t.co/og2ikhuwga</t>
-  </si>
-  <si>
-    <t>13 reasons why pq vc tá chorando? https://t.co/lawvpoan9a</t>
-  </si>
-  <si>
-    <t>13 reasons why, mó treta seloko, essa série devia acabar logo, creduuuuuuuuuuuuuuuuu</t>
-  </si>
-  <si>
-    <t>acabei de ver o episódio  s03e01 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/po1gxvfujn https://t.co/4hz4gpgjgy</t>
-  </si>
-  <si>
-    <t>puta merda, a 3ª temporada de 13 reasons why me fez chorar demaaaissssss, tô em prantos</t>
-  </si>
-  <si>
-    <t>tava vendo uns vídeos sobre a terceira temporada de 13 reasons why e da vontade de continuar pq eu parei no terceir… https://t.co/bwuqujx7qg</t>
-  </si>
-  <si>
-    <t>to me segurando pra nao pular logo pro ultimo episódio de 13 reasons why, quero saber logo o final</t>
-  </si>
-  <si>
-    <t>se eu tivesse um pouquinho mais de coração eu choraria c esse final de 13 reasons why</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s03e11 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/fgorwjn88o https://t.co/up7drshhhr</t>
-  </si>
-  <si>
-    <t>rt @laura_canavezi: netflix pra renovar 13 reasons why é rapidinho ne agora pra colocar a segunda temporada de titans demora 200 anos</t>
-  </si>
-  <si>
-    <t>nao tem como ter vontade de ver essa temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why: as pessoas questionando a ideia da série pelo fato dela romantizar o suicídio e como isso é algo ir… https://t.co/skidalgcml</t>
-  </si>
-  <si>
-    <t>atribuí nota 7 ao episódio 3x2 - if you're breathing, you're a liar de 13 reasons why https://t.co/cnzmhckxsq #bancodeseries</t>
-  </si>
-  <si>
-    <t>acabada dps de terminar a última tempo de 13 reasons why, série sem defeitos</t>
-  </si>
-  <si>
-    <t>elite e 13 reasons why qual das duas séries eu tenho menos vontade de ver</t>
-  </si>
-  <si>
-    <t>tô percebendo que nessa nova temporada de 13 reasons why eles querem deixar uma imagem de bonzinho pro bryce, ah pe… https://t.co/mewzzvimke</t>
-  </si>
-  <si>
-    <t>eu odeio profundamente como 13 reasons why me fez ter pena do bryce walker</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. the vampire diaries 
-2. got
-3. nenhuma
-4. 13 reasons why 
-5. a mesma de antes 
-6. friends 
-7.… https://t.co/9durkui9pr</t>
-  </si>
-  <si>
-    <t>estou farto de chorar por causa de 13 reasons why...</t>
-  </si>
-  <si>
-    <t>sexta-feira 13 reasons why minha vida tá uma merda
-- vida pessoal
-- trabalho
-- saúde emocional
-- eu
-- vida pessoal… https://t.co/0lk1kdy0i0</t>
-  </si>
-  <si>
-    <t>"cities in dust" (siouxsie and the banshees"
-putz, não pensei que voltaria a ouvir essa música meio underground &amp;amp;… https://t.co/yprotrhvsn</t>
-  </si>
-  <si>
-    <t>atribuí nota 8 ao episódio 3x4 - angry, young and man de 13 reasons why https://t.co/pdtxn79cl9 #bancodeseries</t>
-  </si>
-  <si>
-    <t>essa terceira temporada de 13 reasons why está acabando cmg 😭😭😭😭</t>
-  </si>
-  <si>
-    <t>eu não me dou bem com gatilhos mentais, fiquei mal com 13 reasons why kkkkkkkkkkkkk
-imagina cm tht?</t>
-  </si>
-  <si>
-    <t>estava assistindo 13 reasons why e realmente existem muitas hannah por ai, inclusive, fui uma delas por muito tempo… https://t.co/bng7e8seex</t>
-  </si>
-  <si>
-    <t>se for pra cagar a série q nem 13 reasons why é melhor fazer um episódio final e tá ótimo https://t.co/jdw0boayxe</t>
-  </si>
-  <si>
-    <t>terminando 13 reasons why e começando elite super atrasada deus me ajude</t>
-  </si>
-  <si>
-    <t>eu não seeei se eu coloco 13 reasons why pra assistir</t>
-  </si>
-  <si>
-    <t>chorando com a série 13 reasons why, batendo muito na tecla da cultura do estupro!!! cena fortíssima pqp</t>
-  </si>
-  <si>
-    <t>estou no 6° episódio da 3ª temporada de 13 reasons why. será q a ani matou o bryce. pelo menos rainha das sonsas ela é</t>
-  </si>
-  <si>
-    <t>não sei se choro ou fico puta com o final de 13 reasons why</t>
-  </si>
-  <si>
-    <t>podem falar mal o tanto que for de 13 reasons why, mas continua sendo uma série que trata de questões muito importantes da vida, real.</t>
-  </si>
-  <si>
-    <t>ainda não vi 13 reasons why s3, vale a pena?</t>
-  </si>
-  <si>
-    <t>rt @rossonicosta: mano, 13 reasons why é a maior ofensa que eu já vi nesse universo de netflix e tal</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/9dqkl3ae0m https://t.co/wd39ocvyaa</t>
-  </si>
-  <si>
-    <t>hoje eu lembro e lembrarei sempre que eu ouvir 15 de setembro, e sempre que eu ver 13 reasons why, sempre que eu ve… https://t.co/0zzckcidar</t>
-  </si>
-  <si>
-    <t>próximo semana começam as provas e eu assistindo 5 séries ao mesmo tempo. 
-elite
-13 reasons why
-how to get away wit… https://t.co/v1jnii7du2</t>
-  </si>
-  <si>
-    <t>tentando terminar o ultimo ep 13 reasons why, mas fica dificil enxergar com tanta lágrima</t>
-  </si>
-  <si>
-    <t>achei 13 reasons why tão bosta que não quero nem terminar</t>
-  </si>
-  <si>
-    <t>no episódio que eu penso em desistir de 13 reasons why eles me colocam na trilha uma música do nothing but thieves.… https://t.co/w8ygscwd54</t>
-  </si>
-  <si>
-    <t>rt @anna_patricia21: a série “13 reasons why” é só a série mais fudida que existe, acreditem... é uma série muito marada. e se tiverem uma…</t>
-  </si>
-  <si>
-    <t>pelo amor, n consigo terminar de assistir a 3° temporada de 13 reasons why
-alguém me fala quem matou o bryce</t>
-  </si>
-  <si>
-    <t>ator de 13 reasons why é rejeitado em teste da disney. entenda! https://t.co/g3ufc4htfl https://t.co/rv5jepb6ij</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy #tvtime https://t.co/szs6zjap8q</t>
-  </si>
-  <si>
-    <t>eu nunca demorei/enrolei tanto pra terminar a temporada de uma série como tô demorando pra assistir a terceira temp de 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @siteptbr: como que explica o ser humano?
-a atriz grace saif, que interpreta a ani em “13 reasons why”, apagou todos seus posts em suas…</t>
-  </si>
-  <si>
-    <t>- 13 reasons why (livro)
-- the 100 (livro)
-- foste sempre tu 
-- viver depois de ti 
-- a arte subtil de saber dizer que se foda .</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e06 de 13 reasons why! #tvtime https://t.co/uqbc2tqjgg https://t.co/9h9cenwazh</t>
-  </si>
-  <si>
-    <t>13 reasons why devia ter parado na primeira temporada, o resto eh forçação</t>
-  </si>
-  <si>
-    <t>ainda não terminei 13 reasons why tá uma bela de uma bosta desde a 2°t</t>
-  </si>
-  <si>
-    <t>acabei de ver uma cena em 13 reasons why e fiquei totalmente certo de uma coisa: as pessoas realmente não conseguem… https://t.co/x5p4ywkkm5</t>
-  </si>
-  <si>
-    <t>@abmcgrazi @construtorajab @pedrocerize @hbredda e 13 reasons why só para morrer de raiva dos personagens.</t>
-  </si>
-  <si>
-    <t>olha, virou questão de honra mesmo pq assistir essa terceira temporada de 13 reasons why por gosto ou pq ela é empo… https://t.co/gq5l38atgf</t>
-  </si>
-  <si>
-    <t>estou surtado vou assistir 13 reasons why pra ficar pior porque esse é o meu jitinho</t>
-  </si>
-  <si>
-    <t>tava aqui pensando, as horas que eu gastei assistindo aquela bosta de terceira temporada de 13 reasons why eu poder… https://t.co/7hmizuiyjs</t>
-  </si>
-  <si>
-    <t>rt @canceridemo: passada que o montgomery colocou a gay pra trabalhar a boca e depois bateu nela kkkkkkkk 13 reasons why pq fizeste isso co…</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why e sentindo falta da morena + gata que já vi na vida 😅</t>
-  </si>
-  <si>
-    <t>quero começar a nova temporada de 13 reasons why hoje.</t>
-  </si>
-  <si>
-    <t>esse final de 13 reasons why...
-chorei viado</t>
-  </si>
-  <si>
-    <t>não olhem o 8° episódio do 13 reasons why! quase me desidratei de tanto que eu chorei. realmente eu amo e odeio essa série!</t>
-  </si>
-  <si>
-    <t>to assistindo a força essa temporada de 13 reasons why, chata pra caceta</t>
-  </si>
-  <si>
-    <t>— gabriel vilela
-— 16
-— bisexual
-— 13 reasons why??? sla kk
-— pexe
-— dei um tempo no namoro aberto
-— o scar e uma p… https://t.co/eme9algbuj</t>
-  </si>
-  <si>
-    <t>rt @pablogordiinho: pra mim a única coisa que valeu na 3 temporada de 13 reasons why foi a relação do tyler com o clay,só de ver essa cena…</t>
-  </si>
-  <si>
-    <t>começei a ver a 3 temporada de 13 reasons why, aguardem meu psicológico começar a bugar</t>
-  </si>
-  <si>
-    <t>13 reasons why,a série que todo mundo critica e eu me identifico tanto</t>
-  </si>
-  <si>
-    <t>greys anatomy continua sendo boa dps de mt tempo, agr 13 reasons why realmente n tem pq ter mais temporada, com iss… https://t.co/otjziuuipy</t>
-  </si>
-  <si>
-    <t>depois de uma 2a temporada bem merda, 3a temporada de 13 reasons why muito pica!!!! terminei hoje e ameii</t>
-  </si>
-  <si>
-    <t>juro q lutei p não assistir a 3 temporada de 13 reasons why, mas tá mto boa</t>
-  </si>
-  <si>
-    <t>vcs vão me julgar mas elite a história ta parecendo 13 reasons why ,só que melhor</t>
-  </si>
-  <si>
-    <t>@thasioflw @backtocarlos @wolfhalls anta olha a foto, tem 5 emmys não 2 emmys como waverly place ganhou no site del… https://t.co/ekhcli5aoq</t>
-  </si>
-  <si>
-    <t>toda vez que assisto um eps de 13 reasons why eu fico p baixo, mds</t>
-  </si>
-  <si>
-    <t>13 reasons why é muito adolescente gente, não dá, os assuntos são sérios, mas a forma como é tratado...</t>
-  </si>
-  <si>
-    <t>que ódio, ainda tem 13 reasons why pra atualizar https://t.co/mjgdzlit6k</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e elite e to pensando em assistir sex education mas não sei se é boa</t>
-  </si>
-  <si>
-    <t>@miltonfdjr dá pra fazer um super tcc sobre 13 reasons why, se for pra falar mal</t>
-  </si>
-  <si>
-    <t>primeira temporada de 13 reasons why eu amei, a segunda nem tanto e a terceira eu odeie em um nível q nem consegui acabar</t>
-  </si>
-  <si>
-    <t>falam que eu pareço o tony de 13 reasons why https://t.co/futbv6hsxb</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e não consigo ter pena do bryce e nem do mont. moral: cada um colhe o que planta (nem todos)</t>
-  </si>
-  <si>
-    <t>o clay jensen de 13 reasons why e o samuel de elite são personagens muito parecidos.</t>
-  </si>
-  <si>
-    <t>‘elite’ desbanca ’13 reasons why’ e se torna a série mais maratonada da semana – confira o top 10 https://t.co/snrkgoklmv</t>
-  </si>
-  <si>
-    <t>eu to odiando essa narração de 13 reasons why... nunca gostei, só to odiando mais agora</t>
-  </si>
-  <si>
-    <t>acabando 13 reasons why, obrigado deus</t>
-  </si>
-  <si>
-    <t>mano e a preguiça de terminar a 3 temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>atribuí nota 8 ao episódio 3x9 - always waiting for the next bad news de 13 reasons why https://t.co/3bm2qc1bd4 #bancodeseries</t>
-  </si>
-  <si>
-    <t>@caique_quarttos @henriqueuolque @gomezswho @tropicalistas mas depende de como a pessoa é colocada na situação, se… https://t.co/fwvg8gyins</t>
-  </si>
-  <si>
-    <t>eu abandonei tanta série, abandonei ru pal's drag race, 13 reasons why, gossip girl, gatunas eu sou uma decepção</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/7bs3c8xaxm https://t.co/7hjlcjss6w</t>
-  </si>
-  <si>
-    <t>eu estou morta de chorar com o último episódio da 2ª temporada da série 13 reasons why. chorei a série toda desde a 1º temporada 😭</t>
-  </si>
-  <si>
-    <t>13 reasons why podia ter ficado na 1ª temporada, enrolação do caralho pra falar quem matou o bryce</t>
-  </si>
-  <si>
-    <t>pqp ep 8 de 13 reasons why chorei tanto senti real 😭😭😭😭😭 fiquei até mal</t>
-  </si>
-  <si>
-    <t>@felipeneto eu esperando  " atypical" "sex education" faz uns séculos aí e a netflix lançando 13 reasons why. 
-ódio que tenho disso pqp.</t>
-  </si>
-  <si>
-    <t>porque é que eu estou com pena do bryce na nova temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>passando aq p dizer que odiei o final de  13 reasons why</t>
-  </si>
-  <si>
-    <t>riverdale, the society e 13 reasons why sabendo que são as três piores séries adolescentes https://t.co/0gdepjcpew</t>
-  </si>
-  <si>
-    <t>ahhh eu gostei da terceira temporada de 13 reasons why, já quero a quarta temporada</t>
-  </si>
-  <si>
-    <t>13 reasons why - terceira temporada
-demoramos, mas enfim terminamos de assistir a terceira temporada de 13 reasons… https://t.co/r7hia3pwox</t>
-  </si>
-  <si>
-    <t>começar a 3 temporada de 13 reasons why agr</t>
-  </si>
-  <si>
-    <t>chorando muito assistindo 13 reasons why pqp</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why e quem matou o bryce walker tá de parabéns</t>
-  </si>
-  <si>
-    <t>"13 reasons why" deveria ser tipo uma série obrigatória pra sociedade! não pra se conscientizarem sobre suicídio "a… https://t.co/gvdserndaw</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. tvd
-2. não consigo decidir
-3. gossip girl
-4. la casa de papel
-5. dear white people
-6. uks
-7. 1… https://t.co/0xhumorsjr</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série interessante e eu só consegui descobrir hoje...</t>
-  </si>
-  <si>
-    <t>que merda que está acontecendo , eu chorei assistindo o 3 temporada de 13 reasons why, caraleoooo que cena linda. #feministas</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. friends 
-2. não consigo escolher mas agora é lucifer
-3. forever
-4. 13 reasons why
-5. vou ser x… https://t.co/w3xj0dlk0y</t>
-  </si>
-  <si>
-    <t>muito engraçado ver o lucifer de supernatural orando em 13 reasons why</t>
-  </si>
-  <si>
-    <t>toda vez que assisto alguma temporada de 13 reasons why fico muito reflexivo. embora muita gente tenha criticado es… https://t.co/64qknyhsrn</t>
-  </si>
-  <si>
-    <t>vendo a terceira temporada de 13 reasons why e ainda sem entender pq eles tão tentando humanizar o estrupador (?????)</t>
-  </si>
-  <si>
-    <t>rt @taehyli: vcs amigariam comigo?
-idade: 15 anos 
-série fav: 13 reasons why
-filme fav: meninas malvadas 
-hobby: dançar, cantar, ouvir mus…</t>
-  </si>
-  <si>
-    <t>acabei de assistir o episódio s01e08 de 13 reasons why  #13reasonswhy   #tvtime https://t.co/hgxedjyxi6 https://t.co/tklrk4vwir</t>
-  </si>
-  <si>
-    <t>minha mãe é sem graça demais noooo. falou que ia ver 13 reasons why comigo e já acabou tudo. que mãe tóxica af</t>
-  </si>
-  <si>
-    <t>vários ep de 13 reasons why e várias horas de sono.</t>
-  </si>
-  <si>
-    <t>assistindo a terceira temporada de 13 reasons why mas não to lembrado de nada que aconteceu na segunda temporada https://t.co/jcj5uueudo</t>
-  </si>
-  <si>
-    <t>alguém assistiu a 3ª temporada de 13 reasons why???? preciso conversar com alguém</t>
-  </si>
-  <si>
-    <t>achei que 13 reasons why ia acabar nessa terceira temporada feliz e tudo com o crime coberto, plau kakakakakakakakak deu ruim</t>
-  </si>
-  <si>
-    <t>vey, tava tão na cara quem matou o bryce de 13 reasons why pqp</t>
-  </si>
-  <si>
-    <t>serio q ainda vai ter quarta temporada de 13 reasons why?? af, netflix se empolgou dms</t>
-  </si>
-  <si>
-    <t>vcs amigariam comigo?
-idade: 15 anos 
-série fav: 13 reasons why
-filme fav: meninas malvadas 
-hobby: dançar, cantar… https://t.co/5b4uzq04qn</t>
-  </si>
-  <si>
-    <t>achava que era mais fácil tecer uma argumentativa longa quando uma obra tinha muito a oferecer. isso até eu escreve… https://t.co/ykjse3fvao</t>
-  </si>
-  <si>
-    <t>quando alguém quer me indicar a 3º temporada de 13 reasons why. 
-me poupe https://t.co/xmxvvova9i</t>
-  </si>
-  <si>
-    <t>roteiro de elite.2 e 13 reasons why.3 são muito iguais kkkk aiaiai por que que me submeto a procrastinar com essas séries</t>
-  </si>
-  <si>
-    <t>passar a feira inteiro em um canto ouvindo música e assistindo 13 reasons why</t>
-  </si>
-  <si>
-    <t>pai eterno que vontade e essa de enaltecer o bryce da 3 temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>uma loucura como essa terceira temporada de "13 reasons why" tenta fazer você sentir pena do bryce walker... pena q… https://t.co/dt5qdvhmb2</t>
-  </si>
-  <si>
-    <t>rt @luagaroto: literalmente apaixonado pela terceira temporada de 13 reasons why😍</t>
-  </si>
-  <si>
-    <t>atribuí nota 7.5 ao episódio 3x12 - and then the hurricane hit de 13 reasons why https://t.co/9kawprpmlj #bancodeseries</t>
-  </si>
-  <si>
-    <t>13 reasons why vem aqui agora e me explica esse final</t>
-  </si>
-  <si>
-    <t>qual série você começou a assistir por recomendações mas se arrependeu? — 13 reasons why e riverdale https://t.co/fuyrfus7jb</t>
-  </si>
-  <si>
-    <t>good wife ja tinha previsto 13 reasons why nesse episódio d cara q quis fazer um filme p evitar q as pessoas se sui… https://t.co/2weyvlyms2</t>
-  </si>
-  <si>
-    <t>porraaaaa @netflixbrasil vai se fuder cara vc cancela the oa mas deixa 13 reasons why ????? caralho https://t.co/nsjveykhqd</t>
-  </si>
-  <si>
-    <t>a terceira temporada de 13 reasons why tá muito bosta, vou assistir de novo, devo tá assistindo errado. a netflix n… https://t.co/addxjpu6is</t>
-  </si>
-  <si>
-    <t>meu aluno de 50 anos disse que adora 13 reasons why eu disse beloved?</t>
-  </si>
-  <si>
-    <t>@mayconolyver the 100 , 13 reasons why, how to get away with murder , euphoria , legacies , the rain , la casa del… https://t.co/ppvzlqv088</t>
-  </si>
-  <si>
-    <t>terminei o último de ep de 13 reasons why amém kk, e estou assistindo a segunda temporada de elite</t>
-  </si>
-  <si>
-    <t>"não deixem que mude quem você é, não deixem que coloquem um rótulo na sua vida, não seja um reflexo no espelho, se… https://t.co/fuwot6gioq</t>
-  </si>
-  <si>
-    <t>1° vez que discuto sobre 13 reasons why em um grupo kkkkkk e olha que não sou de ficar discutindo</t>
-  </si>
-  <si>
-    <t>pensei que a 3 temp de 13 reasons why seria melhor af, só passei raiva</t>
-  </si>
-  <si>
-    <t>13 reasons why eh a maior aberracao da internet e eu tenho como prova</t>
-  </si>
-  <si>
-    <t>toda hora um spoiler diferente dos 13 reasons why que raiva</t>
-  </si>
-  <si>
-    <t>rt @andrehfodase: eu amo chamar wallows de "a banda daquele menino de 13 reasons why"</t>
-  </si>
-  <si>
-    <t>surpreso c/ o final de 13 reasons why. achei forçado só pra ficar bem fora da imaginação de quem assiste. série mt… https://t.co/kvw118pxrl</t>
-  </si>
-  <si>
-    <t>13 reasons why ganhou meu respeito quando tocou a trilha sonora de donnie darko, foi demais p mim</t>
-  </si>
-  <si>
-    <t>@blogiseries 13 reasons why ta mto batida, devia ter acabado na primeira
-mas as outras são boas e nos fazem querer mais</t>
-  </si>
-  <si>
-    <t>13 reasons why não é série para ser assistida sem cia</t>
-  </si>
-  <si>
-    <t>sobrevivi a mais um surto de 13 reasons why s03e08 #tvtime https://t.co/k4xwvvwi8x</t>
-  </si>
-  <si>
-    <t>sobre a nova temporada de 13° reasons why , spoiler ! as pessoas mais idiotas da série são culpadas , final horrível e eu odeio o clay .</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why tudo de novo, amo</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''podemos dizer muito sobre uma pessoa pela forma que ela sofre.''
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why ja ta na 3 temporada como assim porque vcs tão fazendo isso para</t>
-  </si>
-  <si>
-    <t>em menos de uma semana eu assisti a 2 temporada de elite, sintonia e a 3 temporada de 13 reasons why
-melhor semana eveeeeeeer</t>
-  </si>
-  <si>
-    <t>oi @selenagomez deixa eu entrar em 13 reasons why e encher a cara dessa ani de porrada garota chata da desgraça</t>
-  </si>
-  <si>
-    <t>esse fds semana vou pegar pra terminar a 3 temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>a série 13 reasons why mexe tanto comigo, choro de 5 em 5 min</t>
-  </si>
-  <si>
-    <t>tô assistindo lentamente a 3° temporada de 13 reasons why, e sinceramente não recomendo pra ninguém. pqp..</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série muito foda!</t>
-  </si>
-  <si>
-    <t>pra quem ainda não assistiu a terceira temporada de 13 reasons why, não assista se você ja passou por algo que a sé… https://t.co/cjtyes2ovb</t>
-  </si>
-  <si>
-    <t>13 reasons why nao deveria nem ter tido o primeiro capitulo https://t.co/yiybtiivng</t>
-  </si>
-  <si>
-    <t>tô escutando a playlist que eu montei e tem música de 13 reasons why. me trás uma calmaria que se fosse ano passado eu só ia saber chorar</t>
-  </si>
-  <si>
-    <t>em comemoração a sexta feira 13 vou terminar 13 reasons why</t>
-  </si>
-  <si>
-    <t>@fiocosegundo @ssssegarra @spixxay acho que não, achei que era igual 13 reasons why</t>
-  </si>
-  <si>
-    <t>rt @joao_cunnha: essa 3° temporada de 13 reasons why ta tão frau q eu to olhando me rastejando</t>
-  </si>
-  <si>
-    <t>elite tá igual a última temporada de 13 reasons why, que chatooo tudo a mesma história</t>
-  </si>
-  <si>
-    <t>e pra finalizar: “13 reasons why (netflix) também  disponibilizou um site com informações para quem precisa de ajud… https://t.co/4y3cfuol2n</t>
-  </si>
-  <si>
-    <t>tô no último ep de 13 reasons why aí q bad</t>
-  </si>
-  <si>
-    <t>vamos começar pela selena gomez: a cantora anunciou em seu twitter que parte dos lucros das vendas da trilha sonora… https://t.co/wvlhtcxyxx</t>
-  </si>
-  <si>
-    <t>crlh, eu tou a chorar muito com 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why acaba com meu emocional 🆘️ eu saio dos episódios me sentindo péssima</t>
-  </si>
-  <si>
-    <t>agora vc foi longe demais 13 reasons why fã
-https://t.co/wy33nagpwz https://t.co/jsrinheywz</t>
-  </si>
-  <si>
-    <t>13 reasons why tá me deixando paranóico e confuso novamente</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why (3 temporada) e pqp tem hr que eu quero defender o bryce e tem hrs que eu acho certíssimo ele ter morrido</t>
-  </si>
-  <si>
-    <t>mano eu não acredito que 13 reasons why tem 3 temporadas!!!! kkkkkkkkkk a pa porra</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why 3 temp e ainda nesse julgamento, parece o julgamento do lula</t>
-  </si>
-  <si>
-    <t>@anapaulalopesp vc assistiu a terceira temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>e agr não sei se assisto ela ou termino de ver 13 reasons why kkkkk</t>
-  </si>
-  <si>
-    <t>gente alguém me fiz que q tá acontecendo com "13 reasons why"?
-colocaram o mont como hetero curioso kkk apesar de e… https://t.co/omi7afxpeq</t>
-  </si>
-  <si>
-    <t>@adrianoo95 e meu mais novo caso de amor e ódio; 
-13 reasons why (esqueça o que disseram veja por si mesmo) https://t.co/zmmcebebw3</t>
-  </si>
-  <si>
-    <t>@pedroarno @netflixbrasil de tantos motivos que eu tenho pra te xingar, voce consegue fazer eu te apoiar nesse ponto, esquece 13 reasons why</t>
-  </si>
-  <si>
-    <t>13 reasons why.. pqp lixo https://t.co/xsvizlktig</t>
-  </si>
-  <si>
-    <t>terminei agora de assistir o episódio s03e04 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/4kzsvdkepn https://t.co/5a8f2p2pbg</t>
-  </si>
-  <si>
-    <t>😭😭😭😭😭 minha reação pro penúltimo ep de 13 reasons why</t>
-  </si>
-  <si>
-    <t>o tanto que eu to chorando com o final de 13 reasons why</t>
-  </si>
-  <si>
-    <t>comecei a 3 temporada de 13 reasons why
-antes de continuar essa palhaçada alguém pode me dizer se eles vão realmen… https://t.co/p0ck1sp7gz</t>
-  </si>
-  <si>
-    <t>em pleno seculo 2019 ainda tem gente que assiste 13 reasons why eh kkkkkk......</t>
-  </si>
-  <si>
-    <t>a camile tava assistindo 13 reasons why e eu desci na sala bem na hr q o garoto q foi estuprado na temporada passad… https://t.co/y5wxq42cpc</t>
-  </si>
-  <si>
-    <t>ator de 13 reasons why quer ser o principe de a pequena sereia #sabadotemnaweb no #temnaweb https://t.co/mjx7vofivj</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why um mês depois de começar e ah mkkkkkkk sinceramente que palhaçada</t>
-  </si>
-  <si>
-    <t>rt @yalloves: boa noite riverdale, 13 reasons why e insatiable piores séries do século https://t.co/czti6wnzzd</t>
-  </si>
-  <si>
-    <t>essa terceira temporada de 13 reasons why tá muito toppen, sério!</t>
-  </si>
-  <si>
-    <t>rt @lafliess: depois de terminar a 2 temporada de elite eu percebi que nenhuma série mais me surpreende... tá igual 13 reasons why, cansada…</t>
-  </si>
-  <si>
-    <t>eu e mais duas pessoas que nunca assistiram 13 reasons why e não tem um pingo de vontade de assistir 
-https://t.co/kbgao4te4h</t>
-  </si>
-  <si>
-    <t>bryce walker fez isso com o zach em na 3ª temporada de 13 reasons why (sim, as referências se cruzam na minha cabeç… https://t.co/5vcvxeaoek</t>
-  </si>
-  <si>
-    <t>caralho, elite e 13 reasons why com episódios novos. é pra eu bombarrrrr na faculdade #netflix ?!?!</t>
-  </si>
-  <si>
-    <t>rt @burn1ngmandala: 13 reasons why está realmente tratando um estuprador filha da puta como coitado nessa 3 temporada ou eu tô loca da cabe…</t>
-  </si>
-  <si>
-    <t>13 reasons why é ridículo, essa personagem nova é ridícula, o clay é frouxo e jessica maluca de voltar pra aquele l… https://t.co/m34bkelanq</t>
-  </si>
-  <si>
-    <t>mlk esse final da 3t de 13 reasons why...... que coisa maravilhosa</t>
-  </si>
-  <si>
-    <t>13 reasons why esta começando a tomar o 1° lugar de minha série preferida putz</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why n sei como prosseguir c a vida agora</t>
-  </si>
-  <si>
-    <t>gente meu deus? minha vó veio com um cabo de vassoura pra perto de mim e eu assustei achando que ela ia enfiar no m… https://t.co/aspharhkm4</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e tô triste, boa</t>
-  </si>
-  <si>
-    <t>sabadou comendo pizza e assitindo a 3 temporada de 13 reasons why pra saber quem foi o anjo que matou o bryce</t>
-  </si>
-  <si>
-    <t>rt @pistole_scher: 13 reasons why é um dos maiores desserviço que a netflix já fez</t>
-  </si>
-  <si>
-    <t>ator de 13 reasons why é rejeitado em teste da disney. entenda! https://t.co/xnzjd0t6f6 https://t.co/ofva6q14pq</t>
-  </si>
-  <si>
-    <t>atribuí nota 9 ao episódio 3x7 - there are a number of problems with clay jensen de 13 reasons why https://t.co/avj7ybizba #bancodeseries</t>
-  </si>
-  <si>
-    <t>❌❌ spoiler de it 2 em paralelo à série 13 reasons why no próximo tweet ❌❌</t>
-  </si>
-  <si>
-    <t>tu termina de assistir lá casa de papel e vira um assaltante profissional.
-termina 13 reasons why e fica na bad.
-e… https://t.co/0j0kdk1las</t>
-  </si>
-  <si>
-    <t>assistir 13 reasons why é tudo pra estragar meu psicológico porém amo</t>
-  </si>
-  <si>
-    <t>ai hj eu termino 13 reasons why</t>
-  </si>
-  <si>
-    <t>estou no episódio 10 da temporada 3 de 13 reasons why... e estou quase arregando e não terminando. está muito chata, gente, como pode!</t>
-  </si>
-  <si>
-    <t>como q o mundo não se manifestou q lançou a 3° temporada de 13 reasons why?????</t>
-  </si>
-  <si>
-    <t>ultimamente eu estou andando tão morta que nem pra série/netflix eu to ligando mais, tem temporada nova de elite e… https://t.co/oeed4mxqjd</t>
-  </si>
-  <si>
-    <t>"quando a casa pega fogo, você conversa sobre o fogo ou sai da casa?" - 13 reasons why</t>
-  </si>
-  <si>
-    <t>será q tenho espaço pra baixar 13 reasons why?</t>
-  </si>
-  <si>
-    <t>tô vendo 13 reasons why, me rendi</t>
-  </si>
-  <si>
-    <t>qual a opinião de todo mundo sobre a nova temporada de 13 reasons why?</t>
-  </si>
-  <si>
-    <t>preciso terminar essa 13 reasons why p poder ver sintona e por fim assistir vikings</t>
-  </si>
-  <si>
-    <t>assistindo "13 reasons why?" não consigo achar diferenças entre a direção da liberty e a do instituto, meu deus...</t>
-  </si>
-  <si>
-    <t>hbo go é tão ruim que deveria mudar o nome pra 13 reasons why</t>
-  </si>
-  <si>
-    <t>e assim acabo a 3° temporada de 13 reasons why, a chorar</t>
-  </si>
-  <si>
-    <t>@claudia_sarti13 eu, assistindo 13 reasons why... que fala sobre abuso, bullying e conivência com o opressor.</t>
-  </si>
-  <si>
-    <t>derrubei algumas lágrimas com o  final de 13 reasons why. que final!</t>
-  </si>
-  <si>
-    <t>enfim último episódio de 13 reasons why.</t>
-  </si>
-  <si>
-    <t>chegou a 3ª temp de 13 reasons why e eu tive q assistir a 1ª e 2ª inteiras pq eu tinha esquecido td e agr vou ter q… https://t.co/o4isxqac8b</t>
-  </si>
-  <si>
-    <t>acabei de assistir  3ª temporada de "13 reasons why". tinha odiado a 2ª temporada e pensei muito se seria perca de… https://t.co/cmyxs6eydq</t>
-  </si>
-  <si>
-    <t>mais um dia e eu chorando com 13 reasons why</t>
-  </si>
-  <si>
-    <t>nao consigo gostar de 13 reasons why, não consigo mesmo</t>
-  </si>
-  <si>
-    <t>wtf qual eh a dessa nova temp de 13 reasons why??? perdeu total o sentido e motivo da série, sei lá vei, nao captei a ideia</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why hoje kk</t>
-  </si>
-  <si>
-    <t>quero dizer que adorei a nova temporada de 13 reasons why. e que a história do tayler é boa demais, embora muito triste.</t>
-  </si>
-  <si>
-    <t>rt @angryluana: eu acho que sou a única que gostou da ani de 13 reasons why</t>
-  </si>
-  <si>
-    <t>eu assistindo  a terceira temporada 13 reasons why e eu não sei pq</t>
-  </si>
-  <si>
-    <t>preciso dizer que os 9 primeiros episódios da 3° temp de 13 reasons why são chatinhos e uma morte lenta,mas  os 4 ú… https://t.co/nlrwuzbgiy</t>
+    <t>agora posso assistir elite, nem acredito que acabei 13 reasons why🙏🏻</t>
+  </si>
+  <si>
+    <t>atribuí nota 9 ao episódio 3x9 - always waiting for the next bad news de 13 reasons why https://t.co/xk1js65v5l #bancodeseries</t>
   </si>
   <si>
     <t>• sobre séries •
@@ -2966,422 +3120,181 @@
 6.… https://t.co/57uwddlqq6</t>
   </si>
   <si>
-    <t>carai eu to tentando assistir a terceira temporada de 13 reasons why
-mas vei muito saturadaaaaaa</t>
-  </si>
-  <si>
-    <t>to vendo 13 reasons why e só passando raiva credo</t>
-  </si>
-  <si>
-    <t>eu to muito puto como essa terceira temporada de 13 reasons why está chata pra caralho, falta dois ep pra terminar… https://t.co/q9ragwzesd</t>
-  </si>
-  <si>
-    <t>rt @vibetuiteiro: “há pessoas que se machucam e há pessoas que machucam.”
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>não consegui terminar 13 reasons why ainda, já saiu segunda temp de elite e agr novos episódios de the ranch... eu vo morre</t>
-  </si>
-  <si>
-    <t>pedi tanto a 3 temp de 13 reasons why, e agora eu não gostando do rumo q tomou e to até enrolando p terminar, pois tá chata!</t>
-  </si>
-  <si>
-    <t>amizade faz q gente fazer coisa viu.. meus planos eram de ficar bem maravilhosa em casa vendo 13 reasons why kkkkkkk https://t.co/at7vnzemi8</t>
-  </si>
-  <si>
-    <t>peguei o dinheiro que sobrou do lanche ontem, comprei umas pipoca de microondas e uma lata de coca e to aqui maratonando "13 reasons why"</t>
-  </si>
-  <si>
-    <t>tô assistindo a terceira temporada de 13 reasons why e morrendo de medo que o clay tenha passado de mocinho p vilão</t>
-  </si>
-  <si>
-    <t>assistindo 13 reasons why e chorando que nem uma desgraçada</t>
-  </si>
-  <si>
-    <t>''a gente acerta e a gente erra, dai a gente aprende e melhora.''
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>na moral? elite é uma série tão tóxica quanto 13 reasons why e ninguém fala nada 🤪</t>
-  </si>
-  <si>
-    <t>já voltaram elite e 13 reasons why! nesse mês ainda irão retornar american horror story, how to get away with murder e disenchantment!</t>
-  </si>
-  <si>
-    <t>@vidalm_ a melhor série é stranger things. 13 reasons why está em terceiro lugar</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. acho que lost
-2. mad men
-3. skins
-4. 13 reasons why
-5. friends
-6. sei la
-7. skins
-8. miami vic… https://t.co/pnp8y60s5j</t>
-  </si>
-  <si>
-    <t>eu tô chorando mto com o depoimento da jess no ep 12 de 13 reasons why, help.</t>
-  </si>
-  <si>
-    <t>a pior coisa que eu fiz hj foi terminar a primeira temporada de 13 reasons why. passei tanto tempo querendo ver podia ter ficado sem essa</t>
-  </si>
-  <si>
-    <t>minha sina é assistir 13 reasons why esperando da a hora de tomar o remédio</t>
-  </si>
-  <si>
-    <t>@thaayzada vê: 13 reasons why 💗</t>
-  </si>
-  <si>
-    <t>gente vcs sabiam q o guri lá de 13 reasons why tem uma banda indie (q por sinal é muito boa)? https://t.co/cib3yj3edw</t>
+    <t>tô vendo a terceira temporada de 13 reasons why e ainda acho que poderia ter parada na primeira, não está ruim mas não é necessária</t>
+  </si>
+  <si>
+    <t>hmmm terminei 13 reasons why, até q gostei</t>
+  </si>
+  <si>
+    <t>rt @jurezender: 13 reasons why devia ter parado na primeira temporada, o resto eh forçação</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma merda cancela essa poha https://t.co/z9capjfcyg</t>
+  </si>
+  <si>
+    <t>na moral, e esse último ep de 13 reasons why????? 
+que loucuraaaaa, eu tô pasma, cara, que ep foda, que série foda, mano, muito loucoooo</t>
+  </si>
+  <si>
+    <t>13 reasons why ja ta na 3 temporada como assim porque vcs tão fazendo isso para</t>
+  </si>
+  <si>
+    <t>estou desde a hora que acordei assistindo 13 reasons why. o ep 8 acabou cmg,chorei feito criança. agr tô super mal</t>
+  </si>
+  <si>
+    <t>estou no terceiro episodio da 3 temporada de 13 reasons why e até agora não estou gostando. essa temporada está ten… https://t.co/zutf03noim</t>
   </si>
   <si>
     <t>a redenção de hbene: 4a temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>mano a série 13 reasons why é uma merda em alguns aspectos, mas me faz questionar muita coisa. slc</t>
-  </si>
-  <si>
-    <t>jessica de 13 reasons why é um íconeeeeeeee</t>
-  </si>
-  <si>
-    <t>e na verdade,13 reasons why é simplesmente a série da minha vida,me vejo em quase todos os episódios...e isso não é bom, não é boa coisa</t>
-  </si>
-  <si>
-    <t>vou comer a pizza vê essa série 13 reasons why</t>
-  </si>
-  <si>
-    <t>@purplesirens2 em 13 reasons why ela faz os 2</t>
-  </si>
-  <si>
-    <t>13 reasons why é uma série triste, tudo sempre muito no fim, cada cena é uma despedida. eu realmente me sinto abraç… https://t.co/eagfxl8n0f</t>
-  </si>
-  <si>
-    <t>'elite' ultrapassa '13 reasons why' como série mais assistida da semana; veja o top 10! - https://t.co/gp6zirfrne https://t.co/afafsbd1h6</t>
-  </si>
-  <si>
-    <t>— bia
-— 12 
-— bi 
-— riverdale, one day at a time, everything sucks e 13 reasons why kk
-— virgem 
-— vivendo
-— melhor… https://t.co/8thykzhvug</t>
-  </si>
-  <si>
-    <t>#elitenetflix tá igual 13 reasons why, só acho</t>
-  </si>
-  <si>
-    <t>terminei 13 reasons why e eu só quero matar o jojo e a giovanna, é isso, boa noite.</t>
-  </si>
-  <si>
-    <t>rt @heloysesantos1: manoooooo, não ta dandooo ... 
-tenho que assistir elite, 13 reasons why, grey’s anatomy e aindaaaa tem a dona do pedaço…</t>
-  </si>
-  <si>
-    <t>não sei como as pessoas ainda dão bola pra 13 reasons why depois de todo falatório negativo que teve em torno da sé… https://t.co/hqyg7vhjzd</t>
-  </si>
-  <si>
-    <t>senhor, terminar a terceira temporada de 13 reasons why está sendo um parto.</t>
-  </si>
-  <si>
-    <t>13 reasons why é mesmo tão ruim e irresponsável que fazer outra temporada disso é cínico</t>
-  </si>
-  <si>
-    <t>ok estou completamente destruida com a 1° temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>você não precisa que o mundo te ame, mas merece que as pessoas te respeitem, respeitem seus limites e suas decisões… https://t.co/3etbhsvq74</t>
-  </si>
-  <si>
-    <t>queria poder banir algumas coisas que a lue assiste no meu netflix tipo sinceramente ela ta vendo 13 reasons why qq eu faço c a garota???</t>
-  </si>
-  <si>
-    <t>nao quero acabar 13 reasons why pq n gostei vei mas a coitada da minha host mom ta me esperando acabar tem 2 semanas????</t>
-  </si>
-  <si>
-    <t>@highwarlockofbr @swiftitproudly é tipo um 13 reasons why, eu assisto mais pelo casal gay 💙</t>
-  </si>
-  <si>
-    <t>@shxwoif não tem vergonha de 13 reasons why não tem vergonha de nada né amore</t>
-  </si>
-  <si>
-    <t>rt @oberinmartello: o alex standall na terceira temporada de 13 reasons why https://t.co/wfz3lrvfvx</t>
-  </si>
-  <si>
-    <t>❌❌ spoiler de it 2 ❌❌
-mano vcs perceberam que a cena de suicidio em it foi completamente bem pensada apesar de ser… https://t.co/39qw3oqkg9</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''quando você julga uma pessoa pelo passado, isso pode fazer com que seja impossível escapar do passado, e pode fazer c…</t>
-  </si>
-  <si>
-    <t>finalmente consegui terminar 13 reasons why, agora preciso de forças pra terminar oitnb</t>
-  </si>
-  <si>
-    <t>elite, 13 reasons why, same energy acho que os produtores não tem mais criatividade https://t.co/efnpriys2b</t>
-  </si>
-  <si>
-    <t>até queria assistir a nova temporada de 13 reasons why ou elite mas já esqueci tudo. então... https://t.co/nrhybvwalx</t>
-  </si>
-  <si>
-    <t>mas eu preciso falar sobre crazy ex girlfriend pq numa época onde existe 13 reasons why, por exemplo, eu n achei qu… https://t.co/4jvktmo5um</t>
-  </si>
-  <si>
-    <t>terceira temporada de 13 reasons why tá péssima no</t>
-  </si>
-  <si>
-    <t>estou no terceiro episodio da 3 temporada de 13 reasons why e até agora não estou gostando. essa temporada está ten… https://t.co/zutf03noim</t>
-  </si>
-  <si>
-    <t>rt @cinema505: 'elite' desbanca '13 reasons why' e se torna a série mais vista da semana. https://t.co/ybickylyly</t>
-  </si>
-  <si>
-    <t>to entre assistir a nova temporada de 13 reasons why de chernobyl e começar outra série vulgo vis a vis</t>
-  </si>
-  <si>
-    <t>mds dps de tempo ter lançado a 3º temp de 13 reasons why, hoje que vou começar a assistir</t>
-  </si>
-  <si>
-    <t>13, reasons e why sabendo q não devia ter passado da primeira temporada e msm assim fizeram mais duas
- https://t.co/rkd21eh9w4</t>
-  </si>
-  <si>
-    <t>tô no último episódio do 2t de 13 reasons why ufa 😍😍</t>
-  </si>
-  <si>
-    <t>acabei agr de ver 13 reasons why , essa temporada tá mtoo foda namoral , tem que ter 4 temporada</t>
-  </si>
-  <si>
-    <t>to vendo 13 reasons why e ainda to no capítulo um, alguém me fala como não odiar o bryce??</t>
-  </si>
-  <si>
-    <t>essa terceira temporada de 13 reasons why tá muito pesada!!!</t>
-  </si>
-  <si>
-    <t>nossa que contraditória essa temporada de 13 reasons why hein?</t>
-  </si>
-  <si>
-    <t>rt @leticia_kcs: • sobre séries •
-1. friends 
-2. não consigo escolher mas agora é lucifer
-3. forever
-4. 13 reasons why
-5. vou ser xingada…</t>
-  </si>
-  <si>
-    <t>cara eu assisti a 3 temporada de 13 reasons why bebado  e não lembro kakskakakakslskskals</t>
-  </si>
-  <si>
-    <t>rt @viniciusbrien: foi isso que eu achei da 3 temporada de 13 reasons why, se quiserem me julgar pelo que eu acho, me julguem. mais tal ati…</t>
-  </si>
-  <si>
-    <t>rt @citou13reasons: ''por trás daquela cara de bonzinho tem uma confusão enorme.''
-— 13 reasons why</t>
-  </si>
-  <si>
-    <t>vou ver o último ep de 13 reasons why mais tarde pq não aguento mais bicho mas tb tenho que saber o desfecho</t>
-  </si>
-  <si>
-    <t>eu sempre choro assistindo o sexto episódio da segunda temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>(séries q já vi ou que estou vendo q recomendo com certeza):🤩🎬
-•13 reasons why
-•titãs
-•elite
-•the end of the f***in… https://t.co/ntezdhgr6v</t>
-  </si>
-  <si>
-    <t>atribuí nota 7 ao episódio 3x3 - the good person is indistinguishable from the bad de 13 reasons why https://t.co/ky8sfclknc #bancodeseries</t>
-  </si>
-  <si>
-    <t>atribuí nota 9 ao episódio 3x1 - yeah. i'm the new girl de 13 reasons why https://t.co/azvvwesj33 #bancodeseries</t>
-  </si>
-  <si>
-    <t>noite passada eu e meu amor terminamos a segunda temporada de 13 reasons why, até que enfim vamos pra terceira, que essa eu nao vi ainda \o/</t>
-  </si>
-  <si>
-    <t>vocês não tem noção do ódio que eu sinto de 13 reasons why.  tá pra existir entretenimento mais irresponsável e cínico do q esse</t>
-  </si>
-  <si>
-    <t>rt @projetosgvotes: - como vai você? no dia mundial da prevenção do suicídio, é muito importante falar sobre a nossa saúde mental, assim co…</t>
-  </si>
-  <si>
-    <t>vou me levantar, tomar café e olhar 13 reasons why, essa série é maravilhosa</t>
-  </si>
-  <si>
-    <t>eu não to conseguindo assistir a 3º temporada de 13 reasons why o começo tá muito chato 😒</t>
-  </si>
-  <si>
-    <t>a terceira temporada de 13 reasons  why ta mt foda velho</t>
-  </si>
-  <si>
-    <t>to no sexto ep da terceira temporada de 13 reasons why e preciso dizer que estou muito surpreso com o quão ruim con… https://t.co/kxyeajqkuc</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e10 de 13 reasons why! #tvtime https://t.co/9amhgklzwe https://t.co/k9gwq3xqv3</t>
-  </si>
-  <si>
-    <t>amei a 2 temporada de elite!! que seriezinha boa de assistir . 👏🏾👏🏾😄😄 13 reasons why tinha que aprender pq deus me… https://t.co/dyeizurq9i</t>
-  </si>
-  <si>
-    <t>• sobre séries •
-1. flash
-2. stranger things
-3. stranger things
-4. a anatomia de grey
-5. vampire diaries
-6. bojack… https://t.co/pjgunjuyiz</t>
-  </si>
-  <si>
-    <t>sofro muito com o justin nessa ultima temp de 13 reasons why 😔</t>
-  </si>
-  <si>
-    <t>tô na 2° temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>cara, que loucura esse final da 3ª temporada de 13 reasons why, continuo não sentindo pena do bryce.
-morreu tarde.</t>
-  </si>
-  <si>
-    <t>tô assistindo 13 reasons why e como que uma série pode ser tão ??????? assim</t>
-  </si>
-  <si>
-    <t>confesso, chorei vendo o brace e a mãe brincando na 3°temporada de 13 reasons why, e olha q a serie perdeh tds as qualidades</t>
-  </si>
-  <si>
-    <t>dylan minnette em 13 reasons why e em goosebumps
-percebam que aproveitaram até o figurino rsrs https://t.co/pyjvzvbshi</t>
-  </si>
-  <si>
-    <t>vc percebe q a série se distância completamente de si qnd inicialmente se trata do suicídio de uma garota (inclusiv… https://t.co/xitzj19g9z</t>
-  </si>
-  <si>
-    <t>pessoa que me recomendou musicas no curious cat, continua pq tu tem um ótimo gosto musical!!!!! btw n sabia q o car… https://t.co/dzuf7b3dog</t>
-  </si>
-  <si>
-    <t>acabei de assistir a season 3 de "13 reasons why" e eu digo com tranquilidade que essa série, é, com certeza, extre… https://t.co/cuinaizafc</t>
-  </si>
-  <si>
-    <t>essa 3° temporada de 13 reasons why está tão chata 😪</t>
-  </si>
-  <si>
-    <t>@meninuthur qualquer ep final, mas no caso eu tava falando de grey’s. já terminei 13 reasons why faz um tempinho</t>
-  </si>
-  <si>
-    <t>ficar sozinho em casa eh uma delicia, ontem acabei 13 reasons why e hj to vendo serie e comendo lasanha pronta do mercado</t>
-  </si>
-  <si>
-    <t>to assistindo 13 reasons why com o joao e percebi que minha memória é muito ruim</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e03 de 13 reasons why! #tvtime https://t.co/p1pkuz7izq https://t.co/dkbgjwjdrb</t>
-  </si>
-  <si>
-    <t>13 reasons why é péssimo no começo mas no fim é maravilhosooooooo</t>
-  </si>
-  <si>
-    <t>depois de três anos que 13 reasons why estreiou, finalmente vou começar a assistir</t>
-  </si>
-  <si>
-    <t>- você é fã de 13 reasons why?
-- sim.
-- e você chorou na cena que o tyler conta para o clay tudo que aconteceu co… https://t.co/aqekv50ubm</t>
-  </si>
-  <si>
-    <t>@franfiqueira menina aí é demais mesmo. a única campanha que eu concordo é pra acabar com 13 reasons why mas pelo m… https://t.co/dfck7ecfvc</t>
   </si>
   <si>
     <t>@pedroadc_ e foi ali que começou tudo... aquela mamadeira de piroca.......
 lembre do meme de 13 reasons why</t>
   </si>
   <si>
-    <t>e eu que nunca deixei de assistir uma série venho comunicar que:
-13 reasons why simplesmente não dá mais não consi… https://t.co/1jx4n9ouno</t>
-  </si>
-  <si>
-    <t>maratonando 13 reasons why  com o menino que eu gosto</t>
-  </si>
-  <si>
-    <t>rt @dressoutx: elite é tão merda quanto 13 reasons why</t>
-  </si>
-  <si>
-    <t>acho que eu vou ter que rever a primeira temporada de 13 reasons why, pq eu não tô entendendo nada da segunda.</t>
-  </si>
-  <si>
-    <t>terminei elite
-e porra
-que reviravolta
-ta bem parecida com 13 reasons why</t>
+    <t>como eu consegui perder meu tempo vendo essa terceira temporada de 13 reasons why</t>
+  </si>
+  <si>
+    <t>@guymyolo esse eh o ponto bb, não eh mal intencionado, é irresponsável,  tipo 13 reasons why, mas isso não quer dizer que eh ruim</t>
+  </si>
+  <si>
+    <t>o ruim de 13 reasons why é que a gente fica sentida até pelos piores caras 😩</t>
+  </si>
+  <si>
+    <t>sexta feira '13";
+vamo se beijar = "13" letras
+assistir "13" reasons why na netflix comendo mc
+vocês podem chamar… https://t.co/xkq5lybt5e</t>
+  </si>
+  <si>
+    <t>13 reasons why tem que ter outra temporada pq essa história tá um pouco mal contada, o zach bateu no bryce, o alex… https://t.co/vjh4vq3mnk</t>
+  </si>
+  <si>
+    <t>rt @andrehfodase: eu amo chamar wallows de "a banda daquele menino de 13 reasons why"</t>
+  </si>
+  <si>
+    <t>acabei de assistir ao episódio s03e08 de 13 reasons why! #tvtime https://t.co/ytf0qlf8ub https://t.co/hahofaup3w</t>
+  </si>
+  <si>
+    <t>acabei de terminar a segunda temporada de 13 reasons why. 
+sobre a minha experiência: a primeira temporada é muito… https://t.co/tskebzb0vj</t>
+  </si>
+  <si>
+    <t>eu não to conseguindo assistir a 3º temporada de 13 reasons why o começo tá muito chato 😒</t>
+  </si>
+  <si>
+    <t>não sei se eu assista essa terceira temporada de 13 reasons why, o final da segunda foi mt pesado. sla, fiquei meio coisada...</t>
+  </si>
+  <si>
+    <t>só essa maratona da série 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''quando você julga uma pessoa pelo passado, isso pode fazer com que seja impossível escapar do passado, e pode fazer c…</t>
+  </si>
+  <si>
+    <t>acabei de assistir o episódio s03e13 de 13 reasons why! #13reasonswhy  #tvtime https://t.co/ihtueoomar https://t.co/ygzqghnewv</t>
+  </si>
+  <si>
+    <t>podem falar mal o tanto que for de 13 reasons why, mas continua sendo uma série que trata de questões muito importantes da vida, real.</t>
+  </si>
+  <si>
+    <t>1° vez que discuto sobre 13 reasons why em um grupo kkkkkk e olha que não sou de ficar discutindo</t>
+  </si>
+  <si>
+    <t>alguem que me explique esta temporada de 13 reasons why 😅</t>
+  </si>
+  <si>
+    <t>rt @vicsvicsz: nunca demorei tanto pra terminar uma serie pequena, como to demorando pra terminar os 13 reasons why</t>
+  </si>
+  <si>
+    <t>terminei 13 reasons why, foi ele gente mds, a temporada não foi ruim mais esse final</t>
+  </si>
+  <si>
+    <t>a minha mãe está a ver 13 reasons why t3 e eu não posso dar spoiler aaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>13 reasons why é uma merda pqp os cara tenta fazer um monte de crítica social foda e falha em absolutamente todas as tentativas</t>
+  </si>
+  <si>
+    <t>2 episódios de 13 reasons why e ainda acho que deveria ter acabado na primeira temporada</t>
+  </si>
+  <si>
+    <t>atribuí nota 8.5 ao episódio 3x6 - you can tell the heart of a man by how he grieves de 13 reasons why… https://t.co/jvypejejrn</t>
+  </si>
+  <si>
+    <t>amizade faz q gente fazer coisa viu.. meus planos eram de ficar bem maravilhosa em casa vendo 13 reasons why kkkkkkk https://t.co/at7vnzemi8</t>
   </si>
   <si>
     <t>eu acho que  as pessoas deveriam assitir 13 reasons why,não é só uma série,ela aborda assuntos atuais como:
 a depre… https://t.co/h7qsoi3gl2</t>
   </si>
   <si>
-    <t>to assistindo 13 reasons why e to começando a ter certeza de que tenho transtornos emocionais e isso me assusta</t>
-  </si>
-  <si>
-    <t>sinceramente 13 reasons why eu não sei quem matou bryce walker mas tomara que tenha sido o clay porque eu não aguen… https://t.co/ctt0so0rao</t>
-  </si>
-  <si>
-    <t>em 13 reasons why o monty estupro o tyler e quando o pai dele descobre ele se importa se o filho dele é viado e não… https://t.co/ikybrohtip</t>
-  </si>
-  <si>
-    <t>depois do episódio 5 da season 3 de "13 reasons why" já chega de episódio por hj</t>
-  </si>
-  <si>
-    <t>ja assisti: greys, station 19, elite, casa de papel, breaking bad, blacklist, suits, diários de um vampiro, 13 reas… https://t.co/qyng0i7hsj</t>
-  </si>
-  <si>
-    <t>@jviana172 @flipeouza @bchartsnet amiga, isso não é considerado bem um emmy. para te provar isso, peguei a fonte do… https://t.co/vc9to8keio</t>
-  </si>
-  <si>
-    <t>13 reasons why tinha que ter acabado na primeira temporada já</t>
-  </si>
-  <si>
-    <t>nao dá pra negar que a cinematografia de 13 reasons why é impecável, e que a série foi muito bem desenvolvida. 
-mas… https://t.co/xbks6myoio</t>
-  </si>
-  <si>
-    <t>acabei de assistir ao episódio s03e10 de 13 reasons why! #tvtime https://t.co/o0ykdiguud https://t.co/mv1rglqwlj</t>
-  </si>
-  <si>
-    <t>• sobre séries • (botei anime mas fodase kk)
-1. the vampire diaries
-2. got, até a 5 temporada
-3. avatar a lenda de… https://t.co/q4xo9vgknt</t>
-  </si>
-  <si>
-    <t>eu vendo o último episódio de 13 reasons why 😫😫😫😫😔😔😭😭😭😭🤔🤔🤔🤔🤔😱😱😱😱😱😱🥺🥺🥺🥺🥺🥺🧐🧐🧐</t>
-  </si>
-  <si>
-    <t>na minha opinião 13 reasons why é muito pesada, só atrapalha quem sofre desses problemas..</t>
-  </si>
-  <si>
-    <t>3 temporada de 13 reasons why tá muito conturbada pra falar o mínimo</t>
-  </si>
-  <si>
-    <t>se o bryce não tivesse feito tanta merda nas primeiras temporadas de 13 reasons why eu poderia até ficar com dó del… https://t.co/iikgvrp1lr</t>
-  </si>
-  <si>
-    <t>1 coisa eu admito
-a soundtrack da primeira temporada de 13 reasons why é muito boa</t>
-  </si>
-  <si>
-    <t>acabei a 3ª temporada de 13 reasons why e parei pra pensar no quanto essa série é pesada viu</t>
-  </si>
-  <si>
-    <t>pra quê que eu fui começar assistir 13 reasons why? 
-tem alguns episódios que dá vontade de sentar e chorar</t>
-  </si>
-  <si>
-    <t>tenho q assistir a 3 temporada de 13 reasons why</t>
-  </si>
-  <si>
-    <t>e se aquela série lá os "13 reasons why" tiver 13 temporadas falando sobre os 13 porquês lá. sei lá mano to muito s… https://t.co/nqwrrsgcpm</t>
+    <t>será q tenho espaço pra baixar 13 reasons why?</t>
+  </si>
+  <si>
+    <t>rt @citou13reasons: ''existe uma dor além da morte, além do que se imagina, além das palavras.''
+— 13 reasons why</t>
+  </si>
+  <si>
+    <t>olha, virou questão de honra mesmo pq assistir essa terceira temporada de 13 reasons why por gosto ou pq ela é empo… https://t.co/gq5l38atgf</t>
+  </si>
+  <si>
+    <t>acabei agr de ver 13 reasons why , essa temporada tá mtoo foda namoral , tem que ter 4 temporada</t>
+  </si>
+  <si>
+    <t>caralho, elite e 13 reasons why com episódios novos. é pra eu bombarrrrr na faculdade #netflix ?!?!</t>
+  </si>
+  <si>
+    <t>rt @taehyli: vcs amigariam comigo?
+idade: 15 anos 
+série fav: 13 reasons why
+filme fav: meninas malvadas 
+hobby: dançar, cantar, ouvir mus…</t>
+  </si>
+  <si>
+    <t>a terceira temporada de 13 reasons why tá maravilhosaaaa foda-se sua opinião</t>
+  </si>
+  <si>
+    <t>vou já já ver 13 reasons why pra terminar logo essa terceira temporada, eu fico impressionado que #elite2 eu acabei… https://t.co/u2xi8jpj2w</t>
+  </si>
+  <si>
+    <t>elite é melhor que 13 reasons why e só minha opinião importa</t>
+  </si>
+  <si>
+    <t>para cabeças fraquinhas euphoria só vos faz pior.
+i said what i said.
+esta série é tão ou mais tóxica que 13 reasons why</t>
+  </si>
+  <si>
+    <t>rt @aleteiapt: por que a série “13 reasons why” ainda merece atenção dos pais, https://t.co/yvfzaxzimi</t>
+  </si>
+  <si>
+    <t>menina como é q a guria de 13 reasons why conseguiu pensar em só 13 motivo eu devo te uns 163 só esse ano</t>
+  </si>
+  <si>
+    <t>nesse último mês eu vi a terceira temporada de 13 reasons why , e a segunda temporada de élite , e nossa gente recomendo .</t>
+  </si>
+  <si>
+    <t>maluco, essa terceira temporada de "13 reasons why" tá maneira...
+espero que nenhum fdp dê spoilers!</t>
+  </si>
+  <si>
+    <t>depois de ver a terceira temporada de 13 reasons why, a única coisa que quero saber é onde raio se meteu a nina a t… https://t.co/urfyihtpeb</t>
+  </si>
+  <si>
+    <t>acabei a segunda temporada da série 13 reasons why.. mds, forte!!!</t>
+  </si>
+  <si>
+    <t>eu odeio uma série. 13 reasons why</t>
+  </si>
+  <si>
+    <t>essa série elite presta mesmo?! a última vez q segui dica de millenial foi pra assistir 13 reasons why, parei no 2º… https://t.co/6b8wdylj0o</t>
+  </si>
+  <si>
+    <t>pois hoje terminei finalmente a 1t de 13 reasons why. demorei, pois não foi fácil assistir. a professora de ontem p… https://t.co/e7ewbjposp</t>
+  </si>
+  <si>
+    <t>eu tô me sentindo no 13 reasons why</t>
   </si>
 </sst>
 </file>
@@ -6757,7 +6670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A399"/>
+  <dimension ref="A1:A370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8613,151 +8526,6 @@
         <v>970</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
